--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,18 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD355E-8FED-47B7-9F15-F4868604F121}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
-    <sheet name="Autre composant" sheetId="6" r:id="rId2"/>
-    <sheet name="Relais" sheetId="4" r:id="rId3"/>
-    <sheet name="Fusibles" sheetId="3" r:id="rId4"/>
-    <sheet name="Connecteurs" sheetId="5" r:id="rId5"/>
-    <sheet name="Données" sheetId="2" r:id="rId6"/>
+    <sheet name="Compte connecteur" sheetId="7" r:id="rId2"/>
+    <sheet name="Autre composant" sheetId="6" r:id="rId3"/>
+    <sheet name="Relais" sheetId="4" r:id="rId4"/>
+    <sheet name="Fusibles" sheetId="3" r:id="rId5"/>
+    <sheet name="Connecteurs" sheetId="5" r:id="rId6"/>
+    <sheet name="Données" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="Ouinon">Données!$C$2:$C$3</definedName>
@@ -28,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
   <si>
     <t xml:space="preserve">Identification du câble </t>
   </si>
@@ -156,9 +158,6 @@
     <t>Sonde lambda</t>
   </si>
   <si>
-    <t>Carte arduino</t>
-  </si>
-  <si>
     <t>Capteur de vitesse</t>
   </si>
   <si>
@@ -328,13 +327,190 @@
   </si>
   <si>
     <t>relai démarreur - pare feu</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>Capteur pression frein</t>
+  </si>
+  <si>
+    <t>Capteur suspension</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Capteur position volant</t>
+  </si>
+  <si>
+    <t>19mA</t>
+  </si>
+  <si>
+    <t>20A</t>
+  </si>
+  <si>
+    <t>10A</t>
+  </si>
+  <si>
+    <t>Injection</t>
+  </si>
+  <si>
+    <t>3A</t>
+  </si>
+  <si>
+    <t>MK3</t>
+  </si>
+  <si>
+    <t>15A</t>
+  </si>
+  <si>
+    <t>1A</t>
+  </si>
+  <si>
+    <t>Passage pare-feu</t>
+  </si>
+  <si>
+    <t>Signal</t>
+  </si>
+  <si>
+    <t>Quantité</t>
+  </si>
+  <si>
+    <t>taille câble</t>
+  </si>
+  <si>
+    <t>bus CAN</t>
+  </si>
+  <si>
+    <t>inter DTA</t>
+  </si>
+  <si>
+    <t>Alim et retour</t>
+  </si>
+  <si>
+    <t>Palettes</t>
+  </si>
+  <si>
+    <t>sensor gnd DTA</t>
+  </si>
+  <si>
+    <t>MK3 gnd</t>
+  </si>
+  <si>
+    <t>+5V MK3</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Commande</t>
+  </si>
+  <si>
+    <t>Retour</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Carte arrière vers le reste</t>
+  </si>
+  <si>
+    <t>Carte arrière vers servomoteur</t>
+  </si>
+  <si>
+    <t>shift cut</t>
+  </si>
+  <si>
+    <t>gear pot</t>
+  </si>
+  <si>
+    <t>Bus CAN</t>
+  </si>
+  <si>
+    <t>Qauntité</t>
+  </si>
+  <si>
+    <t>Taille câble</t>
+  </si>
+  <si>
+    <t>SPI</t>
+  </si>
+  <si>
+    <t>I²C</t>
+  </si>
+  <si>
+    <t>Power 5V</t>
+  </si>
+  <si>
+    <t>Affichage homming</t>
+  </si>
+  <si>
+    <t>Affichage Launch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sortie carte avant </t>
+  </si>
+  <si>
+    <t>Entrées carte avant</t>
+  </si>
+  <si>
+    <t>Bus Can</t>
+  </si>
+  <si>
+    <t>Homming Servo</t>
+  </si>
+  <si>
+    <t>Launch Control</t>
+  </si>
+  <si>
+    <t>Switch temp/voltage</t>
+  </si>
+  <si>
+    <t>BSPD</t>
+  </si>
+  <si>
+    <t>TPS</t>
+  </si>
+  <si>
+    <t>+5V et sensor gnd</t>
+  </si>
+  <si>
+    <t>Shutdown circuit</t>
+  </si>
+  <si>
+    <t>Sortie</t>
+  </si>
+  <si>
+    <t>Brake Pressure</t>
+  </si>
+  <si>
+    <t>Voir moteur</t>
+  </si>
+  <si>
+    <t>Dispo au garage (ou pso)</t>
+  </si>
+  <si>
+    <t>Ventilateurs</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Carte arrière</t>
+  </si>
+  <si>
+    <t>DTA</t>
+  </si>
+  <si>
+    <t>Souriau</t>
+  </si>
+  <si>
+    <t>lien ??</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -366,8 +542,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -386,8 +584,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -395,12 +635,25 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -431,9 +684,43 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="29">
@@ -629,16 +916,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -727,6 +1004,30 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -743,6 +1044,81 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{788B3763-167B-4537-8CB4-249D5CFDCBEE}" name="Tableau1" displayName="Tableau1" ref="A2:C9" totalsRowShown="0">
+  <autoFilter ref="A2:C9" xr:uid="{10B92C3C-BC5A-4DF6-BD76-25477016ABE6}"/>
+  <sortState ref="A3:C11">
+    <sortCondition ref="B2:B11"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{6E6C4D10-B184-4EF6-97BE-79D14D8BB9AB}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{EA65F758-19C7-462E-827D-0A27F1E49D66}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{3E3384F4-D62B-458A-AFAC-219C8BE585DA}" name="Taille câble"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C343F534-8026-488C-B9A1-7392BF672CA9}" name="Tableau2" displayName="Tableau2" ref="E2:G5" totalsRowShown="0">
+  <autoFilter ref="E2:G5" xr:uid="{89AB2C05-C1D0-4049-BE41-63D079A493B8}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{32826C71-0A49-44A1-9D99-46471F288D8D}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{16790B8F-2B6A-44F8-A82A-AE297CF6D842}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{0EB77C10-706E-474F-AD94-4E38BA7083CB}" name="Taille câble"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFB11B2-83A5-4C89-8FC9-7453FC0666CA}" name="Tableau5" displayName="Tableau5" ref="E10:G15" totalsRowShown="0">
+  <autoFilter ref="E10:G15" xr:uid="{321E8CEA-276A-4A74-BCBF-E9D6451E8198}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8EC88283-C23A-43A8-BA4D-0761D8EA1FBC}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{64EBAE8F-22B2-468A-B916-6C5F45FF76C4}" name="Qauntité"/>
+    <tableColumn id="3" xr3:uid="{E3C0CCD9-8004-41D1-8096-37E68EC41C93}" name="Taille câble"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5FF5D6F-5C4F-4A9F-97D8-F7092019C89D}" name="Tableau6" displayName="Tableau6" ref="I2:K7" totalsRowShown="0">
+  <autoFilter ref="I2:K7" xr:uid="{7D0AAD1B-760E-4F47-82AA-7C8A0094721B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{8DA76FAD-EEC7-4EFB-BCCC-A49874A6F177}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{A0DA4AAB-4982-4118-B479-C30CE422057C}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{46BC4000-EB93-4B2D-91D1-1CD62697D722}" name="Taille câble"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I11:K17" totalsRowShown="0">
+  <autoFilter ref="I11:K17" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{7EAA620D-F245-4300-BC5A-6331103D1EB8}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{847BB985-A8C5-4576-90DF-371B2F4669A5}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{CB7EACFE-3369-4321-96B5-9F8B9258538C}" name="Taille câble"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="A14:C20" totalsRowShown="0" headerRowDxfId="28">
+  <autoFilter ref="A14:C20" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{C1FE7950-85C5-446E-9354-FE1808479D2A}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{0AD90A95-5CFB-49F0-AA77-DA306484B3F4}" name="Taille câble"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1007,14 +1383,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.140625" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -1035,22 +1411,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>2</v>
@@ -1073,10 +1449,10 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -1095,10 +1471,10 @@
         <v>1.7860000000000003</v>
       </c>
       <c r="H2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" t="s">
         <v>68</v>
-      </c>
-      <c r="I2" t="s">
-        <v>69</v>
       </c>
       <c r="J2" t="s">
         <v>6</v>
@@ -1106,10 +1482,10 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C3">
         <v>0.2</v>
@@ -1128,18 +1504,18 @@
         <v>1.7860000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1154,10 +1530,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1170,10 +1546,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1185,10 +1561,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1200,10 +1576,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1215,10 +1591,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B9" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1230,10 +1606,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B10" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1248,10 +1624,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B11" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -1269,10 +1645,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1287,10 +1663,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1305,10 +1681,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1323,10 +1699,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1341,7 +1717,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1389,45 +1765,45 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21 K21:L21">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21 K21:L21" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>signal</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L20" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -1437,14 +1813,419 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
+  <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="17" customWidth="1"/>
+    <col min="9" max="9" width="21.28515625" customWidth="1"/>
+    <col min="11" max="11" width="17.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
+        <v>111</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="E1" s="15" t="s">
+        <v>127</v>
+      </c>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="I1" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C2" t="s">
+        <v>132</v>
+      </c>
+      <c r="E2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>113</v>
+      </c>
+      <c r="G2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I2" t="s">
+        <v>112</v>
+      </c>
+      <c r="J2" t="s">
+        <v>113</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>119</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="I3" t="s">
+        <v>133</v>
+      </c>
+      <c r="J3">
+        <v>2</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>120</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>134</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>135</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="20">
+        <f>SUM(F3:F5)</f>
+        <v>9</v>
+      </c>
+      <c r="I6" t="s">
+        <v>136</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>117</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>137</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>118</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="J8" s="17">
+        <f>SUM(J3:J7)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="17">
+        <f>SUM(B2:B9)</f>
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="J10" s="25"/>
+      <c r="K10" s="25"/>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
+        <v>112</v>
+      </c>
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="I12" s="23" t="s">
+        <v>125</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="E13" t="s">
+        <v>125</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>140</v>
+      </c>
+      <c r="J13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>113</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>132</v>
+      </c>
+      <c r="E14" t="s">
+        <v>130</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="I14" t="s">
+        <v>141</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="E15" t="s">
+        <v>118</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>145</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>122</v>
+      </c>
+      <c r="F16" s="20">
+        <f>SUM(F11:F15)</f>
+        <v>9</v>
+      </c>
+      <c r="I16" t="s">
+        <v>143</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="E17" s="28"/>
+      <c r="F17" s="29"/>
+      <c r="I17" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="J17" s="17">
+        <f>SUM(J12:J16)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>147</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>148</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="31">
+        <f>SUM(B15:B20)</f>
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="A13:C13"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="6">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId7"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -1452,7 +2233,7 @@
     <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" customWidth="1"/>
     <col min="8" max="8" width="15.5703125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1476,7 +2257,7 @@
         <v>38</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>15</v>
+        <v>151</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>18</v>
@@ -1490,16 +2271,20 @@
         <v>20</v>
       </c>
       <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="D2" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="F2" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1509,26 +2294,48 @@
       <c r="B3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="5">
+        <v>2</v>
+      </c>
       <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="9"/>
+      <c r="F3" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="C4" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D4" s="5">
+        <v>7</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>156</v>
+      </c>
       <c r="F4" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>53</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -1537,238 +2344,490 @@
       <c r="B5" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="9"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5">
+        <v>14</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
       <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="9"/>
+      <c r="F6" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
       <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="9"/>
+      <c r="F7" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>58</v>
-      </c>
+      <c r="C8" s="5"/>
       <c r="D8" s="5">
         <v>3</v>
       </c>
       <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="9"/>
+      <c r="F8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
       <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="9"/>
+      <c r="F9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
       <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="9"/>
+      <c r="F10" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>47</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>44</v>
+        <v>99</v>
       </c>
       <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
       <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="9"/>
+      <c r="F11" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="9"/>
+      <c r="B12" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="5">
+        <v>2</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>49</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
       <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="9"/>
+      <c r="F13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5">
+        <v>3</v>
+      </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9"/>
+      <c r="F14" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>51</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
+        <v>102</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="5">
+        <v>3</v>
+      </c>
       <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9"/>
+      <c r="F15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>60</v>
-      </c>
+        <v>99</v>
+      </c>
+      <c r="C16" s="11"/>
       <c r="D16" s="5">
         <v>2</v>
       </c>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" t="s">
+      <c r="E16" s="11"/>
+      <c r="F16" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="H16" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="C17" s="11"/>
+      <c r="D17" s="5">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11"/>
+      <c r="F17" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C18" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="5">
+        <v>2</v>
+      </c>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>152</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C19" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="5">
+        <v>2</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G19" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>62</v>
+        <v>32</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="C20" s="5"/>
+      <c r="D20" s="5">
+        <v>2</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="5"/>
+      <c r="D21" s="5">
+        <v>2</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="5"/>
+      <c r="D22" s="5">
+        <v>2</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="5">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>156</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G23" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>154</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" t="s">
+        <v>16</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="G2:H20">
-    <cfRule type="containsText" dxfId="21" priority="4" operator="containsText" text="'Oui'">
+  <conditionalFormatting sqref="G2:H24">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H20">
-    <cfRule type="containsText" dxfId="20" priority="3" operator="containsText" text="Non">
+  <conditionalFormatting sqref="G2:H24">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H20">
-    <cfRule type="containsText" dxfId="19" priority="2" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",G2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G2:H20">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Oui">
+  <conditionalFormatting sqref="G2:H24">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{3F9CF025-764A-4CBA-8D55-BA0984A6AF68}"/>
+    <hyperlink ref="F6" r:id="rId3" display="..\Doc des éléments\Capteurs\LC-2_Manual.pdf" xr:uid="{D529AB4E-008F-4006-B2F0-2A4C26377637}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{6906A296-3B1E-482F-82DE-F6D779C2B269}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{42C86DC2-8198-419E-A1E3-D30946538678}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{3A89EBDC-EB5F-4BDB-88FE-B34BF328AD89}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{19D13A72-9629-4E36-B24B-049DB2020EE2}"/>
+    <hyperlink ref="F23" r:id="rId8" xr:uid="{2F41565A-7FAF-476C-8994-D4B25DE9FB52}"/>
+    <hyperlink ref="F24" r:id="rId9" xr:uid="{8F607078-8C2E-4DA8-86BF-A0B72F0DA3DB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
@@ -1822,11 +2881,11 @@
         <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
         <v>29</v>
@@ -1840,11 +2899,11 @@
         <v>20</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1855,11 +2914,11 @@
         <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
         <v>26</v>
@@ -1873,11 +2932,11 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
         <v>28</v>
@@ -1968,27 +3027,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E26" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4:F6" r:id="rId2" display="lien"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
+    <hyperlink ref="F4:F6" r:id="rId2" display="lien" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -2038,7 +3097,9 @@
       <c r="A4" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B4" s="5"/>
+      <c r="B4" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -2046,38 +3107,60 @@
         <v>41</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>104</v>
+      </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>105</v>
+      </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>107</v>
+      </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>39</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>110</v>
+      </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
+      <c r="A11" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>109</v>
+      </c>
       <c r="C11" s="5"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,7 +3235,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21 D2:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21 D2:D20" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -2161,15 +3244,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.7109375" customWidth="1"/>
@@ -2228,7 +3311,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22 B2:B20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22 B2:B20" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -2236,15 +3319,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2AD355E-8FED-47B7-9F15-F4868604F121}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F570D1A-A8A3-465C-9CED-3997E92054B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -32,9 +32,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
   <si>
-    <t xml:space="preserve">Identification du câble </t>
-  </si>
-  <si>
     <t>Intensité maximal</t>
   </si>
   <si>
@@ -504,6 +501,9 @@
   </si>
   <si>
     <t>lien ??</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identification des câbles </t>
   </si>
 </sst>
 </file>
@@ -684,27 +684,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -712,12 +715,9 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -936,6 +936,30 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -1001,30 +1025,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1110,7 +1110,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="A14:C20" totalsRowShown="0" headerRowDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="A14:C20" totalsRowShown="0" headerRowDxfId="21">
   <autoFilter ref="A14:C20" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
@@ -1386,13 +1386,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
     <col min="4" max="4" width="21.140625" customWidth="1"/>
@@ -1408,51 +1408,51 @@
   <sheetData>
     <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C2">
         <v>0.2</v>
@@ -1471,21 +1471,21 @@
         <v>1.7860000000000003</v>
       </c>
       <c r="H2" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" t="s">
         <v>67</v>
       </c>
-      <c r="I2" t="s">
-        <v>68</v>
-      </c>
       <c r="J2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C3">
         <v>0.2</v>
@@ -1504,18 +1504,18 @@
         <v>1.7860000000000003</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D4">
         <v>0</v>
@@ -1530,10 +1530,10 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1546,10 +1546,10 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -1561,10 +1561,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -1576,10 +1576,10 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -1591,10 +1591,10 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -1606,10 +1606,10 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -1624,10 +1624,10 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D11">
         <v>14</v>
@@ -1645,10 +1645,10 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -1663,10 +1663,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D13">
         <v>14</v>
@@ -1681,10 +1681,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B14" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D14">
         <v>14</v>
@@ -1699,10 +1699,10 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -1717,7 +1717,7 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E16">
         <v>1</v>
@@ -1765,37 +1765,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="27" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="26" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="25" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="24" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",K2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="23" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="22" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="21" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",L2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1831,115 +1831,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="14" t="s">
-        <v>111</v>
-      </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="E1" s="15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="I1" s="24" t="s">
-        <v>138</v>
-      </c>
-      <c r="J1" s="24"/>
-      <c r="K1" s="24"/>
+      <c r="A1" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="E1" s="27" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="I1" s="29" t="s">
+        <v>137</v>
+      </c>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B2" t="s">
         <v>112</v>
       </c>
-      <c r="B2" t="s">
-        <v>113</v>
-      </c>
       <c r="C2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" t="s">
         <v>112</v>
       </c>
-      <c r="F2" t="s">
-        <v>113</v>
-      </c>
       <c r="G2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="I2" t="s">
+        <v>111</v>
+      </c>
+      <c r="J2" t="s">
         <v>112</v>
       </c>
-      <c r="J2" t="s">
-        <v>113</v>
-      </c>
       <c r="K2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
-      <c r="M3" s="18" t="s">
+      <c r="M3" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="N3" s="15" t="s">
         <v>112</v>
       </c>
-      <c r="N3" s="18" t="s">
+      <c r="O3" s="15" t="s">
         <v>113</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="13" t="s">
-        <v>121</v>
+      <c r="A5" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1947,20 +1947,20 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
-      <c r="E6" s="19" t="s">
-        <v>122</v>
-      </c>
-      <c r="F6" s="20">
+      <c r="E6" s="16" t="s">
+        <v>121</v>
+      </c>
+      <c r="F6" s="17">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -1968,13 +1968,13 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="I7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="J7">
         <v>1</v>
@@ -1982,123 +1982,123 @@
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-      <c r="I8" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="I8" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="J8" s="14">
         <f>SUM(J3:J7)</f>
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
-      <c r="E9" s="22" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
+      <c r="E9" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B10" s="17">
+      <c r="A10" s="13" t="s">
+        <v>121</v>
+      </c>
+      <c r="B10" s="14">
         <f>SUM(B2:B9)</f>
         <v>14</v>
       </c>
       <c r="E10" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F10" t="s">
+        <v>130</v>
+      </c>
+      <c r="G10" t="s">
         <v>131</v>
       </c>
-      <c r="G10" t="s">
-        <v>132</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>139</v>
-      </c>
-      <c r="J10" s="25"/>
-      <c r="K10" s="25"/>
+      <c r="I10" s="30" t="s">
+        <v>138</v>
+      </c>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="I11" t="s">
+        <v>111</v>
+      </c>
+      <c r="J11" t="s">
         <v>112</v>
       </c>
-      <c r="J11" t="s">
-        <v>113</v>
-      </c>
       <c r="K11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E12" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
-      <c r="I12" s="23" t="s">
-        <v>125</v>
+      <c r="I12" s="19" t="s">
+        <v>124</v>
       </c>
       <c r="J12">
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="A13" s="31" t="s">
+        <v>143</v>
+      </c>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
       <c r="E13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F13">
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="J13">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="21" t="s">
+        <v>111</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>112</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>113</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>132</v>
+      <c r="C14" s="21" t="s">
+        <v>131</v>
       </c>
       <c r="E14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="J14">
         <v>1</v>
@@ -2106,19 +2106,19 @@
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
       <c r="E15" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F15">
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="J15">
         <v>1</v>
@@ -2126,20 +2126,20 @@
     </row>
     <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B16">
         <v>1</v>
       </c>
-      <c r="E16" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="F16" s="20">
+      <c r="E16" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="F16" s="17">
         <f>SUM(F11:F15)</f>
         <v>9</v>
       </c>
       <c r="I16" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J16">
         <v>1</v>
@@ -2147,24 +2147,24 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
-      <c r="E17" s="28"/>
-      <c r="F17" s="29"/>
-      <c r="I17" s="26" t="s">
-        <v>122</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="E17" s="22"/>
+      <c r="F17" s="23"/>
+      <c r="I17" s="20" t="s">
+        <v>121</v>
+      </c>
+      <c r="J17" s="14">
         <f>SUM(J12:J16)</f>
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
-        <v>146</v>
+      <c r="A18" s="12" t="s">
+        <v>145</v>
       </c>
       <c r="B18">
         <v>2</v>
@@ -2172,7 +2172,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -2180,29 +2180,29 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="B21" s="31">
+      <c r="A21" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" s="25">
         <f>SUM(B15:B20)</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A13:C13"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="E9:G9"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I10:K10"/>
-    <mergeCell ref="A13:C13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2221,7 +2221,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
@@ -2239,134 +2239,134 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H4" t="s">
         <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5">
@@ -2374,45 +2374,45 @@
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>57</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -2420,21 +2420,21 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -2442,21 +2442,21 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -2464,21 +2464,21 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -2486,21 +2486,21 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="5">
@@ -2508,21 +2508,21 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -2530,21 +2530,21 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -2552,45 +2552,45 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>101</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>102</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>103</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G15" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H15" t="s">
         <v>16</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="5">
@@ -2598,21 +2598,21 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="5">
@@ -2620,166 +2620,166 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H22" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -2838,108 +2838,108 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3059,107 +3059,107 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>30</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>31</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -3262,16 +3262,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -3334,28 +3334,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F570D1A-A8A3-465C-9CED-3997E92054B7}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB24BE-F57D-4CD1-8995-8D766CB458AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="139">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -230,9 +230,6 @@
     <t>Section du conducteur (mm²)</t>
   </si>
   <si>
-    <t>cosse batterie</t>
-  </si>
-  <si>
     <t>rouge</t>
   </si>
   <si>
@@ -242,90 +239,6 @@
     <t>De ou à ou</t>
   </si>
   <si>
-    <t>Batterie - masse</t>
-  </si>
-  <si>
-    <t>Régulateur - masse</t>
-  </si>
-  <si>
-    <t>Régulateur - inter. maitre</t>
-  </si>
-  <si>
-    <t>R1</t>
-  </si>
-  <si>
-    <t>R2</t>
-  </si>
-  <si>
-    <t>R3</t>
-  </si>
-  <si>
-    <t>R4</t>
-  </si>
-  <si>
-    <t>R5</t>
-  </si>
-  <si>
-    <t>R6</t>
-  </si>
-  <si>
-    <t>R7</t>
-  </si>
-  <si>
-    <t>R8</t>
-  </si>
-  <si>
-    <t>R9</t>
-  </si>
-  <si>
-    <t>R10</t>
-  </si>
-  <si>
-    <t>R11</t>
-  </si>
-  <si>
-    <t>R12</t>
-  </si>
-  <si>
-    <t>Batterie - fusible 250A</t>
-  </si>
-  <si>
-    <t>fusible 250A - inter. maitre</t>
-  </si>
-  <si>
-    <t>inter. Maitre - power supply</t>
-  </si>
-  <si>
-    <t>power supply - power supply</t>
-  </si>
-  <si>
-    <t>démarreur- masse</t>
-  </si>
-  <si>
-    <t>R13</t>
-  </si>
-  <si>
-    <t>R14</t>
-  </si>
-  <si>
-    <t>R15</t>
-  </si>
-  <si>
-    <t>Feu frein - masse</t>
-  </si>
-  <si>
-    <t>Contacteur frein - feu frein</t>
-  </si>
-  <si>
-    <t>inter. Maitre - relai démarreur</t>
-  </si>
-  <si>
-    <t xml:space="preserve">relai démarreur - masse </t>
-  </si>
-  <si>
-    <t>relai démarreur - pare feu</t>
-  </si>
-  <si>
     <t>n/a</t>
   </si>
   <si>
@@ -380,9 +293,6 @@
     <t>inter DTA</t>
   </si>
   <si>
-    <t>Alim et retour</t>
-  </si>
-  <si>
     <t>Palettes</t>
   </si>
   <si>
@@ -500,10 +410,43 @@
     <t>Souriau</t>
   </si>
   <si>
-    <t>lien ??</t>
-  </si>
-  <si>
     <t xml:space="preserve">Identification des câbles </t>
+  </si>
+  <si>
+    <t>AWG22</t>
+  </si>
+  <si>
+    <t>AWG23</t>
+  </si>
+  <si>
+    <t>Alimentation avant</t>
+  </si>
+  <si>
+    <t>batterie tableau de bord puis cartes</t>
+  </si>
+  <si>
+    <t>alim DTA</t>
+  </si>
+  <si>
+    <t>Inter démarage</t>
+  </si>
+  <si>
+    <t>+5V DTA</t>
+  </si>
+  <si>
+    <t>AWG18</t>
+  </si>
+  <si>
+    <t>Alim DTA</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Alim motored</t>
+  </si>
+  <si>
+    <t>4A</t>
   </si>
 </sst>
 </file>
@@ -700,6 +643,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -714,9 +660,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1047,10 +990,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{788B3763-167B-4537-8CB4-249D5CFDCBEE}" name="Tableau1" displayName="Tableau1" ref="A2:C9" totalsRowShown="0">
-  <autoFilter ref="A2:C9" xr:uid="{10B92C3C-BC5A-4DF6-BD76-25477016ABE6}"/>
-  <sortState ref="A3:C11">
-    <sortCondition ref="B2:B11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{788B3763-167B-4537-8CB4-249D5CFDCBEE}" name="Tableau1" displayName="Tableau1" ref="A2:C12" totalsRowShown="0">
+  <autoFilter ref="A2:C12" xr:uid="{10B92C3C-BC5A-4DF6-BD76-25477016ABE6}"/>
+  <sortState ref="A3:C14">
+    <sortCondition ref="B2:B14"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{6E6C4D10-B184-4EF6-97BE-79D14D8BB9AB}" name="Signal"/>
@@ -1074,8 +1017,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFB11B2-83A5-4C89-8FC9-7453FC0666CA}" name="Tableau5" displayName="Tableau5" ref="E10:G15" totalsRowShown="0">
-  <autoFilter ref="E10:G15" xr:uid="{321E8CEA-276A-4A74-BCBF-E9D6451E8198}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFB11B2-83A5-4C89-8FC9-7453FC0666CA}" name="Tableau5" displayName="Tableau5" ref="E13:G18" totalsRowShown="0">
+  <autoFilter ref="E13:G18" xr:uid="{321E8CEA-276A-4A74-BCBF-E9D6451E8198}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8EC88283-C23A-43A8-BA4D-0761D8EA1FBC}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{64EBAE8F-22B2-468A-B916-6C5F45FF76C4}" name="Qauntité"/>
@@ -1098,8 +1041,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I11:K17" totalsRowShown="0">
-  <autoFilter ref="I11:K17" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I14:K20" totalsRowShown="0">
+  <autoFilter ref="I14:K20" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7EAA620D-F245-4300-BC5A-6331103D1EB8}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{847BB985-A8C5-4576-90DF-371B2F4669A5}" name="Quantité"/>
@@ -1110,8 +1053,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="A14:C20" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A14:C20" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="A17:C23" totalsRowShown="0" headerRowDxfId="21">
+  <autoFilter ref="A17:C23" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{C1FE7950-85C5-446E-9354-FE1808479D2A}" name="Quantité"/>
@@ -1386,8 +1329,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,10 +1351,10 @@
   <sheetData>
     <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>157</v>
+        <v>126</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>61</v>
@@ -1447,15 +1390,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>73</v>
-      </c>
-      <c r="B2" t="s">
-        <v>85</v>
+        <v>129</v>
+      </c>
+      <c r="B2" s="19" t="s">
+        <v>130</v>
       </c>
       <c r="C2">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D2">
         <v>14</v>
@@ -1464,17 +1407,14 @@
         <v>1</v>
       </c>
       <c r="F2">
-        <v>250</v>
+        <v>8</v>
       </c>
       <c r="G2">
         <f>0.01786*2*C2*F2/E2</f>
-        <v>1.7860000000000003</v>
-      </c>
-      <c r="H2" t="s">
+        <v>0.57152000000000003</v>
+      </c>
+      <c r="I2" t="s">
         <v>66</v>
-      </c>
-      <c r="I2" t="s">
-        <v>67</v>
       </c>
       <c r="J2" t="s">
         <v>5</v>
@@ -1482,59 +1422,50 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" t="s">
-        <v>70</v>
+        <v>135</v>
       </c>
       <c r="C3">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D3">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>5</v>
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G20" si="0">0.01786*2*C3*F3/E3</f>
-        <v>1.7860000000000003</v>
-      </c>
-      <c r="H3" t="s">
-        <v>66</v>
+        <v>0.35720000000000002</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" t="s">
-        <v>71</v>
+        <v>137</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E4">
         <v>1</v>
+      </c>
+      <c r="F4">
+        <v>15</v>
       </c>
       <c r="G4">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.53580000000000005</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" t="s">
-        <v>72</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
@@ -1545,12 +1476,6 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" t="s">
-        <v>86</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
@@ -1560,12 +1485,6 @@
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" t="s">
-        <v>87</v>
-      </c>
       <c r="E7">
         <v>1</v>
       </c>
@@ -1575,12 +1494,6 @@
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>79</v>
-      </c>
-      <c r="B8" t="s">
-        <v>87</v>
-      </c>
       <c r="E8">
         <v>1</v>
       </c>
@@ -1590,12 +1503,6 @@
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9" t="s">
-        <v>88</v>
-      </c>
       <c r="E9">
         <v>1</v>
       </c>
@@ -1605,12 +1512,6 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" t="s">
-        <v>89</v>
-      </c>
       <c r="D10">
         <v>0</v>
       </c>
@@ -1623,12 +1524,6 @@
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
       <c r="D11">
         <v>14</v>
       </c>
@@ -1644,12 +1539,6 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" t="s">
-        <v>96</v>
-      </c>
       <c r="D12">
         <v>0</v>
       </c>
@@ -1662,12 +1551,6 @@
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>84</v>
-      </c>
-      <c r="B13" t="s">
-        <v>97</v>
-      </c>
       <c r="D13">
         <v>14</v>
       </c>
@@ -1680,12 +1563,6 @@
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" t="s">
-        <v>94</v>
-      </c>
       <c r="D14">
         <v>14</v>
       </c>
@@ -1698,12 +1575,6 @@
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>91</v>
-      </c>
-      <c r="B15" t="s">
-        <v>93</v>
-      </c>
       <c r="D15">
         <v>0</v>
       </c>
@@ -1716,9 +1587,6 @@
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>92</v>
-      </c>
       <c r="E16">
         <v>1</v>
       </c>
@@ -1814,10 +1682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
-  <dimension ref="A1:O21"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1831,115 +1699,130 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="E1" s="27" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="I1" s="29" t="s">
-        <v>137</v>
-      </c>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
+      <c r="A1" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="I1" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="C2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="E2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="I2" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="J2" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="K2" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
+      <c r="C3" t="s">
+        <v>127</v>
+      </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="I3" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
+      <c r="K3" t="s">
+        <v>127</v>
+      </c>
       <c r="M3" s="15" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="N3" s="15" t="s">
-        <v>112</v>
+        <v>83</v>
       </c>
       <c r="O3" s="15" t="s">
-        <v>113</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4" t="s">
+        <v>127</v>
+      </c>
       <c r="E4" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="I4" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
+      <c r="K4" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
+      <c r="C5" t="s">
+        <v>127</v>
+      </c>
       <c r="E5" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="I5" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -1947,23 +1830,29 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6" t="s">
+        <v>127</v>
+      </c>
       <c r="E6" s="16" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="F6" s="17">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="J6">
         <v>1</v>
+      </c>
+      <c r="K6" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -1973,236 +1862,323 @@
       <c r="B7">
         <v>2</v>
       </c>
+      <c r="C7" t="s">
+        <v>127</v>
+      </c>
       <c r="I7" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="J7">
         <v>1</v>
+      </c>
+      <c r="K7" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
+      <c r="C8" t="s">
+        <v>127</v>
+      </c>
       <c r="I8" s="13" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="J8" s="14">
         <f>SUM(J3:J7)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="22"/>
+      <c r="J9" s="23"/>
+    </row>
+    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>132</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I10" s="22"/>
+      <c r="J10" s="23"/>
+    </row>
+    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>128</v>
+      </c>
+      <c r="I11" s="22"/>
+      <c r="J11" s="23"/>
+    </row>
+    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="E9" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-    </row>
-    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="B10" s="14">
-        <f>SUM(B2:B9)</f>
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F10" t="s">
-        <v>130</v>
-      </c>
-      <c r="G10" t="s">
-        <v>131</v>
-      </c>
-      <c r="I10" s="30" t="s">
-        <v>138</v>
-      </c>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E11" t="s">
+      <c r="E12" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+    </row>
+    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="B13" s="14">
+        <f>SUM(B2:B12)</f>
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="31" t="s">
+        <v>108</v>
+      </c>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E14" t="s">
+        <v>97</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
         <v>127</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="I11" t="s">
-        <v>111</v>
-      </c>
-      <c r="J11" t="s">
-        <v>112</v>
-      </c>
-      <c r="K11" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="E12" t="s">
-        <v>128</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>124</v>
-      </c>
-      <c r="J12">
+      <c r="I14" t="s">
+        <v>82</v>
+      </c>
+      <c r="J14" t="s">
+        <v>83</v>
+      </c>
+      <c r="K14" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E15" t="s">
+        <v>98</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>127</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="J15">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="B13" s="31"/>
-      <c r="C13" s="31"/>
-      <c r="E13" t="s">
-        <v>124</v>
-      </c>
-      <c r="F13">
+    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="26" t="s">
+        <v>113</v>
+      </c>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="E16" t="s">
+        <v>94</v>
+      </c>
+      <c r="F16">
         <v>2</v>
       </c>
-      <c r="I13" t="s">
-        <v>139</v>
-      </c>
-      <c r="J13">
+      <c r="I16" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="B14" s="21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>131</v>
-      </c>
-      <c r="E14" t="s">
-        <v>129</v>
-      </c>
-      <c r="F14">
+      <c r="K16" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17">
         <v>2</v>
       </c>
-      <c r="I14" t="s">
-        <v>140</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>124</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>117</v>
-      </c>
-      <c r="F15">
-        <v>3</v>
-      </c>
-      <c r="I15" t="s">
-        <v>141</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>144</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F16" s="17">
-        <f>SUM(F11:F15)</f>
-        <v>9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>142</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>148</v>
-      </c>
-      <c r="B17">
-        <v>1</v>
-      </c>
-      <c r="E17" s="22"/>
-      <c r="F17" s="23"/>
-      <c r="I17" s="20" t="s">
-        <v>121</v>
-      </c>
-      <c r="J17" s="14">
-        <f>SUM(J12:J16)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="12" t="s">
-        <v>145</v>
+      <c r="G17" t="s">
+        <v>127</v>
+      </c>
+      <c r="I17" t="s">
+        <v>110</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>94</v>
       </c>
       <c r="B18">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>87</v>
+      </c>
+      <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18" t="s">
+        <v>127</v>
+      </c>
+      <c r="I18" t="s">
+        <v>111</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>146</v>
+        <v>114</v>
       </c>
       <c r="B19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>127</v>
+      </c>
+      <c r="E19" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="F19" s="17">
+        <f>SUM(F14:F18)</f>
+        <v>9</v>
+      </c>
+      <c r="I19" t="s">
+        <v>112</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>147</v>
+        <v>118</v>
       </c>
       <c r="B20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="B21" s="25">
-        <f>SUM(B15:B20)</f>
+      <c r="C20" t="s">
+        <v>127</v>
+      </c>
+      <c r="E20" s="22"/>
+      <c r="F20" s="23"/>
+      <c r="I20" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="14">
+        <f>SUM(J15:J19)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="25">
+        <f>SUM(B18:B23)</f>
         <v>8</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A13:C13"/>
+    <mergeCell ref="A16:C16"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E9:G9"/>
+    <mergeCell ref="E12:G12"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I13:K13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2221,8 +2197,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2257,7 +2233,7 @@
         <v>37</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>17</v>
@@ -2270,12 +2246,14 @@
       <c r="B2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="5"/>
+      <c r="C2" s="5" t="s">
+        <v>75</v>
+      </c>
       <c r="D2" s="5" t="s">
-        <v>152</v>
+        <v>122</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>154</v>
+        <v>124</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>52</v>
@@ -2295,7 +2273,7 @@
         <v>19</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -2325,7 +2303,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>52</v>
@@ -2344,12 +2322,14 @@
       <c r="B5" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="5" t="s">
+        <v>77</v>
+      </c>
       <c r="D5" s="5">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>52</v>
@@ -2368,7 +2348,9 @@
       <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="5" t="s">
+        <v>54</v>
+      </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
@@ -2478,7 +2460,7 @@
         <v>46</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -2500,7 +2482,7 @@
         <v>47</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="5">
@@ -2508,7 +2490,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>16</v>
@@ -2519,7 +2501,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>99</v>
+        <v>70</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>42</v>
@@ -2541,7 +2523,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>100</v>
+        <v>71</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>42</v>
@@ -2551,8 +2533,8 @@
         <v>3</v>
       </c>
       <c r="E14" s="11"/>
-      <c r="F14" s="5" t="s">
-        <v>156</v>
+      <c r="F14" s="10" t="s">
+        <v>52</v>
       </c>
       <c r="G14" s="9" t="s">
         <v>16</v>
@@ -2563,13 +2545,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>101</v>
+        <v>72</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
@@ -2590,7 +2572,7 @@
         <v>48</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="5">
@@ -2598,7 +2580,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>16</v>
@@ -2612,7 +2594,7 @@
         <v>49</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>98</v>
+        <v>69</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="5">
@@ -2620,7 +2602,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>16</v>
@@ -2655,13 +2637,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>151</v>
+        <v>121</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
@@ -2709,7 +2691,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G21" t="s">
         <v>16</v>
@@ -2730,7 +2712,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="G22" t="s">
         <v>16</v>
@@ -2741,7 +2723,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>19</v>
@@ -2750,7 +2732,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>52</v>
@@ -2764,13 +2746,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>153</v>
+        <v>123</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>19</v>
       </c>
+      <c r="C24" t="s">
+        <v>138</v>
+      </c>
       <c r="E24" t="s">
-        <v>155</v>
+        <v>125</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>52</v>
@@ -2813,9 +2798,10 @@
     <hyperlink ref="F5" r:id="rId7" xr:uid="{19D13A72-9629-4E36-B24B-049DB2020EE2}"/>
     <hyperlink ref="F23" r:id="rId8" xr:uid="{2F41565A-7FAF-476C-8994-D4B25DE9FB52}"/>
     <hyperlink ref="F24" r:id="rId9" xr:uid="{8F607078-8C2E-4DA8-86BF-A0B72F0DA3DB}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{BE352279-65C5-4868-B5B8-BA970FE38AE6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
 
@@ -3098,7 +3084,7 @@
         <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -3116,16 +3102,16 @@
         <v>23</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>103</v>
+        <v>74</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>76</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -3134,7 +3120,7 @@
         <v>51</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>106</v>
+        <v>77</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -3147,10 +3133,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>107</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -3159,7 +3145,7 @@
         <v>50</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>108</v>
+        <v>79</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -3249,7 +3235,7 @@
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C21"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70BB24BE-F57D-4CD1-8995-8D766CB458AF}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE82756-5969-4380-9B1D-BB791888F77C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="179">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -38,15 +38,9 @@
     <t>Connecteurs</t>
   </si>
   <si>
-    <t xml:space="preserve">Remarques </t>
-  </si>
-  <si>
     <t>Couleur</t>
   </si>
   <si>
-    <t>Type de signal</t>
-  </si>
-  <si>
     <t>Puissance</t>
   </si>
   <si>
@@ -230,12 +224,6 @@
     <t>Section du conducteur (mm²)</t>
   </si>
   <si>
-    <t>rouge</t>
-  </si>
-  <si>
-    <t>noir</t>
-  </si>
-  <si>
     <t>De ou à ou</t>
   </si>
   <si>
@@ -275,18 +263,12 @@
     <t>1A</t>
   </si>
   <si>
-    <t>Passage pare-feu</t>
-  </si>
-  <si>
     <t>Signal</t>
   </si>
   <si>
     <t>Quantité</t>
   </si>
   <si>
-    <t>taille câble</t>
-  </si>
-  <si>
     <t>bus CAN</t>
   </si>
   <si>
@@ -353,12 +335,6 @@
     <t>Affichage Launch</t>
   </si>
   <si>
-    <t xml:space="preserve">Sortie carte avant </t>
-  </si>
-  <si>
-    <t>Entrées carte avant</t>
-  </si>
-  <si>
     <t>Bus Can</t>
   </si>
   <si>
@@ -413,12 +389,6 @@
     <t xml:space="preserve">Identification des câbles </t>
   </si>
   <si>
-    <t>AWG22</t>
-  </si>
-  <si>
-    <t>AWG23</t>
-  </si>
-  <si>
     <t>Alimentation avant</t>
   </si>
   <si>
@@ -434,19 +404,169 @@
     <t>+5V DTA</t>
   </si>
   <si>
-    <t>AWG18</t>
-  </si>
-  <si>
     <t>Alim DTA</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>Alim motored</t>
   </si>
   <si>
     <t>4A</t>
+  </si>
+  <si>
+    <t>power box / motored</t>
+  </si>
+  <si>
+    <t>Shtudown circuit</t>
+  </si>
+  <si>
+    <t>inter HP / power box</t>
+  </si>
+  <si>
+    <t>Norme AWG (min)</t>
+  </si>
+  <si>
+    <t>Alim pompe</t>
+  </si>
+  <si>
+    <t>power box / pomp</t>
+  </si>
+  <si>
+    <t>Alim ventilo</t>
+  </si>
+  <si>
+    <t>power box / Ventilo</t>
+  </si>
+  <si>
+    <t>Alim injecteurs</t>
+  </si>
+  <si>
+    <t>poxer box / injecteurs</t>
+  </si>
+  <si>
+    <t>AWG 21</t>
+  </si>
+  <si>
+    <t>AWG 18</t>
+  </si>
+  <si>
+    <t>AWG 19</t>
+  </si>
+  <si>
+    <t>Alim lambda</t>
+  </si>
+  <si>
+    <t>power box / lambda</t>
+  </si>
+  <si>
+    <t>AWG 24</t>
+  </si>
+  <si>
+    <t>AWG 27</t>
+  </si>
+  <si>
+    <t>Alim pomp et ventilo</t>
+  </si>
+  <si>
+    <t>Master switch / batteri</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alim démarreur </t>
+  </si>
+  <si>
+    <t>master switch / Demarreur</t>
+  </si>
+  <si>
+    <t>AWG 8</t>
+  </si>
+  <si>
+    <t>Uniformalisation</t>
+  </si>
+  <si>
+    <t>AWG 22</t>
+  </si>
+  <si>
+    <t>Alim ALL</t>
+  </si>
+  <si>
+    <t>Batterie Master switch</t>
+  </si>
+  <si>
+    <t>AWG 7</t>
+  </si>
+  <si>
+    <t>Inter démarrage</t>
+  </si>
+  <si>
+    <t>Tableau de bord / DTA</t>
+  </si>
+  <si>
+    <t>tableau de bord / Relai démarreur</t>
+  </si>
+  <si>
+    <t>Alim carte Avant</t>
+  </si>
+  <si>
+    <t>Tabelau de bord / carte avant</t>
+  </si>
+  <si>
+    <t>AWG 26</t>
+  </si>
+  <si>
+    <t>ALIM TDB</t>
+  </si>
+  <si>
+    <t>Carte avant tableau de bord</t>
+  </si>
+  <si>
+    <t>Pare feu vers carte avant</t>
+  </si>
+  <si>
+    <t>+12V</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teableau de bord vers carte avant </t>
+  </si>
+  <si>
+    <t>masse châssis</t>
+  </si>
+  <si>
+    <t>wheel speed</t>
+  </si>
+  <si>
+    <t>suspension</t>
+  </si>
+  <si>
+    <t>MK3 pare-feu</t>
+  </si>
+  <si>
+    <t>DTA pare-feu</t>
+  </si>
+  <si>
+    <t>8STA01035S</t>
+  </si>
+  <si>
+    <t>8STA00435S</t>
+  </si>
+  <si>
+    <t>8STA61035P</t>
+  </si>
+  <si>
+    <t>8STA60436P</t>
+  </si>
+  <si>
+    <t>8STA01497S</t>
+  </si>
+  <si>
+    <t>8STA61497P</t>
+  </si>
+  <si>
+    <t>8STA60635P</t>
+  </si>
+  <si>
+    <t>8STA70635S</t>
+  </si>
+  <si>
+    <t>Alim AVANT</t>
   </si>
 </sst>
 </file>
@@ -508,7 +628,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -530,12 +650,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -563,14 +677,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -591,12 +699,65 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -628,45 +789,73 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="30">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -878,6 +1067,92 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </left>
+        <right style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </right>
+        <top style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </top>
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -898,76 +1173,6 @@
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1012,13 +1217,13 @@
     <tableColumn id="2" xr3:uid="{16790B8F-2B6A-44F8-A82A-AE297CF6D842}" name="Quantité"/>
     <tableColumn id="3" xr3:uid="{0EB77C10-706E-474F-AD94-4E38BA7083CB}" name="Taille câble"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFB11B2-83A5-4C89-8FC9-7453FC0666CA}" name="Tableau5" displayName="Tableau5" ref="E13:G18" totalsRowShown="0">
-  <autoFilter ref="E13:G18" xr:uid="{321E8CEA-276A-4A74-BCBF-E9D6451E8198}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFB11B2-83A5-4C89-8FC9-7453FC0666CA}" name="Tableau5" displayName="Tableau5" ref="E11:G16" totalsRowShown="0">
+  <autoFilter ref="E11:G16" xr:uid="{321E8CEA-276A-4A74-BCBF-E9D6451E8198}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8EC88283-C23A-43A8-BA4D-0761D8EA1FBC}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{64EBAE8F-22B2-468A-B916-6C5F45FF76C4}" name="Qauntité"/>
@@ -1029,8 +1234,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5FF5D6F-5C4F-4A9F-97D8-F7092019C89D}" name="Tableau6" displayName="Tableau6" ref="I2:K7" totalsRowShown="0">
-  <autoFilter ref="I2:K7" xr:uid="{7D0AAD1B-760E-4F47-82AA-7C8A0094721B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5FF5D6F-5C4F-4A9F-97D8-F7092019C89D}" name="Tableau6" displayName="Tableau6" ref="I2:K11" totalsRowShown="0">
+  <autoFilter ref="I2:K11" xr:uid="{7D0AAD1B-760E-4F47-82AA-7C8A0094721B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8DA76FAD-EEC7-4EFB-BCCC-A49874A6F177}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{A0DA4AAB-4982-4118-B479-C30CE422057C}" name="Quantité"/>
@@ -1041,26 +1246,38 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I14:K20" totalsRowShown="0">
-  <autoFilter ref="I14:K20" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I20:K22" totalsRowShown="0">
+  <autoFilter ref="I20:K22" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7EAA620D-F245-4300-BC5A-6331103D1EB8}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{847BB985-A8C5-4576-90DF-371B2F4669A5}" name="Quantité"/>
     <tableColumn id="3" xr3:uid="{CB7EACFE-3369-4321-96B5-9F8B9258538C}" name="Taille câble"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="A17:C23" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A17:C23" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="29">
+  <autoFilter ref="M2:O8" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{C1FE7950-85C5-446E-9354-FE1808479D2A}" name="Quantité"/>
     <tableColumn id="3" xr3:uid="{0AD90A95-5CFB-49F0-AA77-DA306484B3F4}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A20:C23" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
+  <autoFilter ref="A20:C23" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{08802F18-A9C3-4C98-A783-48CBCA36063B}" name="Taille câble" dataDxfId="21"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -1327,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1338,64 +1555,49 @@
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
     <col min="3" max="3" width="18.5703125" customWidth="1"/>
-    <col min="4" max="4" width="21.140625" customWidth="1"/>
-    <col min="5" max="5" width="21.85546875" customWidth="1"/>
-    <col min="6" max="6" width="20.5703125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="19.140625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="7" max="7" width="19.85546875" customWidth="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1"/>
-    <col min="9" max="9" width="12.28515625" customWidth="1"/>
-    <col min="10" max="11" width="21" customWidth="1"/>
-    <col min="12" max="12" width="18.85546875" customWidth="1"/>
-    <col min="13" max="13" width="45.5703125" customWidth="1"/>
+    <col min="8" max="8" width="18.5703125" customWidth="1"/>
+    <col min="9" max="9" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="H1" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B2" s="19" t="s">
-        <v>130</v>
+        <v>119</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>120</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1413,16 +1615,19 @@
         <f>0.01786*2*C2*F2/E2</f>
         <v>0.57152000000000003</v>
       </c>
-      <c r="I2" t="s">
-        <v>66</v>
-      </c>
-      <c r="J2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>135</v>
+        <v>124</v>
+      </c>
+      <c r="B3" t="s">
+        <v>155</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1437,16 +1642,22 @@
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G20" si="0">0.01786*2*C3*F3/E3</f>
+        <f t="shared" ref="G3:G21" si="0">0.01786*2*C3*F3/E3</f>
         <v>0.35720000000000002</v>
       </c>
-      <c r="I3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H3" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>125</v>
+      </c>
+      <c r="B4" t="s">
+        <v>127</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1464,165 +1675,395 @@
         <f t="shared" si="0"/>
         <v>0.53580000000000005</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="H4" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I4" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>14</v>
+      </c>
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="3"/>
+      <c r="F5" s="29">
+        <v>1</v>
+      </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.10716000000000001</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I5" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C6">
+        <v>0.5</v>
+      </c>
+      <c r="D6">
+        <v>14</v>
+      </c>
       <c r="E6">
         <v>1</v>
+      </c>
+      <c r="F6" s="29">
+        <v>30</v>
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.53580000000000005</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>132</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>14</v>
+      </c>
       <c r="E7">
         <v>1</v>
+      </c>
+      <c r="F7" s="30">
+        <v>20</v>
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.71440000000000003</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>133</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>14</v>
+      </c>
       <c r="E8">
         <v>1</v>
+      </c>
+      <c r="F8" s="30">
+        <v>10</v>
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.35720000000000002</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>135</v>
+      </c>
+      <c r="B9" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>14</v>
+      </c>
       <c r="E9">
         <v>1</v>
+      </c>
+      <c r="F9" s="30">
+        <v>5</v>
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.17860000000000001</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>140</v>
+      </c>
+      <c r="B10" t="s">
+        <v>141</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
       <c r="D10">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E10">
         <v>1</v>
+      </c>
+      <c r="F10" s="30">
+        <v>5</v>
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+        <v>8.9300000000000004E-2</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B11" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
       <c r="D11">
         <v>14</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11">
-        <v>250</v>
+      <c r="F11" s="30">
+        <v>200</v>
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+        <v>7.1440000000000001</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="I11" s="5"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
       <c r="D12">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E12">
         <v>1</v>
+      </c>
+      <c r="F12" s="30">
+        <v>250</v>
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D13">
+        <v>8.93</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="I12" s="5"/>
+    </row>
+    <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="9">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9">
         <v>14</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="E13" s="9">
+        <v>1</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1</v>
+      </c>
+      <c r="G13" s="9">
+        <f>0.01786*2*C13*F13/E13</f>
+        <v>7.1440000000000003E-2</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>157</v>
+      </c>
+      <c r="B14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
       <c r="D14">
         <v>14</v>
       </c>
       <c r="E14">
         <v>1</v>
       </c>
+      <c r="F14" s="30">
+        <v>3</v>
+      </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <f>0.01786*2*C14*F14/E14</f>
+        <v>0.10716000000000001</v>
+      </c>
+      <c r="H14" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>160</v>
+      </c>
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
       <c r="D15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E15">
         <v>1</v>
+      </c>
+      <c r="F15" s="30">
+        <v>3</v>
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+        <v>0.10716000000000001</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>14</v>
+      </c>
       <c r="E16">
         <v>1</v>
       </c>
+      <c r="F16" s="30"/>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>14</v>
+      </c>
       <c r="E17">
         <v>1</v>
       </c>
+      <c r="F17" s="30"/>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>14</v>
+      </c>
       <c r="E18">
         <v>1</v>
       </c>
+      <c r="F18" s="30"/>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>14</v>
+      </c>
       <c r="E19">
         <v>1</v>
       </c>
+      <c r="F19" s="30"/>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="5:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>14</v>
+      </c>
       <c r="E20">
         <v>1</v>
       </c>
@@ -1631,50 +2072,16 @@
         <v>0</v>
       </c>
     </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="28" priority="7" operator="containsText" text="'Oui'">
-      <formula>NOT(ISERROR(SEARCH("'Oui'",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="27" priority="6" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2:K20">
-    <cfRule type="containsText" dxfId="26" priority="5" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K2">
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",K2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="'Oui'">
-      <formula>NOT(ISERROR(SEARCH("'Oui'",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L2:L20">
-    <cfRule type="containsText" dxfId="22" priority="1" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",L2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2:J21 K21:L21" xr:uid="{00000000-0002-0000-0000-000000000000}">
-      <formula1>signal</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:L20" xr:uid="{00000000-0002-0000-0000-000001000000}">
-      <formula1>Ouinon</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -1682,10 +2089,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1693,502 +2100,650 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="27" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="E1" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="I1" s="30" t="s">
-        <v>107</v>
-      </c>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="A1" s="23" t="s">
+        <v>169</v>
+      </c>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="E1" s="37" t="s">
+        <v>90</v>
+      </c>
+      <c r="F1" s="37"/>
+      <c r="G1" s="37"/>
+      <c r="I1" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="M1" s="36" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="B2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="I2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="K2" t="s">
-        <v>101</v>
+        <v>95</v>
+      </c>
+      <c r="M2" s="20" t="s">
+        <v>77</v>
+      </c>
+      <c r="N2" s="20" t="s">
+        <v>78</v>
+      </c>
+      <c r="O2" s="20" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E3" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
+      <c r="G3" t="s">
+        <v>150</v>
+      </c>
       <c r="I3" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>127</v>
-      </c>
-      <c r="M3" s="15" t="s">
-        <v>82</v>
-      </c>
-      <c r="N3" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="O3" s="15" t="s">
-        <v>84</v>
+        <v>150</v>
+      </c>
+      <c r="M3" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="B4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
+      <c r="G4" t="s">
+        <v>150</v>
+      </c>
       <c r="I4" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>127</v>
+        <v>150</v>
+      </c>
+      <c r="M4" t="s">
+        <v>106</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="12" t="s">
-        <v>90</v>
+      <c r="A5" t="s">
+        <v>81</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
+      <c r="G5" t="s">
+        <v>138</v>
+      </c>
       <c r="I5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="J5">
         <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>150</v>
+      </c>
+      <c r="M5" t="s">
+        <v>110</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>150</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>85</v>
       </c>
-      <c r="B6">
-        <v>2</v>
-      </c>
-      <c r="C6" t="s">
-        <v>127</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F6" s="17">
+      <c r="F6" s="16">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>127</v>
+        <v>150</v>
+      </c>
+      <c r="M6" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="B7">
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>127</v>
+        <v>150</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="44" t="s">
+        <v>174</v>
       </c>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>87</v>
+        <v>150</v>
+      </c>
+      <c r="M7" t="s">
+        <v>108</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="B8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="s">
-        <v>127</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J8" s="14">
-        <f>SUM(J3:J7)</f>
-        <v>7</v>
+        <v>150</v>
+      </c>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="J8" s="34">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>150</v>
+      </c>
+      <c r="M8" t="s">
+        <v>109</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>131</v>
+        <v>80</v>
       </c>
       <c r="B9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>134</v>
-      </c>
-      <c r="I9" s="22"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="I9" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="J9" s="35">
+        <v>1</v>
+      </c>
+      <c r="K9" t="s">
+        <v>150</v>
+      </c>
+      <c r="M9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9" s="22">
+        <f>SUM(N3:N8)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="B10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I10" s="22"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11" t="s">
-        <v>128</v>
-      </c>
-      <c r="I11" s="22"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="I10" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" s="34">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>150</v>
+      </c>
+      <c r="M10" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B11" s="27">
+        <v>1</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F11" t="s">
+        <v>94</v>
+      </c>
+      <c r="G11" t="s">
+        <v>95</v>
+      </c>
+      <c r="I11" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>150</v>
+      </c>
+      <c r="M11" s="43"/>
+      <c r="N11" s="44" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>86</v>
+        <v>178</v>
       </c>
       <c r="B12">
-        <v>4</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-    </row>
-    <row r="13" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" t="s">
+        <v>91</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>150</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="J12" s="14">
+        <f>SUM(J3:J11)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B13" s="14">
-        <f>SUM(B2:B12)</f>
-        <v>17</v>
+        <f>SUM(B3:B12)</f>
+        <v>18</v>
       </c>
       <c r="E13" t="s">
-        <v>82</v>
-      </c>
-      <c r="F13" t="s">
-        <v>100</v>
+        <v>92</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I13" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+        <v>150</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="44" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E14" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>127</v>
-      </c>
-      <c r="I14" t="s">
-        <v>82</v>
-      </c>
-      <c r="J14" t="s">
-        <v>83</v>
-      </c>
-      <c r="K14" t="s">
-        <v>101</v>
+        <v>138</v>
+      </c>
+      <c r="I14" s="43"/>
+      <c r="J14" s="44" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>127</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>94</v>
-      </c>
-      <c r="J15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16">
+        <v>3</v>
+      </c>
+      <c r="G16" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="E17" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="16">
+        <f>SUM(F12:F16)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="44" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>168</v>
+      </c>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="44" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J19" s="38"/>
+      <c r="K19" s="38"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="B20" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>95</v>
+      </c>
+      <c r="I20" t="s">
+        <v>77</v>
+      </c>
+      <c r="J20" t="s">
+        <v>78</v>
+      </c>
+      <c r="K20" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="33">
+        <v>1</v>
+      </c>
+      <c r="C21" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I21" s="32" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21">
+        <v>1</v>
+      </c>
+      <c r="K21" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="33">
+        <v>1</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="I22" t="s">
+        <v>101</v>
+      </c>
+      <c r="J22">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A16" s="26" t="s">
-        <v>113</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="E16" t="s">
-        <v>94</v>
-      </c>
-      <c r="F16">
+      <c r="K22" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="41" t="s">
+        <v>167</v>
+      </c>
+      <c r="B23" s="41">
         <v>2</v>
       </c>
-      <c r="I16" t="s">
-        <v>109</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="B17" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="C17" s="21" t="s">
-        <v>101</v>
-      </c>
-      <c r="E17" t="s">
-        <v>99</v>
-      </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17" t="s">
-        <v>127</v>
-      </c>
-      <c r="I17" t="s">
-        <v>110</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>87</v>
-      </c>
-      <c r="F18">
+      <c r="C23" s="41" t="s">
+        <v>150</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="J23" s="14">
+        <f>SUM(J21:J22)</f>
         <v>3</v>
       </c>
-      <c r="G18" t="s">
-        <v>127</v>
-      </c>
-      <c r="I18" t="s">
-        <v>111</v>
-      </c>
-      <c r="J18">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>114</v>
-      </c>
-      <c r="B19">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s">
-        <v>127</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>91</v>
-      </c>
-      <c r="F19" s="17">
-        <f>SUM(F14:F18)</f>
-        <v>9</v>
-      </c>
-      <c r="I19" t="s">
-        <v>112</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>118</v>
-      </c>
-      <c r="B20">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s">
-        <v>127</v>
-      </c>
-      <c r="E20" s="22"/>
-      <c r="F20" s="23"/>
-      <c r="I20" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="14">
-        <f>SUM(J15:J19)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>116</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>117</v>
-      </c>
-      <c r="B23">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s">
-        <v>127</v>
-      </c>
     </row>
     <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="25">
-        <f>SUM(B18:B23)</f>
-        <v>8</v>
-      </c>
+      <c r="A24" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="14">
+        <f>SUM(B21:B23)</f>
+        <v>4</v>
+      </c>
+      <c r="C24" s="42"/>
+      <c r="I24" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="44" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="43" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="I25" s="43"/>
+      <c r="J25" s="44" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="43"/>
+      <c r="B26" s="44" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="34"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A16:C16"/>
+  <mergeCells count="13">
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
-    <mergeCell ref="E12:G12"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="I13:I14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="6">
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
+    <tablePart r:id="rId8"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2215,186 +2770,186 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
       </c>
       <c r="E3" s="5"/>
       <c r="F3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D4" s="5">
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D5" s="5">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D6" s="5">
         <v>3</v>
       </c>
       <c r="E6" s="5"/>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" s="5">
         <v>3</v>
       </c>
       <c r="E7" s="5"/>
       <c r="F7" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G7" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C8" s="5"/>
       <c r="D8" s="5">
@@ -2402,21 +2957,21 @@
       </c>
       <c r="E8" s="5"/>
       <c r="F8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9" s="5"/>
       <c r="D9" s="5">
@@ -2424,21 +2979,21 @@
       </c>
       <c r="E9" s="5"/>
       <c r="F9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C10" s="5"/>
       <c r="D10" s="5">
@@ -2446,21 +3001,21 @@
       </c>
       <c r="E10" s="5"/>
       <c r="F10" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H10" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -2468,21 +3023,21 @@
       </c>
       <c r="E11" s="5"/>
       <c r="F11" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="5">
@@ -2490,21 +3045,21 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5">
@@ -2512,21 +3067,21 @@
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H13" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C14" s="5"/>
       <c r="D14" s="5">
@@ -2534,45 +3089,45 @@
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="5">
@@ -2580,21 +3135,21 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="5">
@@ -2602,169 +3157,169 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D18" s="5">
         <v>2</v>
       </c>
       <c r="E18" s="5"/>
       <c r="F18" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H19" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C20" s="5"/>
       <c r="D20" s="5">
         <v>2</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H20" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C21" s="5"/>
       <c r="D21" s="5">
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C22" s="5"/>
       <c r="D22" s="5">
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="G22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D23" s="5">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="E24" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2824,108 +3379,108 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s">
         <v>20</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D3" s="9"/>
       <c r="F3" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D4" s="9"/>
       <c r="F4" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D5" s="9"/>
       <c r="F5" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D6" s="9"/>
       <c r="F6" s="10" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -3045,107 +3600,107 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C2" s="5"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="5"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C10" s="5"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -3248,16 +3803,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -3320,28 +3875,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE82756-5969-4380-9B1D-BB791888F77C}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9903E2-900A-48CC-93BC-2449A39B2F0B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="183">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -518,9 +518,6 @@
     <t>Carte avant tableau de bord</t>
   </si>
   <si>
-    <t>Pare feu vers carte avant</t>
-  </si>
-  <si>
     <t>+12V</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
     <t>MK3 pare-feu</t>
   </si>
   <si>
-    <t>DTA pare-feu</t>
-  </si>
-  <si>
     <t>8STA01035S</t>
   </si>
   <si>
@@ -567,6 +561,24 @@
   </si>
   <si>
     <t>Alim AVANT</t>
+  </si>
+  <si>
+    <t>Power pare-feu</t>
+  </si>
+  <si>
+    <t>Sensor pare-feu</t>
+  </si>
+  <si>
+    <t>8STA61405P</t>
+  </si>
+  <si>
+    <t>8STA71035S</t>
+  </si>
+  <si>
+    <t>8STA71405S</t>
+  </si>
+  <si>
+    <t>Autre vers carte avant</t>
   </si>
 </sst>
 </file>
@@ -757,7 +769,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -801,15 +813,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -828,15 +831,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -847,15 +841,162 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="30">
+  <dxfs count="35">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1099,13 +1240,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color theme="4" tint="0.39997558519241921"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color theme="4" tint="0.39997558519241921"/>
         </left>
@@ -1127,6 +1261,13 @@
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color theme="4" tint="0.39997558519241921"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1195,8 +1336,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{788B3763-167B-4537-8CB4-249D5CFDCBEE}" name="Tableau1" displayName="Tableau1" ref="A2:C12" totalsRowShown="0">
-  <autoFilter ref="A2:C12" xr:uid="{10B92C3C-BC5A-4DF6-BD76-25477016ABE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{788B3763-167B-4537-8CB4-249D5CFDCBEE}" name="Tableau1" displayName="Tableau1" ref="A2:C6" totalsRowShown="0">
+  <autoFilter ref="A2:C6" xr:uid="{10B92C3C-BC5A-4DF6-BD76-25477016ABE6}"/>
   <sortState ref="A3:C14">
     <sortCondition ref="B2:B14"/>
   </sortState>
@@ -1258,7 +1399,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="34">
   <autoFilter ref="M2:O8" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
@@ -1270,12 +1411,24 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A20:C23" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27" headerRowBorderDxfId="25" tableBorderDxfId="26" totalsRowBorderDxfId="24">
-  <autoFilter ref="A20:C23" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A25:C28" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A25:C28" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{08802F18-A9C3-4C98-A783-48CBCA36063B}" name="Taille câble" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{08802F18-A9C3-4C98-A783-48CBCA36063B}" name="Taille câble" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7611D582-4780-4229-88EC-CB0808AD78FF}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A12:C18" xr:uid="{A4D485C1-6867-4595-B022-94F789491528}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{2DEE3A7F-A99A-40B6-BA40-87E9A957EB7F}" name="Signal" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{6A5E1A27-7542-4061-B5BB-EE75E3E57CF1}" name="Quantité" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5C407FAE-885A-41DE-B16B-87D1EA9B5B79}" name="Taille câble" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1698,7 +1851,7 @@
       <c r="E5">
         <v>1</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F5" s="26">
         <v>1</v>
       </c>
       <c r="G5">
@@ -1728,7 +1881,7 @@
       <c r="E6">
         <v>1</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F6" s="26">
         <v>30</v>
       </c>
       <c r="G6">
@@ -1758,7 +1911,7 @@
       <c r="E7">
         <v>1</v>
       </c>
-      <c r="F7" s="30">
+      <c r="F7" s="27">
         <v>20</v>
       </c>
       <c r="G7">
@@ -1788,7 +1941,7 @@
       <c r="E8">
         <v>1</v>
       </c>
-      <c r="F8" s="30">
+      <c r="F8" s="27">
         <v>10</v>
       </c>
       <c r="G8">
@@ -1818,7 +1971,7 @@
       <c r="E9">
         <v>1</v>
       </c>
-      <c r="F9" s="30">
+      <c r="F9" s="27">
         <v>5</v>
       </c>
       <c r="G9">
@@ -1848,7 +2001,7 @@
       <c r="E10">
         <v>1</v>
       </c>
-      <c r="F10" s="30">
+      <c r="F10" s="27">
         <v>5</v>
       </c>
       <c r="G10">
@@ -1878,7 +2031,7 @@
       <c r="E11">
         <v>1</v>
       </c>
-      <c r="F11" s="30">
+      <c r="F11" s="27">
         <v>200</v>
       </c>
       <c r="G11">
@@ -1906,7 +2059,7 @@
       <c r="E12">
         <v>1</v>
       </c>
-      <c r="F12" s="30">
+      <c r="F12" s="27">
         <v>250</v>
       </c>
       <c r="G12">
@@ -1922,7 +2075,7 @@
       <c r="A13" s="9" t="s">
         <v>154</v>
       </c>
-      <c r="B13" s="31" t="s">
+      <c r="B13" s="28" t="s">
         <v>156</v>
       </c>
       <c r="C13" s="9">
@@ -1934,7 +2087,7 @@
       <c r="E13" s="9">
         <v>1</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="26">
         <v>1</v>
       </c>
       <c r="G13" s="9">
@@ -1964,7 +2117,7 @@
       <c r="E14">
         <v>1</v>
       </c>
-      <c r="F14" s="30">
+      <c r="F14" s="27">
         <v>3</v>
       </c>
       <c r="G14">
@@ -1994,7 +2147,7 @@
       <c r="E15">
         <v>1</v>
       </c>
-      <c r="F15" s="30">
+      <c r="F15" s="27">
         <v>3</v>
       </c>
       <c r="G15">
@@ -2015,7 +2168,7 @@
       <c r="E16">
         <v>1</v>
       </c>
-      <c r="F16" s="30"/>
+      <c r="F16" s="27"/>
       <c r="G16">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2028,7 +2181,7 @@
       <c r="E17">
         <v>1</v>
       </c>
-      <c r="F17" s="30"/>
+      <c r="F17" s="27"/>
       <c r="G17">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2041,7 +2194,7 @@
       <c r="E18">
         <v>1</v>
       </c>
-      <c r="F18" s="30"/>
+      <c r="F18" s="27"/>
       <c r="G18">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2054,7 +2207,7 @@
       <c r="E19">
         <v>1</v>
       </c>
-      <c r="F19" s="30"/>
+      <c r="F19" s="27"/>
       <c r="G19">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -2089,10 +2242,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:O31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2104,29 +2257,30 @@
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="9" max="9" width="21.28515625" customWidth="1"/>
     <col min="11" max="11" width="17.85546875" customWidth="1"/>
+    <col min="13" max="13" width="18.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
-        <v>169</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="E1" s="37" t="s">
+      <c r="A1" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="E1" s="43" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="I1" s="25" t="s">
-        <v>164</v>
-      </c>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="M1" s="36" t="s">
+      <c r="F1" s="43"/>
+      <c r="G1" s="43"/>
+      <c r="I1" s="44" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="M1" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2168,7 +2322,7 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2206,10 +2360,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C4" t="s">
         <v>150</v>
@@ -2243,14 +2397,14 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B5">
-        <v>3</v>
-      </c>
-      <c r="C5" t="s">
-        <v>150</v>
+      <c r="A5" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="24">
+        <v>1</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>138</v>
       </c>
       <c r="E5" t="s">
         <v>88</v>
@@ -2282,13 +2436,13 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>176</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="E6" s="15" t="s">
         <v>85</v>
@@ -2317,20 +2471,18 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>79</v>
-      </c>
-      <c r="B7">
-        <v>2</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" s="45" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="44" t="s">
-        <v>174</v>
+      <c r="A7" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" s="14">
+        <f>SUM(B3:B6)</f>
+        <v>4</v>
+      </c>
+      <c r="E7" s="40" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>172</v>
       </c>
       <c r="I7" t="s">
         <v>100</v>
@@ -2352,23 +2504,20 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s">
-        <v>150</v>
-      </c>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I8" s="34" t="s">
+      <c r="A8" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="49" t="s">
+        <v>181</v>
+      </c>
+      <c r="E8" s="39"/>
+      <c r="F8" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I8" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="J8" s="34">
+      <c r="J8" s="31">
         <v>1</v>
       </c>
       <c r="K8" t="s">
@@ -2385,19 +2534,14 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>80</v>
-      </c>
-      <c r="B9">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="I9" s="35" t="s">
+      <c r="A9" s="39"/>
+      <c r="B9" s="49" t="s">
+        <v>179</v>
+      </c>
+      <c r="I9" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="J9" s="35">
+      <c r="J9" s="32">
         <v>1</v>
       </c>
       <c r="K9" t="s">
@@ -2412,46 +2556,33 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10" t="s">
-        <v>150</v>
-      </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="46" t="s">
         <v>89</v>
       </c>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="I10" s="34" t="s">
+      <c r="F10" s="46"/>
+      <c r="G10" s="46"/>
+      <c r="I10" s="31" t="s">
         <v>104</v>
       </c>
-      <c r="J10" s="34">
+      <c r="J10" s="31">
         <v>1</v>
       </c>
       <c r="K10" t="s">
         <v>150</v>
       </c>
-      <c r="M10" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="44" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="26" t="s">
-        <v>121</v>
-      </c>
-      <c r="B11" s="27">
-        <v>1</v>
-      </c>
-      <c r="C11" s="28" t="s">
-        <v>138</v>
-      </c>
+      <c r="M10" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
       <c r="E11" t="s">
         <v>77</v>
       </c>
@@ -2462,7 +2593,7 @@
         <v>95</v>
       </c>
       <c r="I11" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2470,20 +2601,20 @@
       <c r="K11" t="s">
         <v>150</v>
       </c>
-      <c r="M11" s="43"/>
-      <c r="N11" s="44" t="s">
-        <v>172</v>
+      <c r="M11" s="39"/>
+      <c r="N11" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B12">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s">
-        <v>138</v>
+      <c r="A12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>95</v>
       </c>
       <c r="E12" t="s">
         <v>91</v>
@@ -2502,13 +2633,15 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B13" s="14">
-        <f>SUM(B3:B12)</f>
-        <v>18</v>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="31" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" s="31">
+        <v>1</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>150</v>
       </c>
       <c r="E13" t="s">
         <v>92</v>
@@ -2519,14 +2652,23 @@
       <c r="G13" t="s">
         <v>150</v>
       </c>
-      <c r="I13" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J13" s="44" t="s">
-        <v>170</v>
+      <c r="I13" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J13" s="38" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="31" t="s">
+        <v>81</v>
+      </c>
+      <c r="B14" s="31">
+        <v>3</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="E14" t="s">
         <v>88</v>
       </c>
@@ -2536,12 +2678,21 @@
       <c r="G14" t="s">
         <v>138</v>
       </c>
-      <c r="I14" s="43"/>
-      <c r="J14" s="44" t="s">
-        <v>172</v>
+      <c r="I14" s="39"/>
+      <c r="J14" s="38" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B15" s="31">
+        <v>2</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="E15" t="s">
         <v>93</v>
       </c>
@@ -2553,6 +2704,15 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A16" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="31">
+        <v>1</v>
+      </c>
+      <c r="C16" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="E16" t="s">
         <v>81</v>
       </c>
@@ -2564,6 +2724,15 @@
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="31" t="s">
+        <v>165</v>
+      </c>
+      <c r="B17" s="31">
+        <v>2</v>
+      </c>
+      <c r="C17" s="31" t="s">
+        <v>150</v>
+      </c>
       <c r="E17" s="17" t="s">
         <v>85</v>
       </c>
@@ -2573,38 +2742,47 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="F18" s="44" t="s">
-        <v>174</v>
+      <c r="A18" s="31" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="31">
+        <v>4</v>
+      </c>
+      <c r="C18" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
-        <v>168</v>
-      </c>
-      <c r="B19" s="23"/>
-      <c r="C19" s="23"/>
-      <c r="E19" s="43"/>
-      <c r="F19" s="44" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="38" t="s">
-        <v>162</v>
-      </c>
-      <c r="J19" s="38"/>
-      <c r="K19" s="38"/>
+      <c r="A19" s="48" t="s">
+        <v>85</v>
+      </c>
+      <c r="B19" s="48">
+        <f>SUM(B13:B18)</f>
+        <v>13</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="E19" s="39"/>
+      <c r="F19" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="I19" s="45" t="s">
+        <v>182</v>
+      </c>
+      <c r="J19" s="45"/>
+      <c r="K19" s="45"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="B20" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="C20" s="39" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="49" t="s">
+        <v>180</v>
       </c>
       <c r="I20" t="s">
         <v>77</v>
@@ -2617,17 +2795,12 @@
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="B21" s="33">
-        <v>1</v>
-      </c>
-      <c r="C21" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="I21" s="32" t="s">
-        <v>165</v>
+      <c r="A21" s="39"/>
+      <c r="B21" s="49" t="s">
+        <v>170</v>
+      </c>
+      <c r="I21" s="29" t="s">
+        <v>164</v>
       </c>
       <c r="J21">
         <v>1</v>
@@ -2637,15 +2810,6 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B22" s="33">
-        <v>1</v>
-      </c>
-      <c r="C22" s="33" t="s">
-        <v>150</v>
-      </c>
       <c r="I22" t="s">
         <v>101</v>
       </c>
@@ -2657,15 +2821,6 @@
       </c>
     </row>
     <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
-        <v>167</v>
-      </c>
-      <c r="B23" s="41">
-        <v>2</v>
-      </c>
-      <c r="C23" s="41" t="s">
-        <v>150</v>
-      </c>
       <c r="I23" s="19" t="s">
         <v>85</v>
       </c>
@@ -2674,69 +2829,112 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A24" s="13" t="s">
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="I24" s="39" t="s">
+        <v>1</v>
+      </c>
+      <c r="J24" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="I25" s="39"/>
+      <c r="J25" s="38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B26" s="30">
+        <v>1</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>84</v>
+      </c>
+      <c r="B27" s="30">
+        <v>1</v>
+      </c>
+      <c r="C27" s="30" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="35" t="s">
+        <v>166</v>
+      </c>
+      <c r="B28" s="35">
+        <v>2</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B24" s="14">
-        <f>SUM(B21:B23)</f>
+      <c r="B29" s="14">
+        <f>SUM(B26:B28)</f>
         <v>4</v>
       </c>
-      <c r="C24" s="42"/>
-      <c r="I24" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="44" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="43" t="s">
-        <v>1</v>
-      </c>
-      <c r="B25" s="44" t="s">
-        <v>177</v>
-      </c>
-      <c r="I25" s="43"/>
-      <c r="J25" s="44" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
+      <c r="C29" s="36"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="38" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="37"/>
+      <c r="B31" s="38" t="s">
+        <v>174</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A25:A26"/>
+  <mergeCells count="15">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="I19:K19"/>
     <mergeCell ref="E10:G10"/>
-    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="A24:C24"/>
     <mergeCell ref="I13:I14"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="7">
+  <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -2744,6 +2942,7 @@
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
     <tablePart r:id="rId8"/>
+    <tablePart r:id="rId9"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3324,17 +3523,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3548,22 +3747,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3741,37 +3940,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3817,37 +4016,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC9903E2-900A-48CC-93BC-2449A39B2F0B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB408A5-F912-4C52-AD78-A06813D07D34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -215,9 +215,6 @@
     <t>Potentiel maximum (V)</t>
   </si>
   <si>
-    <t>Baisse de tension acceptable (V)</t>
-  </si>
-  <si>
     <t>Intensité maximal (A)</t>
   </si>
   <si>
@@ -281,9 +278,6 @@
     <t>sensor gnd DTA</t>
   </si>
   <si>
-    <t>MK3 gnd</t>
-  </si>
-  <si>
     <t>+5V MK3</t>
   </si>
   <si>
@@ -443,33 +437,18 @@
     <t>poxer box / injecteurs</t>
   </si>
   <si>
-    <t>AWG 21</t>
-  </si>
-  <si>
     <t>AWG 18</t>
   </si>
   <si>
-    <t>AWG 19</t>
-  </si>
-  <si>
     <t>Alim lambda</t>
   </si>
   <si>
     <t>power box / lambda</t>
   </si>
   <si>
-    <t>AWG 24</t>
-  </si>
-  <si>
-    <t>AWG 27</t>
-  </si>
-  <si>
     <t>Alim pomp et ventilo</t>
   </si>
   <si>
-    <t>Master switch / batteri</t>
-  </si>
-  <si>
     <t xml:space="preserve">Alim démarreur </t>
   </si>
   <si>
@@ -545,21 +524,12 @@
     <t>8STA61035P</t>
   </si>
   <si>
-    <t>8STA60436P</t>
-  </si>
-  <si>
     <t>8STA01497S</t>
   </si>
   <si>
     <t>8STA61497P</t>
   </si>
   <si>
-    <t>8STA60635P</t>
-  </si>
-  <si>
-    <t>8STA70635S</t>
-  </si>
-  <si>
     <t>Alim AVANT</t>
   </si>
   <si>
@@ -579,6 +549,36 @@
   </si>
   <si>
     <t>Autre vers carte avant</t>
+  </si>
+  <si>
+    <t>8STA60435P</t>
+  </si>
+  <si>
+    <t>8STA70435S</t>
+  </si>
+  <si>
+    <t>AWG 23</t>
+  </si>
+  <si>
+    <t>AWG 20</t>
+  </si>
+  <si>
+    <t>AWG 17</t>
+  </si>
+  <si>
+    <t>AWG 16</t>
+  </si>
+  <si>
+    <t>AWG 25</t>
+  </si>
+  <si>
+    <t>Baisse de tension acceptable : 5% (V)</t>
+  </si>
+  <si>
+    <t>8STA00201S</t>
+  </si>
+  <si>
+    <t>8STA60201P</t>
   </si>
 </sst>
 </file>
@@ -640,7 +640,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,8 +689,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -764,12 +770,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </right>
+      <top style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </top>
+      <bottom style="thin">
+        <color theme="5" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -841,16 +884,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -865,138 +917,15 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="35">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1208,6 +1137,126 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -1375,8 +1424,8 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5FF5D6F-5C4F-4A9F-97D8-F7092019C89D}" name="Tableau6" displayName="Tableau6" ref="I2:K11" totalsRowShown="0">
-  <autoFilter ref="I2:K11" xr:uid="{7D0AAD1B-760E-4F47-82AA-7C8A0094721B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5FF5D6F-5C4F-4A9F-97D8-F7092019C89D}" name="Tableau6" displayName="Tableau6" ref="I2:K10" totalsRowShown="0">
+  <autoFilter ref="I2:K10" xr:uid="{7D0AAD1B-760E-4F47-82AA-7C8A0094721B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{8DA76FAD-EEC7-4EFB-BCCC-A49874A6F177}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{A0DA4AAB-4982-4118-B479-C30CE422057C}" name="Quantité"/>
@@ -1387,8 +1436,8 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I20:K22" totalsRowShown="0">
-  <autoFilter ref="I20:K22" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I21:K23" totalsRowShown="0">
+  <autoFilter ref="I21:K23" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{7EAA620D-F245-4300-BC5A-6331103D1EB8}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{847BB985-A8C5-4576-90DF-371B2F4669A5}" name="Quantité"/>
@@ -1411,8 +1460,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A25:C28" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
-  <autoFilter ref="A25:C28" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+  <autoFilter ref="A25:C27" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="28"/>
     <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="27"/>
@@ -1423,12 +1472,12 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7611D582-4780-4229-88EC-CB0808AD78FF}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7611D582-4780-4229-88EC-CB0808AD78FF}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="A12:C18" xr:uid="{A4D485C1-6867-4595-B022-94F789491528}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2DEE3A7F-A99A-40B6-BA40-87E9A957EB7F}" name="Signal" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{6A5E1A27-7542-4061-B5BB-EE75E3E57CF1}" name="Quantité" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{5C407FAE-885A-41DE-B16B-87D1EA9B5B79}" name="Taille câble" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{2DEE3A7F-A99A-40B6-BA40-87E9A957EB7F}" name="Signal" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{6A5E1A27-7542-4061-B5BB-EE75E3E57CF1}" name="Quantité" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{5C407FAE-885A-41DE-B16B-87D1EA9B5B79}" name="Taille câble" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1700,7 +1749,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1718,10 +1767,10 @@
   <sheetData>
     <row r="1" spans="1:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>59</v>
@@ -1730,27 +1779,27 @@
         <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C2">
         <v>2</v>
@@ -1759,28 +1808,29 @@
         <v>14</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <f>0.05*D2</f>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F2">
         <v>8</v>
       </c>
       <c r="G2">
         <f>0.01786*2*C2*F2/E2</f>
-        <v>0.57152000000000003</v>
+        <v>0.81645714285714277</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B3" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="C3">
         <v>2</v>
@@ -1789,28 +1839,29 @@
         <v>14</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <f t="shared" ref="E3:E20" si="0">0.05*D3</f>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G21" si="0">0.01786*2*C3*F3/E3</f>
-        <v>0.35720000000000002</v>
+        <f t="shared" ref="G3:G21" si="1">0.01786*2*C3*F3/E3</f>
+        <v>0.51028571428571423</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
         <v>125</v>
-      </c>
-      <c r="B4" t="s">
-        <v>127</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -1819,28 +1870,29 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F4">
         <v>15</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>0.53580000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.76542857142857146</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C5">
         <v>3</v>
@@ -1849,28 +1901,26 @@
         <v>14</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F5" s="26">
         <v>1</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>0.10716000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.15308571428571427</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C6">
         <v>0.5</v>
@@ -1879,28 +1929,29 @@
         <v>14</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F6" s="26">
         <v>30</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>0.53580000000000005</v>
+        <f t="shared" si="1"/>
+        <v>0.76542857142857146</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C7">
         <v>1</v>
@@ -1909,28 +1960,29 @@
         <v>14</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F7" s="27">
         <v>20</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>0.71440000000000003</v>
+        <f t="shared" si="1"/>
+        <v>1.0205714285714285</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>138</v>
+        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C8">
         <v>1</v>
@@ -1939,28 +1991,29 @@
         <v>14</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F8" s="27">
         <v>10</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>0.35720000000000002</v>
+        <f t="shared" si="1"/>
+        <v>0.51028571428571423</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>137</v>
+        <v>176</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B9" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C9">
         <v>1</v>
@@ -1969,28 +2022,29 @@
         <v>14</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F9" s="27">
         <v>5</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>0.17860000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.25514285714285712</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>142</v>
+        <v>175</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C10">
         <v>0.5</v>
@@ -1999,28 +2053,29 @@
         <v>14</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F10" s="27">
         <v>5</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>8.9300000000000004E-2</v>
+        <f t="shared" si="1"/>
+        <v>0.12757142857142856</v>
       </c>
       <c r="H10" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="I10" s="5" t="s">
         <v>143</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B11" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="C11">
         <v>1</v>
@@ -2029,26 +2084,27 @@
         <v>14</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F11" s="27">
         <v>200</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>7.1440000000000001</v>
+        <f t="shared" si="1"/>
+        <v>10.205714285714285</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C12">
         <v>1</v>
@@ -2057,26 +2113,27 @@
         <v>14</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F12" s="27">
         <v>250</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>8.93</v>
+        <f t="shared" si="1"/>
+        <v>12.757142857142856</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="I12" s="5"/>
     </row>
     <row r="13" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="C13" s="9">
         <v>2</v>
@@ -2084,29 +2141,30 @@
       <c r="D13" s="9">
         <v>14</v>
       </c>
-      <c r="E13" s="9">
-        <v>1</v>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F13" s="26">
         <v>1</v>
       </c>
       <c r="G13" s="9">
         <f>0.01786*2*C13*F13/E13</f>
-        <v>7.1440000000000003E-2</v>
+        <v>0.10205714285714285</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>139</v>
+        <v>152</v>
       </c>
       <c r="I13" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="B14" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -2115,28 +2173,29 @@
         <v>14</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F14" s="27">
         <v>3</v>
       </c>
       <c r="G14">
         <f>0.01786*2*C14*F14/E14</f>
-        <v>0.10716000000000001</v>
+        <v>0.15308571428571427</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="I14" s="3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="B15" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="C15">
         <v>1</v>
@@ -2145,20 +2204,21 @@
         <v>5</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.25</v>
       </c>
       <c r="F15" s="27">
         <v>3</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>0.10716000000000001</v>
+        <f t="shared" si="1"/>
+        <v>0.42864000000000002</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>150</v>
+        <v>176</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2166,11 +2226,12 @@
         <v>14</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F16" s="27"/>
       <c r="G16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2179,11 +2240,12 @@
         <v>14</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F17" s="27"/>
       <c r="G17">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2192,11 +2254,12 @@
         <v>14</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F18" s="27"/>
       <c r="G18">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2205,11 +2268,12 @@
         <v>14</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <f>0.05*D19</f>
+        <v>0.70000000000000007</v>
       </c>
       <c r="F19" s="27"/>
       <c r="G19">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2218,10 +2282,11 @@
         <v>14</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.70000000000000007</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2230,7 +2295,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -2242,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
-  <dimension ref="A1:O31"/>
+  <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,294 +2326,294 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
-        <v>177</v>
-      </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="E1" s="43" t="s">
-        <v>90</v>
-      </c>
-      <c r="F1" s="43"/>
-      <c r="G1" s="43"/>
-      <c r="I1" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="M1" s="41" t="s">
-        <v>105</v>
-      </c>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
+      <c r="A1" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="E1" s="48" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="I1" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="M1" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" t="s">
         <v>77</v>
       </c>
-      <c r="B2" t="s">
-        <v>78</v>
-      </c>
       <c r="C2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
         <v>77</v>
       </c>
-      <c r="F2" t="s">
-        <v>78</v>
-      </c>
       <c r="G2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I2" t="s">
+        <v>76</v>
+      </c>
+      <c r="J2" t="s">
         <v>77</v>
       </c>
-      <c r="J2" t="s">
-        <v>78</v>
-      </c>
       <c r="K2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="M2" s="20" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="N2" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="O2" s="20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F3">
         <v>5</v>
       </c>
       <c r="G3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J3">
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N3">
         <v>2</v>
       </c>
       <c r="O3" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4">
         <v>2</v>
       </c>
       <c r="G4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="I4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="K4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="N4">
         <v>1</v>
       </c>
       <c r="O4" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="23" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B5" s="24">
         <v>1</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F5">
         <v>2</v>
       </c>
       <c r="G5" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="I5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J5">
         <v>1</v>
       </c>
       <c r="K5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="N5">
         <v>1</v>
       </c>
       <c r="O5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F6" s="16">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J6">
         <v>1</v>
       </c>
       <c r="K6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M6" s="12" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="N6">
         <v>2</v>
       </c>
       <c r="O6" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B7" s="14">
         <f>SUM(B3:B6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="46" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="I7" t="s">
+        <v>164</v>
+      </c>
+      <c r="I7" s="31" t="s">
         <v>100</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="31">
         <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M7" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="N7">
         <v>1</v>
       </c>
       <c r="O7" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
+      <c r="A8" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="49" t="s">
-        <v>181</v>
-      </c>
-      <c r="E8" s="39"/>
+      <c r="B8" s="41" t="s">
+        <v>171</v>
+      </c>
+      <c r="E8" s="44"/>
       <c r="F8" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I8" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="J8" s="31">
+        <v>165</v>
+      </c>
+      <c r="I8" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="32">
         <v>1</v>
       </c>
       <c r="K8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="39"/>
-      <c r="B9" s="49" t="s">
-        <v>179</v>
-      </c>
-      <c r="I9" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="J9" s="32">
+      <c r="A9" s="44"/>
+      <c r="B9" s="41" t="s">
+        <v>169</v>
+      </c>
+      <c r="I9" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J9" s="31">
         <v>1</v>
       </c>
       <c r="K9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M9" s="21" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N9" s="22">
         <f>SUM(N3:N8)</f>
@@ -2556,379 +2621,377 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="46" t="s">
+      <c r="E10" s="51" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
+      <c r="I10" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" t="s">
+        <v>143</v>
+      </c>
+      <c r="M10" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="N10" s="38" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B11" s="45"/>
+      <c r="C11" s="45"/>
+      <c r="E11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F11" t="s">
+        <v>92</v>
+      </c>
+      <c r="G11" t="s">
+        <v>93</v>
+      </c>
+      <c r="I11" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J11" s="14">
+        <f>SUM(J3:J10)</f>
+        <v>10</v>
+      </c>
+      <c r="M11" s="44"/>
+      <c r="N11" s="38" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A12" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="E12" t="s">
         <v>89</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="I10" s="31" t="s">
-        <v>104</v>
-      </c>
-      <c r="J10" s="31">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>150</v>
-      </c>
-      <c r="M10" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="N10" s="38" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="50" t="s">
-        <v>178</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="E11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F11" t="s">
-        <v>94</v>
-      </c>
-      <c r="G11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>150</v>
-      </c>
-      <c r="M11" s="39"/>
-      <c r="N11" s="38" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>95</v>
-      </c>
-      <c r="E12" t="s">
-        <v>91</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>150</v>
-      </c>
-      <c r="I12" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="J12" s="14">
-        <f>SUM(J3:J11)</f>
-        <v>11</v>
+        <v>143</v>
+      </c>
+      <c r="I12" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="J12" s="38" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="31" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" s="31">
         <v>1</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E13" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>150</v>
-      </c>
-      <c r="I13" s="39" t="s">
-        <v>1</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="I13" s="42"/>
       <c r="J13" s="38" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="31" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B14" s="31">
         <v>3</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E14" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F14">
         <v>2</v>
       </c>
       <c r="G14" t="s">
-        <v>138</v>
-      </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="38" t="s">
-        <v>170</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" s="31">
         <v>2</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F15">
         <v>2</v>
       </c>
       <c r="G15" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="31" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B16" s="31">
         <v>1</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E16" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F16">
         <v>3</v>
       </c>
       <c r="G16" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="I16" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="J16" s="53">
+        <v>1</v>
+      </c>
+      <c r="K16" s="54" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="31" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="B17" s="31">
         <v>2</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F17" s="16">
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
+      <c r="I17" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="J17" s="38" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="31" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B18" s="31">
         <v>4</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>150</v>
-      </c>
-      <c r="E18" s="39" t="s">
+        <v>143</v>
+      </c>
+      <c r="E18" s="44" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A19" s="48" t="s">
-        <v>85</v>
-      </c>
-      <c r="B19" s="48">
+        <v>164</v>
+      </c>
+      <c r="I18" s="44"/>
+      <c r="J18" s="38" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="40">
         <f>SUM(B13:B18)</f>
         <v>13</v>
       </c>
-      <c r="C19" s="47"/>
-      <c r="E19" s="39"/>
+      <c r="C19" s="39"/>
+      <c r="E19" s="44"/>
       <c r="F19" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="I19" s="45" t="s">
-        <v>182</v>
-      </c>
-      <c r="J19" s="45"/>
-      <c r="K19" s="45"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="49" t="s">
-        <v>180</v>
-      </c>
-      <c r="I20" t="s">
+      <c r="B20" s="41" t="s">
+        <v>170</v>
+      </c>
+      <c r="I20" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="44"/>
+      <c r="B21" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="I21" t="s">
+        <v>76</v>
+      </c>
+      <c r="J21" t="s">
         <v>77</v>
       </c>
-      <c r="J20" t="s">
-        <v>78</v>
-      </c>
-      <c r="K20" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="49" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="29" t="s">
-        <v>164</v>
-      </c>
-      <c r="J21">
+      <c r="K21" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I22" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="J22">
         <v>1</v>
       </c>
-      <c r="K21" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>101</v>
-      </c>
-      <c r="J22">
+      <c r="K22" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>99</v>
+      </c>
+      <c r="J23">
         <v>2</v>
       </c>
-      <c r="K22" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="I23" s="19" t="s">
-        <v>85</v>
-      </c>
-      <c r="J23" s="14">
-        <f>SUM(J21:J22)</f>
+      <c r="K23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="43" t="s">
+        <v>160</v>
+      </c>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="I24" s="19" t="s">
+        <v>83</v>
+      </c>
+      <c r="J24" s="14">
+        <f>SUM(J22:J23)</f>
         <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>167</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="I24" s="39" t="s">
-        <v>1</v>
-      </c>
-      <c r="J24" s="38" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="B25" s="33" t="s">
         <v>77</v>
       </c>
-      <c r="B25" s="33" t="s">
-        <v>78</v>
-      </c>
       <c r="C25" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="I25" s="39"/>
+        <v>93</v>
+      </c>
+      <c r="I25" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="J25" s="38" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="30" t="s">
-        <v>83</v>
+      <c r="A26" s="34" t="s">
+        <v>82</v>
       </c>
       <c r="B26" s="30">
         <v>1</v>
       </c>
       <c r="C26" s="30" t="s">
-        <v>150</v>
+        <v>143</v>
+      </c>
+      <c r="I26" s="42"/>
+      <c r="J26" s="38" t="s">
+        <v>173</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>84</v>
-      </c>
-      <c r="B27" s="30">
+      <c r="A27" s="35" t="s">
+        <v>159</v>
+      </c>
+      <c r="B27" s="35">
+        <v>2</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="B28" s="14">
+        <f>SUM(B26:B27)</f>
+        <v>3</v>
+      </c>
+      <c r="C28" s="36"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C27" s="30" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="B28" s="35">
-        <v>2</v>
-      </c>
-      <c r="C28" s="35" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="B29" s="14">
-        <f>SUM(B26:B28)</f>
-        <v>4</v>
-      </c>
-      <c r="C29" s="36"/>
+      <c r="B29" s="38" t="s">
+        <v>174</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
-        <v>1</v>
-      </c>
+      <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="37"/>
-      <c r="B31" s="38" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="14">
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I19:K19"/>
+    <mergeCell ref="I20:K20"/>
     <mergeCell ref="E10:G10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="A24:C24"/>
-    <mergeCell ref="I13:I14"/>
     <mergeCell ref="A11:C11"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="A8:A9"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="M10:M11"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E18:E19"/>
   </mergeCells>
@@ -2987,7 +3050,7 @@
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>15</v>
@@ -3001,13 +3064,13 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D2" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>114</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>116</v>
       </c>
       <c r="F2" s="10" t="s">
         <v>50</v>
@@ -3027,7 +3090,7 @@
         <v>17</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D3" s="5">
         <v>2</v>
@@ -3057,7 +3120,7 @@
         <v>7</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F4" s="10" t="s">
         <v>50</v>
@@ -3077,13 +3140,13 @@
         <v>17</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="5">
         <v>14</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F5" s="10" t="s">
         <v>50</v>
@@ -3214,7 +3277,7 @@
         <v>44</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5"/>
       <c r="D11" s="5">
@@ -3236,7 +3299,7 @@
         <v>45</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="5">
@@ -3244,7 +3307,7 @@
       </c>
       <c r="E12" s="11"/>
       <c r="F12" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G12" s="9" t="s">
         <v>14</v>
@@ -3255,7 +3318,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>40</v>
@@ -3277,7 +3340,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>40</v>
@@ -3299,13 +3362,13 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B15" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="5">
         <v>3</v>
@@ -3326,7 +3389,7 @@
         <v>46</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="5">
@@ -3334,7 +3397,7 @@
       </c>
       <c r="E16" s="11"/>
       <c r="F16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>14</v>
@@ -3348,7 +3411,7 @@
         <v>47</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="5">
@@ -3356,7 +3419,7 @@
       </c>
       <c r="E17" s="11"/>
       <c r="F17" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>14</v>
@@ -3391,13 +3454,13 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D19" s="5">
         <v>2</v>
@@ -3445,7 +3508,7 @@
         <v>2</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G21" t="s">
         <v>14</v>
@@ -3466,7 +3529,7 @@
         <v>2</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="G22" t="s">
         <v>14</v>
@@ -3477,7 +3540,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B23" s="5" t="s">
         <v>17</v>
@@ -3486,7 +3549,7 @@
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F23" s="10" t="s">
         <v>50</v>
@@ -3500,16 +3563,16 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="C24" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E24" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F24" s="10" t="s">
         <v>50</v>
@@ -3523,17 +3586,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="25" priority="4" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3747,22 +3810,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="22" priority="4" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="21" priority="3" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="20" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="19" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3838,7 +3901,7 @@
         <v>19</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C4" s="5"/>
     </row>
@@ -3856,16 +3919,16 @@
         <v>21</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C6" s="5"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C7" s="5"/>
     </row>
@@ -3874,7 +3937,7 @@
         <v>49</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="5"/>
     </row>
@@ -3887,10 +3950,10 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="5"/>
     </row>
@@ -3899,7 +3962,7 @@
         <v>48</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="5"/>
     </row>
@@ -3940,37 +4003,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="18" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="17" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="16" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="14" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="13" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="12" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4016,37 +4079,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="11" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="10" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="9" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="8" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="7" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="6" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="5" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",C2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -3,17 +3,17 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DB408A5-F912-4C52-AD78-A06813D07D34}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1CD369-7784-4B96-BF5A-ADA95720A5C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
     <sheet name="Compte connecteur" sheetId="7" r:id="rId2"/>
-    <sheet name="Autre composant" sheetId="6" r:id="rId3"/>
-    <sheet name="Relais" sheetId="4" r:id="rId4"/>
-    <sheet name="Fusibles" sheetId="3" r:id="rId5"/>
-    <sheet name="Connecteurs" sheetId="5" r:id="rId6"/>
+    <sheet name="Connecteurs" sheetId="5" r:id="rId3"/>
+    <sheet name="Autre composant" sheetId="6" r:id="rId4"/>
+    <sheet name="Relais" sheetId="4" r:id="rId5"/>
+    <sheet name="Fusibles" sheetId="3" r:id="rId6"/>
     <sheet name="Données" sheetId="2" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="209">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -579,6 +579,84 @@
   </si>
   <si>
     <t>8STA60201P</t>
+  </si>
+  <si>
+    <t>SOURIAU</t>
+  </si>
+  <si>
+    <t>power PF</t>
+  </si>
+  <si>
+    <t>sensor PF</t>
+  </si>
+  <si>
+    <t>MK3 PF</t>
+  </si>
+  <si>
+    <t>Carte arrière vers faisceau</t>
+  </si>
+  <si>
+    <t>Carte Avant vers Tableau de bord</t>
+  </si>
+  <si>
+    <t>Carte avant 5V</t>
+  </si>
+  <si>
+    <t>Carte avant autre</t>
+  </si>
+  <si>
+    <t>8STA71405SN</t>
+  </si>
+  <si>
+    <t>8STA61405PN</t>
+  </si>
+  <si>
+    <t>8STA71035SD</t>
+  </si>
+  <si>
+    <t>8STA61035PD</t>
+  </si>
+  <si>
+    <t>8STA70435SA</t>
+  </si>
+  <si>
+    <t>8STA60435PA</t>
+  </si>
+  <si>
+    <t>8STA01497SN</t>
+  </si>
+  <si>
+    <t>8STA61497PN</t>
+  </si>
+  <si>
+    <t>8STA01497P</t>
+  </si>
+  <si>
+    <t>8STA61497S</t>
+  </si>
+  <si>
+    <t>8STA01497PB</t>
+  </si>
+  <si>
+    <t>8STA61497SB</t>
+  </si>
+  <si>
+    <t>8STA01035SD</t>
+  </si>
+  <si>
+    <t>8STA00201SN</t>
+  </si>
+  <si>
+    <t>8STA60201PN</t>
+  </si>
+  <si>
+    <t>8STA00435SA</t>
+  </si>
+  <si>
+    <t>8STA01035SN</t>
+  </si>
+  <si>
+    <t>8STA61035PN</t>
   </si>
 </sst>
 </file>
@@ -640,7 +718,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +773,20 @@
         <bgColor theme="5" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -807,12 +897,129 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -890,42 +1097,162 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="32">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1023,76 +1350,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1448,7 +1705,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="34">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="31">
   <autoFilter ref="M2:O8" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
@@ -1460,24 +1717,24 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="33" dataDxfId="31" headerRowBorderDxfId="32" tableBorderDxfId="30" totalsRowBorderDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <autoFilter ref="A25:C27" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{08802F18-A9C3-4C98-A783-48CBCA36063B}" name="Taille câble" dataDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{08802F18-A9C3-4C98-A783-48CBCA36063B}" name="Taille câble" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7611D582-4780-4229-88EC-CB0808AD78FF}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7611D582-4780-4229-88EC-CB0808AD78FF}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
   <autoFilter ref="A12:C18" xr:uid="{A4D485C1-6867-4595-B022-94F789491528}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2DEE3A7F-A99A-40B6-BA40-87E9A957EB7F}" name="Signal" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{6A5E1A27-7542-4061-B5BB-EE75E3E57CF1}" name="Quantité" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{5C407FAE-885A-41DE-B16B-87D1EA9B5B79}" name="Taille câble" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{2DEE3A7F-A99A-40B6-BA40-87E9A957EB7F}" name="Signal" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{6A5E1A27-7542-4061-B5BB-EE75E3E57CF1}" name="Quantité" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{5C407FAE-885A-41DE-B16B-87D1EA9B5B79}" name="Taille câble" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2309,8 +2566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2326,11 +2583,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="47" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="43"/>
-      <c r="C1" s="43"/>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
       <c r="E1" s="48" t="s">
         <v>88</v>
       </c>
@@ -2341,11 +2598,11 @@
       </c>
       <c r="J1" s="49"/>
       <c r="K1" s="49"/>
-      <c r="M1" s="47" t="s">
+      <c r="M1" s="46" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2543,7 +2800,7 @@
         <f>SUM(B3:B6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="46" t="s">
+      <c r="E7" s="54" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
@@ -2569,13 +2826,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="44" t="s">
+      <c r="A8" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="52"/>
       <c r="F8" s="38" t="s">
         <v>165</v>
       </c>
@@ -2599,7 +2856,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
+      <c r="A9" s="52"/>
       <c r="B9" s="41" t="s">
         <v>169</v>
       </c>
@@ -2635,7 +2892,7 @@
       <c r="K10" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="44" t="s">
+      <c r="M10" s="52" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="38" t="s">
@@ -2643,11 +2900,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="45" t="s">
+      <c r="A11" s="53" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="53"/>
       <c r="E11" t="s">
         <v>76</v>
       </c>
@@ -2664,7 +2921,7 @@
         <f>SUM(J3:J10)</f>
         <v>10</v>
       </c>
-      <c r="M11" s="44"/>
+      <c r="M11" s="52"/>
       <c r="N11" s="38" t="s">
         <v>163</v>
       </c>
@@ -2778,13 +3035,13 @@
       <c r="G16" t="s">
         <v>143</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="J16" s="53">
+      <c r="J16" s="44">
         <v>1</v>
       </c>
-      <c r="K16" s="54" t="s">
+      <c r="K16" s="45" t="s">
         <v>135</v>
       </c>
     </row>
@@ -2805,7 +3062,7 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="44" t="s">
+      <c r="I17" s="52" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="38" t="s">
@@ -2822,13 +3079,13 @@
       <c r="C18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="44" t="s">
+      <c r="E18" s="52" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>164</v>
-      </c>
-      <c r="I18" s="44"/>
+        <v>199</v>
+      </c>
+      <c r="I18" s="52"/>
       <c r="J18" s="38" t="s">
         <v>182</v>
       </c>
@@ -2842,13 +3099,13 @@
         <v>13</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="E19" s="44"/>
+      <c r="E19" s="52"/>
       <c r="F19" s="38" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="44" t="s">
+      <c r="A20" s="52" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="41" t="s">
@@ -2861,7 +3118,7 @@
       <c r="K20" s="50"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
+      <c r="A21" s="52"/>
       <c r="B21" s="41" t="s">
         <v>163</v>
       </c>
@@ -2898,11 +3155,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="47" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="43"/>
-      <c r="C24" s="43"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
       <c r="I24" s="19" t="s">
         <v>83</v>
       </c>
@@ -2980,6 +3237,12 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -2988,12 +3251,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3011,10 +3268,269 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H4" sqref="H4:J16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.7109375" customWidth="1"/>
+    <col min="4" max="4" width="22.28515625" customWidth="1"/>
+    <col min="5" max="5" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="56" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>191</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="57"/>
+      <c r="B3" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="C3" s="63"/>
+      <c r="D3" s="63"/>
+      <c r="E3" s="64"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="57"/>
+      <c r="B4" s="65" t="s">
+        <v>193</v>
+      </c>
+      <c r="C4" s="66"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="57"/>
+      <c r="B5" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" s="69"/>
+      <c r="D5" s="69"/>
+      <c r="E5" s="70"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="57"/>
+      <c r="B6" s="71" t="s">
+        <v>195</v>
+      </c>
+      <c r="C6" s="72"/>
+      <c r="D6" s="72"/>
+      <c r="E6" s="73" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
+      <c r="B7" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C7" s="83"/>
+      <c r="D7" s="83"/>
+      <c r="E7" s="84"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
+      <c r="B8" s="76" t="s">
+        <v>201</v>
+      </c>
+      <c r="C8" s="77"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
+      <c r="B9" s="76" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" s="77"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
+      <c r="B10" s="74" t="s">
+        <v>197</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="60"/>
+      <c r="E10" s="61" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
+      <c r="B11" s="75" t="s">
+        <v>198</v>
+      </c>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
+      <c r="B12" s="65" t="s">
+        <v>203</v>
+      </c>
+      <c r="C12" s="66"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="67" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
+      <c r="B13" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="C13" s="69"/>
+      <c r="D13" s="69"/>
+      <c r="E13" s="70"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
+      <c r="B14" s="79" t="s">
+        <v>204</v>
+      </c>
+      <c r="C14" s="80"/>
+      <c r="D14" s="80"/>
+      <c r="E14" s="81" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
+      <c r="B15" s="79" t="s">
+        <v>205</v>
+      </c>
+      <c r="C15" s="80"/>
+      <c r="D15" s="80"/>
+      <c r="E15" s="81"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
+      <c r="B16" s="71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
+      <c r="B17" s="82" t="s">
+        <v>196</v>
+      </c>
+      <c r="C17" s="83"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="84"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
+      <c r="B18" s="74" t="s">
+        <v>207</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="85" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="58"/>
+      <c r="B19" s="75" t="s">
+        <v>208</v>
+      </c>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="86"/>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="E4:E5"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="E18:E19"/>
+  </mergeCells>
+  <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
+    <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="'Oui'">
+      <formula>NOT(ISERROR(SEARCH("'Oui'",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
+    <cfRule type="containsText" dxfId="16" priority="6" operator="containsText" text="Non">
+      <formula>NOT(ISERROR(SEARCH("Non",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C2">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Oui">
+      <formula>NOT(ISERROR(SEARCH("Oui",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D22 C12:C20 C8:D9 C10:D11 C2:D7" xr:uid="{00000000-0002-0000-0400-000000000000}">
+      <formula1>Ouinon</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
@@ -3586,17 +4102,17 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="20" priority="4" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="13" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="19" priority="3" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="12" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:H24">
-    <cfRule type="containsText" dxfId="18" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="11" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",G2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3622,7 +4138,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
@@ -3810,22 +4326,22 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="17" priority="4" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="15" priority="2" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:E26 G2">
-    <cfRule type="containsText" dxfId="14" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3842,7 +4358,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
@@ -4003,37 +4519,37 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="13" priority="7" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="12" priority="6" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2:D20">
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D2">
-    <cfRule type="containsText" dxfId="10" priority="4" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",D2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="9" priority="3" operator="containsText" text="'Oui'">
+    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="'Oui'">
       <formula>NOT(ISERROR(SEARCH("'Oui'",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="8" priority="2" operator="containsText" text="Non">
+    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Non">
       <formula>NOT(ISERROR(SEARCH("Non",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E2:E21">
-    <cfRule type="containsText" dxfId="7" priority="1" operator="containsText" text="Oui">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Oui">
       <formula>NOT(ISERROR(SEARCH("Oui",E2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4044,81 +4560,6 @@
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:D1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="31.85546875" customWidth="1"/>
-    <col min="2" max="2" width="23.7109375" customWidth="1"/>
-    <col min="3" max="3" width="22.28515625" customWidth="1"/>
-    <col min="4" max="4" width="40.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="'Oui'">
-      <formula>NOT(ISERROR(SEARCH("'Oui'",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B20">
-    <cfRule type="containsText" dxfId="4" priority="5" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="'Oui'">
-      <formula>NOT(ISERROR(SEARCH("'Oui'",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="1" priority="2" operator="containsText" text="Non">
-      <formula>NOT(ISERROR(SEARCH("Non",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C22">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Oui">
-      <formula>NOT(ISERROR(SEARCH("Oui",C2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C22 B2:B20" xr:uid="{00000000-0002-0000-0400-000000000000}">
-      <formula1>Ouinon</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1CD369-7784-4B96-BF5A-ADA95720A5C6}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="Ouinon">Données!$C$2:$C$3</definedName>
     <definedName name="signal">Données!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="209">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -657,12 +656,15 @@
   </si>
   <si>
     <t>8STA61035PN</t>
+  </si>
+  <si>
+    <t>neutre</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1100,12 +1102,62 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1118,18 +1170,6 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1139,68 +1179,30 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1209,7 +1211,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
@@ -1407,7 +1409,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1431,7 +1432,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1455,7 +1455,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1479,7 +1478,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1503,7 +1501,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1589,7 +1586,6 @@
         <sz val="11"/>
         <color theme="0"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1613,7 +1609,6 @@
         <sz val="11"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -1642,99 +1637,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{788B3763-167B-4537-8CB4-249D5CFDCBEE}" name="Tableau1" displayName="Tableau1" ref="A2:C6" totalsRowShown="0">
-  <autoFilter ref="A2:C6" xr:uid="{10B92C3C-BC5A-4DF6-BD76-25477016ABE6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:C6" totalsRowShown="0">
+  <autoFilter ref="A2:C6"/>
   <sortState ref="A3:C14">
     <sortCondition ref="B2:B14"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{6E6C4D10-B184-4EF6-97BE-79D14D8BB9AB}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{EA65F758-19C7-462E-827D-0A27F1E49D66}" name="Quantité"/>
-    <tableColumn id="3" xr3:uid="{3E3384F4-D62B-458A-AFAC-219C8BE585DA}" name="Taille câble"/>
+    <tableColumn id="1" name="Signal"/>
+    <tableColumn id="2" name="Quantité"/>
+    <tableColumn id="3" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C343F534-8026-488C-B9A1-7392BF672CA9}" name="Tableau2" displayName="Tableau2" ref="E2:G5" totalsRowShown="0">
-  <autoFilter ref="E2:G5" xr:uid="{89AB2C05-C1D0-4049-BE41-63D079A493B8}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="E2:G5" totalsRowShown="0">
+  <autoFilter ref="E2:G5"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{32826C71-0A49-44A1-9D99-46471F288D8D}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{16790B8F-2B6A-44F8-A82A-AE297CF6D842}" name="Quantité"/>
-    <tableColumn id="3" xr3:uid="{0EB77C10-706E-474F-AD94-4E38BA7083CB}" name="Taille câble"/>
+    <tableColumn id="1" name="Signal"/>
+    <tableColumn id="2" name="Quantité"/>
+    <tableColumn id="3" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2BFB11B2-83A5-4C89-8FC9-7453FC0666CA}" name="Tableau5" displayName="Tableau5" ref="E11:G16" totalsRowShown="0">
-  <autoFilter ref="E11:G16" xr:uid="{321E8CEA-276A-4A74-BCBF-E9D6451E8198}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="E11:G16" totalsRowShown="0">
+  <autoFilter ref="E11:G16"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8EC88283-C23A-43A8-BA4D-0761D8EA1FBC}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{64EBAE8F-22B2-468A-B916-6C5F45FF76C4}" name="Qauntité"/>
-    <tableColumn id="3" xr3:uid="{E3C0CCD9-8004-41D1-8096-37E68EC41C93}" name="Taille câble"/>
+    <tableColumn id="1" name="Signal"/>
+    <tableColumn id="2" name="Qauntité"/>
+    <tableColumn id="3" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{A5FF5D6F-5C4F-4A9F-97D8-F7092019C89D}" name="Tableau6" displayName="Tableau6" ref="I2:K10" totalsRowShown="0">
-  <autoFilter ref="I2:K10" xr:uid="{7D0AAD1B-760E-4F47-82AA-7C8A0094721B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="I2:K11" totalsRowShown="0">
+  <autoFilter ref="I2:K11"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{8DA76FAD-EEC7-4EFB-BCCC-A49874A6F177}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{A0DA4AAB-4982-4118-B479-C30CE422057C}" name="Quantité"/>
-    <tableColumn id="3" xr3:uid="{46BC4000-EB93-4B2D-91D1-1CD62697D722}" name="Taille câble"/>
+    <tableColumn id="1" name="Signal"/>
+    <tableColumn id="2" name="Quantité"/>
+    <tableColumn id="3" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B06CDE21-3C09-4514-8904-F9C3C3D1A134}" name="Tableau7" displayName="Tableau7" ref="I21:K23" totalsRowShown="0">
-  <autoFilter ref="I21:K23" xr:uid="{C531FA51-64BB-4A5D-AAFF-D1A316E4367A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="I21:K23" totalsRowShown="0">
+  <autoFilter ref="I21:K23"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{7EAA620D-F245-4300-BC5A-6331103D1EB8}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{847BB985-A8C5-4576-90DF-371B2F4669A5}" name="Quantité"/>
-    <tableColumn id="3" xr3:uid="{CB7EACFE-3369-4321-96B5-9F8B9258538C}" name="Taille câble"/>
+    <tableColumn id="1" name="Signal"/>
+    <tableColumn id="2" name="Quantité"/>
+    <tableColumn id="3" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{DE60943C-0F65-4048-BE8B-058C33437C54}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="31">
-  <autoFilter ref="M2:O8" xr:uid="{14F71DC9-CA2D-4849-8A68-8426E815193B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="M2:O8"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{60964149-DE59-4016-94E5-8DAE1B4D0F2F}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{C1FE7950-85C5-446E-9354-FE1808479D2A}" name="Quantité"/>
-    <tableColumn id="3" xr3:uid="{0AD90A95-5CFB-49F0-AA77-DA306484B3F4}" name="Taille câble"/>
+    <tableColumn id="1" name="Signal"/>
+    <tableColumn id="2" name="Quantité"/>
+    <tableColumn id="3" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D5BAAF87-58B1-4DA0-AE32-35EB383C332E}" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A25:C27" xr:uid="{73C099E3-1A12-4E4B-B716-AE9D9D6ACF1C}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A25:C27"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{3979E120-526A-48A3-95B8-8CC6622314B6}" name="Signal" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{5599F766-82F3-47AF-BC9A-5A08C6518F61}" name="Quantité" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{08802F18-A9C3-4C98-A783-48CBCA36063B}" name="Taille câble" dataDxfId="23"/>
+    <tableColumn id="1" name="Signal" dataDxfId="25"/>
+    <tableColumn id="2" name="Quantité" dataDxfId="24"/>
+    <tableColumn id="3" name="Taille câble" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{7611D582-4780-4229-88EC-CB0808AD78FF}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A12:C18" xr:uid="{A4D485C1-6867-4595-B022-94F789491528}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A12:C18"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{2DEE3A7F-A99A-40B6-BA40-87E9A957EB7F}" name="Signal" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{6A5E1A27-7542-4061-B5BB-EE75E3E57CF1}" name="Quantité" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{5C407FAE-885A-41DE-B16B-87D1EA9B5B79}" name="Taille câble" dataDxfId="18"/>
+    <tableColumn id="1" name="Signal" dataDxfId="20"/>
+    <tableColumn id="2" name="Quantité" dataDxfId="19"/>
+    <tableColumn id="3" name="Taille câble" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1783,7 +1778,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1818,7 +1813,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1995,21 +1990,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -2563,14 +2558,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4EDC2-62C5-4832-BE0E-C6F75D6AF790}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -2583,26 +2578,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="65" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="47"/>
-      <c r="E1" s="48" t="s">
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="E1" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="I1" s="49" t="s">
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="I1" s="71" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="M1" s="46" t="s">
+      <c r="J1" s="71"/>
+      <c r="K1" s="71"/>
+      <c r="M1" s="69" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="46"/>
-      <c r="O1" s="46"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2800,7 +2795,7 @@
         <f>SUM(B3:B6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="54" t="s">
+      <c r="E7" s="68" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
@@ -2826,13 +2821,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="52" t="s">
+      <c r="A8" s="67" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="52"/>
+      <c r="E8" s="67"/>
       <c r="F8" s="38" t="s">
         <v>165</v>
       </c>
@@ -2856,7 +2851,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="52"/>
+      <c r="A9" s="67"/>
       <c r="B9" s="41" t="s">
         <v>169</v>
       </c>
@@ -2878,11 +2873,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="73" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="F10" s="73"/>
+      <c r="G10" s="73"/>
       <c r="I10" s="12" t="s">
         <v>155</v>
       </c>
@@ -2892,7 +2887,7 @@
       <c r="K10" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="52" t="s">
+      <c r="M10" s="67" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="38" t="s">
@@ -2900,11 +2895,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="53" t="s">
+      <c r="A11" s="66" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="53"/>
-      <c r="C11" s="53"/>
+      <c r="B11" s="66"/>
+      <c r="C11" s="66"/>
       <c r="E11" t="s">
         <v>76</v>
       </c>
@@ -2914,19 +2909,21 @@
       <c r="G11" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="J11" s="14">
-        <f>SUM(J3:J10)</f>
-        <v>10</v>
-      </c>
-      <c r="M11" s="52"/>
+      <c r="I11" t="s">
+        <v>209</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>143</v>
+      </c>
+      <c r="M11" s="67"/>
       <c r="N11" s="38" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="31" t="s">
         <v>76</v>
       </c>
@@ -2945,11 +2942,12 @@
       <c r="G12" t="s">
         <v>143</v>
       </c>
-      <c r="I12" s="42" t="s">
-        <v>1</v>
-      </c>
-      <c r="J12" s="38" t="s">
-        <v>161</v>
+      <c r="I12" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="J12" s="14">
+        <f>SUM(J3:J11)</f>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -2971,9 +2969,11 @@
       <c r="G13" t="s">
         <v>143</v>
       </c>
-      <c r="I13" s="42"/>
+      <c r="I13" s="42" t="s">
+        <v>1</v>
+      </c>
       <c r="J13" s="38" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2995,6 +2995,10 @@
       <c r="G14" t="s">
         <v>135</v>
       </c>
+      <c r="I14" s="42"/>
+      <c r="J14" s="38" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="31" t="s">
@@ -3062,7 +3066,7 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="52" t="s">
+      <c r="I17" s="67" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="38" t="s">
@@ -3079,13 +3083,13 @@
       <c r="C18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="52" t="s">
+      <c r="E18" s="67" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>199</v>
       </c>
-      <c r="I18" s="52"/>
+      <c r="I18" s="67"/>
       <c r="J18" s="38" t="s">
         <v>182</v>
       </c>
@@ -3099,26 +3103,26 @@
         <v>13</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="E19" s="52"/>
+      <c r="E19" s="67"/>
       <c r="F19" s="38" t="s">
         <v>200</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="52" t="s">
+      <c r="A20" s="67" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="50" t="s">
+      <c r="I20" s="72" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="50"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="52"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="41" t="s">
         <v>163</v>
       </c>
@@ -3155,11 +3159,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="47" t="s">
+      <c r="A24" s="65" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
+      <c r="B24" s="65"/>
+      <c r="C24" s="65"/>
       <c r="I24" s="19" t="s">
         <v>83</v>
       </c>
@@ -3237,12 +3241,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E18:E19"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -3251,6 +3249,12 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3268,14 +3272,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H4" sqref="H4:J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -3285,7 +3289,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="46" t="s">
         <v>84</v>
       </c>
       <c r="B1" s="1" t="s">
@@ -3302,185 +3306,185 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="74" t="s">
         <v>183</v>
       </c>
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="47" t="s">
         <v>191</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61" t="s">
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="77" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="75"/>
+      <c r="B3" s="49" t="s">
         <v>192</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="78"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="65" t="s">
+      <c r="A4" s="75"/>
+      <c r="B4" s="51" t="s">
         <v>193</v>
       </c>
-      <c r="C4" s="66"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67" t="s">
+      <c r="C4" s="52"/>
+      <c r="D4" s="52"/>
+      <c r="E4" s="79" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="68" t="s">
+      <c r="A5" s="75"/>
+      <c r="B5" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="70"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="80"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="71" t="s">
+      <c r="A6" s="75"/>
+      <c r="B6" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C6" s="72"/>
-      <c r="D6" s="72"/>
-      <c r="E6" s="73" t="s">
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="81" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="82" t="s">
+      <c r="A7" s="75"/>
+      <c r="B7" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C7" s="83"/>
-      <c r="D7" s="83"/>
-      <c r="E7" s="84"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="82"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="76" t="s">
+      <c r="A8" s="75"/>
+      <c r="B8" s="59" t="s">
         <v>201</v>
       </c>
-      <c r="C8" s="77"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="78" t="s">
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
+      <c r="E8" s="83" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="76" t="s">
+      <c r="A9" s="75"/>
+      <c r="B9" s="59" t="s">
         <v>202</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="77"/>
-      <c r="E9" s="78"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="83"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="74" t="s">
+      <c r="A10" s="75"/>
+      <c r="B10" s="57" t="s">
         <v>197</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="60"/>
-      <c r="E10" s="61" t="s">
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="77" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="75" t="s">
+      <c r="A11" s="75"/>
+      <c r="B11" s="58" t="s">
         <v>198</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="78"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="65" t="s">
+      <c r="A12" s="75"/>
+      <c r="B12" s="51" t="s">
         <v>203</v>
       </c>
-      <c r="C12" s="66"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="67" t="s">
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="79" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="75"/>
+      <c r="B13" s="53" t="s">
         <v>194</v>
       </c>
-      <c r="C13" s="69"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="80"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="79" t="s">
+      <c r="A14" s="75"/>
+      <c r="B14" s="61" t="s">
         <v>204</v>
       </c>
-      <c r="C14" s="80"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81" t="s">
+      <c r="C14" s="62"/>
+      <c r="D14" s="62"/>
+      <c r="E14" s="84" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="79" t="s">
+      <c r="A15" s="75"/>
+      <c r="B15" s="61" t="s">
         <v>205</v>
       </c>
-      <c r="C15" s="80"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="71" t="s">
+      <c r="A16" s="75"/>
+      <c r="B16" s="55" t="s">
         <v>206</v>
       </c>
-      <c r="C16" s="72"/>
-      <c r="D16" s="72"/>
-      <c r="E16" s="73" t="s">
+      <c r="C16" s="56"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="81" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="82" t="s">
+      <c r="A17" s="75"/>
+      <c r="B17" s="63" t="s">
         <v>196</v>
       </c>
-      <c r="C17" s="83"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="84"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="64"/>
+      <c r="E17" s="82"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="57"/>
-      <c r="B18" s="74" t="s">
+      <c r="A18" s="75"/>
+      <c r="B18" s="57" t="s">
         <v>207</v>
       </c>
-      <c r="C18" s="60"/>
-      <c r="D18" s="60"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
       <c r="E18" s="85" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="58"/>
-      <c r="B19" s="75" t="s">
+      <c r="A19" s="76"/>
+      <c r="B19" s="58" t="s">
         <v>208</v>
       </c>
-      <c r="C19" s="63"/>
-      <c r="D19" s="63"/>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
       <c r="E19" s="86"/>
     </row>
   </sheetData>
@@ -3517,7 +3521,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D22 C12:C20 C8:D9 C10:D11 C2:D7" xr:uid="{00000000-0002-0000-0400-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D22 C12:C20 C8:D9 C10:D11 C2:D7">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -3527,14 +3531,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+    <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -4117,21 +4121,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{3F9CF025-764A-4CBA-8D55-BA0984A6AF68}"/>
-    <hyperlink ref="F6" r:id="rId3" display="..\Doc des éléments\Capteurs\LC-2_Manual.pdf" xr:uid="{D529AB4E-008F-4006-B2F0-2A4C26377637}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{6906A296-3B1E-482F-82DE-F6D779C2B269}"/>
-    <hyperlink ref="F10" r:id="rId5" xr:uid="{42C86DC2-8198-419E-A1E3-D30946538678}"/>
-    <hyperlink ref="F15" r:id="rId6" xr:uid="{3A89EBDC-EB5F-4BDB-88FE-B34BF328AD89}"/>
-    <hyperlink ref="F5" r:id="rId7" xr:uid="{19D13A72-9629-4E36-B24B-049DB2020EE2}"/>
-    <hyperlink ref="F23" r:id="rId8" xr:uid="{2F41565A-7FAF-476C-8994-D4B25DE9FB52}"/>
-    <hyperlink ref="F24" r:id="rId9" xr:uid="{8F607078-8C2E-4DA8-86BF-A0B72F0DA3DB}"/>
-    <hyperlink ref="F14" r:id="rId10" xr:uid="{BE352279-65C5-4868-B5B8-BA970FE38AE6}"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F4" r:id="rId2"/>
+    <hyperlink ref="F6" r:id="rId3" display="..\Doc des éléments\Capteurs\LC-2_Manual.pdf"/>
+    <hyperlink ref="F7" r:id="rId4"/>
+    <hyperlink ref="F10" r:id="rId5"/>
+    <hyperlink ref="F15" r:id="rId6"/>
+    <hyperlink ref="F5" r:id="rId7"/>
+    <hyperlink ref="F23" r:id="rId8"/>
+    <hyperlink ref="F24" r:id="rId9"/>
+    <hyperlink ref="F14" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -4139,14 +4143,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
@@ -4346,27 +4350,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E26" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E26">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
-    <hyperlink ref="F4:F6" r:id="rId2" display="lien" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F4:F6" r:id="rId2" display="lien"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -4554,7 +4558,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21 D2:D20" xr:uid="{00000000-0002-0000-0300-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21 D2:D20">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -4564,14 +4568,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7557205-D0DB-4EF5-8A79-CD831C24ADB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
     <definedName name="Ouinon">Données!$C$2:$C$3</definedName>
     <definedName name="signal">Données!$A$2:$A$4</definedName>
   </definedNames>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="219">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -553,9 +554,6 @@
     <t>8STA60435P</t>
   </si>
   <si>
-    <t>8STA70435S</t>
-  </si>
-  <si>
     <t>AWG 23</t>
   </si>
   <si>
@@ -659,12 +657,42 @@
   </si>
   <si>
     <t>neutre</t>
+  </si>
+  <si>
+    <t>8STA70235S</t>
+  </si>
+  <si>
+    <t>8STA60235P</t>
+  </si>
+  <si>
+    <t>Capteur et autres</t>
+  </si>
+  <si>
+    <t>Suspension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brake pressure </t>
+  </si>
+  <si>
+    <t>Steering</t>
+  </si>
+  <si>
+    <t>fuel pressure</t>
+  </si>
+  <si>
+    <t>lambda</t>
+  </si>
+  <si>
+    <t>brake light</t>
+  </si>
+  <si>
+    <t>x11</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -788,7 +816,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -920,17 +948,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -944,17 +961,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="thin">
         <color indexed="64"/>
@@ -999,10 +1005,10 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
+      <left style="thin">
         <color indexed="64"/>
-      </right>
+      </left>
+      <right/>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1011,9 +1017,15 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
-      <top/>
-      <bottom/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1021,7 +1033,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1109,18 +1121,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1128,10 +1140,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1139,79 +1151,97 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="32">
@@ -1637,99 +1667,99 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="A2:C6" totalsRowShown="0">
-  <autoFilter ref="A2:C6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:C6" totalsRowShown="0">
+  <autoFilter ref="A2:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="A3:C14">
     <sortCondition ref="B2:B14"/>
   </sortState>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal"/>
-    <tableColumn id="2" name="Quantité"/>
-    <tableColumn id="3" name="Taille câble"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="E2:G5" totalsRowShown="0">
-  <autoFilter ref="E2:G5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau2" displayName="Tableau2" ref="E2:G5" totalsRowShown="0">
+  <autoFilter ref="E2:G5" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal"/>
-    <tableColumn id="2" name="Quantité"/>
-    <tableColumn id="3" name="Taille câble"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="E11:G16" totalsRowShown="0">
-  <autoFilter ref="E11:G16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau5" displayName="Tableau5" ref="E11:G16" totalsRowShown="0">
+  <autoFilter ref="E11:G16" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal"/>
-    <tableColumn id="2" name="Qauntité"/>
-    <tableColumn id="3" name="Taille câble"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Qauntité"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="I2:K11" totalsRowShown="0">
-  <autoFilter ref="I2:K11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau6" displayName="Tableau6" ref="I2:K11" totalsRowShown="0">
+  <autoFilter ref="I2:K11" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal"/>
-    <tableColumn id="2" name="Quantité"/>
-    <tableColumn id="3" name="Taille câble"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="I21:K23" totalsRowShown="0">
-  <autoFilter ref="I21:K23"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="Tableau7" displayName="Tableau7" ref="I21:K23" totalsRowShown="0">
+  <autoFilter ref="I21:K23" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal"/>
-    <tableColumn id="2" name="Quantité"/>
-    <tableColumn id="3" name="Taille câble"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="31">
-  <autoFilter ref="M2:O8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tableau8" displayName="Tableau8" ref="M2:O8" totalsRowShown="0" headerRowDxfId="31">
+  <autoFilter ref="M2:O8" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal"/>
-    <tableColumn id="2" name="Quantité"/>
-    <tableColumn id="3" name="Taille câble"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Signal"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Quantité"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium5" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
-  <autoFilter ref="A25:C27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Tableau3" displayName="Tableau3" ref="A25:C27" totalsRowShown="0" headerRowDxfId="30" dataDxfId="28" headerRowBorderDxfId="29" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+  <autoFilter ref="A25:C27" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal" dataDxfId="25"/>
-    <tableColumn id="2" name="Quantité" dataDxfId="24"/>
-    <tableColumn id="3" name="Taille câble" dataDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Signal" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Quantité" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Taille câble" dataDxfId="23"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="9" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
-  <autoFilter ref="A12:C18"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0" headerRowDxfId="22" dataDxfId="21">
+  <autoFilter ref="A12:C18" xr:uid="{00000000-0009-0000-0100-000009000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Signal" dataDxfId="20"/>
-    <tableColumn id="2" name="Quantité" dataDxfId="19"/>
-    <tableColumn id="3" name="Taille câble" dataDxfId="18"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Signal" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quantité" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Taille câble" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1990,21 +2020,21 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.42578125" customWidth="1"/>
     <col min="2" max="2" width="27" customWidth="1"/>
@@ -2031,7 +2061,7 @@
         <v>60</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>61</v>
@@ -2102,7 +2132,7 @@
         <v>0.51028571428571423</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>135</v>
@@ -2133,7 +2163,7 @@
         <v>0.76542857142857146</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>135</v>
@@ -2164,7 +2194,7 @@
         <v>0.15308571428571427</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>143</v>
@@ -2192,7 +2222,7 @@
         <v>0.76542857142857146</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>135</v>
@@ -2223,10 +2253,10 @@
         <v>1.0205714285714285</v>
       </c>
       <c r="H7" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="I7" s="5" t="s">
         <v>177</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2254,7 +2284,7 @@
         <v>0.51028571428571423</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>135</v>
@@ -2285,7 +2315,7 @@
         <v>0.25514285714285712</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>143</v>
@@ -2436,7 +2466,7 @@
         <v>0.15308571428571427</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>143</v>
@@ -2467,10 +2497,10 @@
         <v>0.42864000000000002</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="I15" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2558,14 +2588,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:O42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
@@ -2578,26 +2608,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="67" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="E1" s="70" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="E1" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="I1" s="71" t="s">
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="I1" s="69" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="71"/>
-      <c r="K1" s="71"/>
-      <c r="M1" s="69" t="s">
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="M1" s="66" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2795,7 +2825,7 @@
         <f>SUM(B3:B6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="68" t="s">
+      <c r="E7" s="74" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
@@ -2821,13 +2851,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="72" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="67"/>
+      <c r="E8" s="72"/>
       <c r="F8" s="38" t="s">
         <v>165</v>
       </c>
@@ -2851,7 +2881,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="67"/>
+      <c r="A9" s="72"/>
       <c r="B9" s="41" t="s">
         <v>169</v>
       </c>
@@ -2873,11 +2903,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="73" t="s">
+      <c r="E10" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="71"/>
       <c r="I10" s="12" t="s">
         <v>155</v>
       </c>
@@ -2887,7 +2917,7 @@
       <c r="K10" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="67" t="s">
+      <c r="M10" s="72" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="38" t="s">
@@ -2895,11 +2925,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="66" t="s">
+      <c r="A11" s="73" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="66"/>
-      <c r="C11" s="66"/>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
       <c r="E11" t="s">
         <v>76</v>
       </c>
@@ -2910,7 +2940,7 @@
         <v>93</v>
       </c>
       <c r="I11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2918,7 +2948,7 @@
       <c r="K11" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="67"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="38" t="s">
         <v>163</v>
       </c>
@@ -3066,11 +3096,11 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="67" t="s">
+      <c r="I17" s="72" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -3083,15 +3113,15 @@
       <c r="C18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="67" t="s">
+      <c r="E18" s="72" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="38" t="s">
-        <v>199</v>
-      </c>
-      <c r="I18" s="67"/>
+        <v>198</v>
+      </c>
+      <c r="I18" s="72"/>
       <c r="J18" s="38" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -3103,26 +3133,26 @@
         <v>13</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="E19" s="67"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="38" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="67" t="s">
+      <c r="A20" s="72" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="70" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="70"/>
+      <c r="K20" s="70"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="67"/>
+      <c r="A21" s="72"/>
       <c r="B21" s="41" t="s">
         <v>163</v>
       </c>
@@ -3159,11 +3189,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="67" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="65"/>
-      <c r="C24" s="65"/>
+      <c r="B24" s="67"/>
+      <c r="C24" s="67"/>
       <c r="I24" s="19" t="s">
         <v>83</v>
       </c>
@@ -3230,17 +3260,102 @@
         <v>1</v>
       </c>
       <c r="B29" s="38" t="s">
-        <v>174</v>
+        <v>209</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="37"/>
       <c r="B30" s="38" t="s">
-        <v>173</v>
+        <v>210</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="78" t="s">
+        <v>211</v>
+      </c>
+      <c r="B33" s="78"/>
+      <c r="C33" s="78"/>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>212</v>
+      </c>
+      <c r="B34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>214</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>215</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>216</v>
+      </c>
+      <c r="B38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>217</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>83</v>
+      </c>
+      <c r="B40">
+        <f>SUM(B34:B39)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="38" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="65"/>
+      <c r="B42" s="38" t="s">
+        <v>210</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="14">
+  <mergeCells count="15">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="E18:E19"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
@@ -3249,12 +3364,6 @@
     <mergeCell ref="E10:G10"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I17:I18"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="E18:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3272,14 +3381,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:F19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4:J16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.42578125" customWidth="1"/>
     <col min="2" max="2" width="31.85546875" customWidth="1"/>
@@ -3288,7 +3397,7 @@
     <col min="5" max="5" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
         <v>84</v>
       </c>
@@ -3304,191 +3413,223 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
-        <v>183</v>
+      <c r="F1" s="89" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="75" t="s">
+        <v>182</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="77" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
+      <c r="E2" s="79" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="91"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="76"/>
       <c r="B3" s="49" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
-      <c r="E3" s="78"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="75"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="92"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="76"/>
       <c r="B4" s="51" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
-      <c r="E4" s="79" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="75"/>
+      <c r="E4" s="81" t="s">
+        <v>184</v>
+      </c>
+      <c r="F4" s="91"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="76"/>
       <c r="B5" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
-      <c r="E5" s="80"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="75"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="92"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="76"/>
       <c r="B6" s="55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
-      <c r="E6" s="81" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="75"/>
+      <c r="E6" s="83" t="s">
+        <v>185</v>
+      </c>
+      <c r="F6" s="90" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="76"/>
       <c r="B7" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
-      <c r="E7" s="82"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="75"/>
+      <c r="E7" s="84"/>
+      <c r="F7" s="90"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="76"/>
       <c r="B8" s="59" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="83" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="75"/>
+      <c r="E8" s="85" t="s">
+        <v>186</v>
+      </c>
+      <c r="F8" s="91"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="76"/>
       <c r="B9" s="59" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="83"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="75"/>
+      <c r="E9" s="85"/>
+      <c r="F9" s="92"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="76"/>
       <c r="B10" s="57" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
-      <c r="E10" s="77" t="s">
+      <c r="E10" s="79" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="75"/>
+      <c r="F10" s="91"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="76"/>
       <c r="B11" s="58" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
-      <c r="E11" s="78"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="75"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="92"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="76"/>
       <c r="B12" s="51" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
-      <c r="E12" s="79" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
+      <c r="E12" s="81" t="s">
+        <v>187</v>
+      </c>
+      <c r="F12" s="91"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="76"/>
       <c r="B13" s="53" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="80"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="75"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="92"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="76"/>
       <c r="B14" s="61" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="84" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="75"/>
+      <c r="E14" s="86" t="s">
+        <v>188</v>
+      </c>
+      <c r="F14" s="91"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="76"/>
       <c r="B15" s="61" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
-      <c r="E15" s="84"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="75"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="92"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="76"/>
       <c r="B16" s="55" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
-      <c r="E16" s="81" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="75"/>
+      <c r="E16" s="83" t="s">
+        <v>189</v>
+      </c>
+      <c r="F16" s="91"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="76"/>
       <c r="B17" s="63" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="82"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="75"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="92"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="76"/>
       <c r="B18" s="57" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="87" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
+      <c r="F18" s="91"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="77"/>
       <c r="B19" s="58" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="86"/>
+      <c r="E19" s="88"/>
+      <c r="F19" s="92"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="19">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="F10:F11"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="E4:E5"/>
@@ -3521,7 +3662,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D22 C12:C20 C8:D9 C10:D11 C2:D7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D12:D22 C12:C20 C8:D9 C10:D11 C2:D7" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -3531,14 +3672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView topLeftCell="A8" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.85546875" customWidth="1"/>
     <col min="2" max="2" width="23.5703125" customWidth="1"/>
@@ -4121,21 +4262,21 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:H24" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="F4" r:id="rId2"/>
-    <hyperlink ref="F6" r:id="rId3" display="..\Doc des éléments\Capteurs\LC-2_Manual.pdf"/>
-    <hyperlink ref="F7" r:id="rId4"/>
-    <hyperlink ref="F10" r:id="rId5"/>
-    <hyperlink ref="F15" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
-    <hyperlink ref="F23" r:id="rId8"/>
-    <hyperlink ref="F24" r:id="rId9"/>
-    <hyperlink ref="F14" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{00000000-0004-0000-0300-000001000000}"/>
+    <hyperlink ref="F6" r:id="rId3" display="..\Doc des éléments\Capteurs\LC-2_Manual.pdf" xr:uid="{00000000-0004-0000-0300-000002000000}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{00000000-0004-0000-0300-000003000000}"/>
+    <hyperlink ref="F10" r:id="rId5" xr:uid="{00000000-0004-0000-0300-000004000000}"/>
+    <hyperlink ref="F15" r:id="rId6" xr:uid="{00000000-0004-0000-0300-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0300-000006000000}"/>
+    <hyperlink ref="F23" r:id="rId8" xr:uid="{00000000-0004-0000-0300-000007000000}"/>
+    <hyperlink ref="F24" r:id="rId9" xr:uid="{00000000-0004-0000-0300-000008000000}"/>
+    <hyperlink ref="F14" r:id="rId10" xr:uid="{00000000-0004-0000-0300-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId11"/>
@@ -4143,14 +4284,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="26.7109375" customWidth="1"/>
     <col min="3" max="3" width="22.42578125" customWidth="1"/>
@@ -4350,27 +4491,27 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E26">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:E26" xr:uid="{00000000-0002-0000-0400-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F3" r:id="rId1"/>
-    <hyperlink ref="F4:F6" r:id="rId2" display="lien"/>
+    <hyperlink ref="F3" r:id="rId1" xr:uid="{00000000-0004-0000-0400-000000000000}"/>
+    <hyperlink ref="F4:F6" r:id="rId2" display="lien" xr:uid="{00000000-0004-0000-0400-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26.140625" customWidth="1"/>
     <col min="2" max="2" width="22.42578125" customWidth="1"/>
@@ -4558,7 +4699,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21 D2:D20">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E21 D2:D20" xr:uid="{00000000-0002-0000-0500-000000000000}">
       <formula1>Ouinon</formula1>
     </dataValidation>
   </dataValidations>
@@ -4568,14 +4709,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.85546875" customWidth="1"/>
   </cols>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7557205-D0DB-4EF5-8A79-CD831C24ADB9}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7DAA60-2D7C-466C-A935-D7CA3A9DA0EE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="222">
   <si>
     <t>Intensité maximal</t>
   </si>
@@ -686,7 +686,16 @@
     <t>brake light</t>
   </si>
   <si>
-    <t>x11</t>
+    <t>Wheel speed</t>
+  </si>
+  <si>
+    <t>Brake temp</t>
+  </si>
+  <si>
+    <t>Tyre temp</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
   </si>
 </sst>
 </file>
@@ -816,7 +825,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1028,12 +1037,53 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="97">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1158,12 +1208,27 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1176,13 +1241,13 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1194,9 +1259,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1224,21 +1286,15 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
@@ -2031,7 +2087,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2589,10 +2645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O42"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2608,26 +2664,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="E1" s="68" t="s">
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="E1" s="73" t="s">
         <v>88</v>
       </c>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="I1" s="69" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>156</v>
       </c>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="M1" s="66" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="M1" s="72" t="s">
         <v>103</v>
       </c>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="N1" s="72"/>
+      <c r="O1" s="72"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -2825,7 +2881,7 @@
         <f>SUM(B3:B6)</f>
         <v>4</v>
       </c>
-      <c r="E7" s="74" t="s">
+      <c r="E7" s="71" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
@@ -2851,13 +2907,13 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="72" t="s">
+      <c r="A8" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>171</v>
       </c>
-      <c r="E8" s="72"/>
+      <c r="E8" s="70"/>
       <c r="F8" s="38" t="s">
         <v>165</v>
       </c>
@@ -2881,7 +2937,7 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
+      <c r="A9" s="70"/>
       <c r="B9" s="41" t="s">
         <v>169</v>
       </c>
@@ -2903,11 +2959,11 @@
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="71" t="s">
+      <c r="E10" s="76" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="71"/>
-      <c r="G10" s="71"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
       <c r="I10" s="12" t="s">
         <v>155</v>
       </c>
@@ -2917,7 +2973,7 @@
       <c r="K10" t="s">
         <v>143</v>
       </c>
-      <c r="M10" s="72" t="s">
+      <c r="M10" s="70" t="s">
         <v>1</v>
       </c>
       <c r="N10" s="38" t="s">
@@ -2925,11 +2981,11 @@
       </c>
     </row>
     <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="73" t="s">
+      <c r="A11" s="69" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
+      <c r="B11" s="69"/>
+      <c r="C11" s="69"/>
       <c r="E11" t="s">
         <v>76</v>
       </c>
@@ -2948,7 +3004,7 @@
       <c r="K11" t="s">
         <v>143</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="70"/>
       <c r="N11" s="38" t="s">
         <v>163</v>
       </c>
@@ -3096,7 +3152,7 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="70" t="s">
         <v>1</v>
       </c>
       <c r="J17" s="38" t="s">
@@ -3113,13 +3169,13 @@
       <c r="C18" s="31" t="s">
         <v>143</v>
       </c>
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="70" t="s">
         <v>1</v>
       </c>
       <c r="F18" s="38" t="s">
         <v>198</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="70"/>
       <c r="J18" s="38" t="s">
         <v>181</v>
       </c>
@@ -3133,26 +3189,26 @@
         <v>13</v>
       </c>
       <c r="C19" s="39"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="70"/>
       <c r="F19" s="38" t="s">
         <v>199</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="70" t="s">
         <v>1</v>
       </c>
       <c r="B20" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="I20" s="70" t="s">
+      <c r="I20" s="75" t="s">
         <v>172</v>
       </c>
-      <c r="J20" s="70"/>
-      <c r="K20" s="70"/>
+      <c r="J20" s="75"/>
+      <c r="K20" s="75"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
+      <c r="A21" s="70"/>
       <c r="B21" s="41" t="s">
         <v>163</v>
       </c>
@@ -3189,11 +3245,11 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="67" t="s">
+      <c r="A24" s="68" t="s">
         <v>160</v>
       </c>
-      <c r="B24" s="67"/>
-      <c r="C24" s="67"/>
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
       <c r="I24" s="19" t="s">
         <v>83</v>
       </c>
@@ -3270,11 +3326,11 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="78" t="s">
+      <c r="A33" s="67" t="s">
         <v>211</v>
       </c>
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
+      <c r="B33" s="67"/>
+      <c r="C33" s="67"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -3326,44 +3382,68 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>219</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="92" t="s">
         <v>83</v>
       </c>
-      <c r="B40">
-        <f>SUM(B34:B39)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="65" t="s">
-        <v>1</v>
-      </c>
-      <c r="B41" s="38" t="s">
+      <c r="B43" s="93">
+        <f>SUM(B34:B42)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="38" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="38" t="s">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="65"/>
+      <c r="B45" s="38" t="s">
         <v>210</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A11:C11"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="E10:G10"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="I17:I18"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="E1:G1"/>
     <mergeCell ref="I1:K1"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="E10:G10"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="I17:I18"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A8:A9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3382,10 +3462,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3413,12 +3493,12 @@
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="89" t="s">
+      <c r="F1" s="66" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="80" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="47" t="s">
@@ -3426,206 +3506,226 @@
       </c>
       <c r="C2" s="48"/>
       <c r="D2" s="48"/>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="83" t="s">
         <v>183</v>
       </c>
-      <c r="F2" s="91"/>
+      <c r="F2" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="76"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="49" t="s">
         <v>191</v>
       </c>
       <c r="C3" s="50"/>
       <c r="D3" s="50"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="92"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="78"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="76"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="51" t="s">
         <v>192</v>
       </c>
       <c r="C4" s="52"/>
       <c r="D4" s="52"/>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="85" t="s">
         <v>184</v>
       </c>
-      <c r="F4" s="91"/>
+      <c r="F4" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="76"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="53" t="s">
         <v>193</v>
       </c>
       <c r="C5" s="54"/>
       <c r="D5" s="54"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="92"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="78"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="76"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="55" t="s">
         <v>194</v>
       </c>
       <c r="C6" s="56"/>
       <c r="D6" s="56"/>
-      <c r="E6" s="83" t="s">
+      <c r="E6" s="87" t="s">
         <v>185</v>
       </c>
-      <c r="F6" s="90" t="s">
-        <v>218</v>
+      <c r="F6" s="79">
+        <v>22</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="76"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="63" t="s">
         <v>195</v>
       </c>
       <c r="C7" s="64"/>
       <c r="D7" s="64"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="90"/>
+      <c r="E7" s="88"/>
+      <c r="F7" s="79"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="76"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="59" t="s">
         <v>200</v>
       </c>
       <c r="C8" s="60"/>
       <c r="D8" s="60"/>
-      <c r="E8" s="85" t="s">
+      <c r="E8" s="89" t="s">
         <v>186</v>
       </c>
-      <c r="F8" s="91"/>
+      <c r="F8" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="76"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="59" t="s">
         <v>201</v>
       </c>
       <c r="C9" s="60"/>
       <c r="D9" s="60"/>
-      <c r="E9" s="85"/>
-      <c r="F9" s="92"/>
+      <c r="E9" s="89"/>
+      <c r="F9" s="78"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="57" t="s">
         <v>196</v>
       </c>
       <c r="C10" s="48"/>
       <c r="D10" s="48"/>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="83" t="s">
         <v>88</v>
       </c>
-      <c r="F10" s="91"/>
+      <c r="F10" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="58" t="s">
         <v>197</v>
       </c>
       <c r="C11" s="50"/>
       <c r="D11" s="50"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="92"/>
+      <c r="E11" s="84"/>
+      <c r="F11" s="78"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="51" t="s">
         <v>202</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="52"/>
-      <c r="E12" s="81" t="s">
+      <c r="E12" s="85" t="s">
         <v>187</v>
       </c>
-      <c r="F12" s="91"/>
+      <c r="F12" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="53" t="s">
         <v>193</v>
       </c>
       <c r="C13" s="54"/>
       <c r="D13" s="54"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="92"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="78"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="61" t="s">
         <v>203</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="62"/>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="90" t="s">
         <v>188</v>
       </c>
-      <c r="F14" s="91"/>
+      <c r="F14" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="61" t="s">
         <v>204</v>
       </c>
       <c r="C15" s="62"/>
       <c r="D15" s="62"/>
-      <c r="E15" s="86"/>
-      <c r="F15" s="92"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="78"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="55" t="s">
         <v>205</v>
       </c>
       <c r="C16" s="56"/>
       <c r="D16" s="56"/>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="87" t="s">
         <v>189</v>
       </c>
-      <c r="F16" s="91"/>
+      <c r="F16" s="77">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="63" t="s">
         <v>195</v>
       </c>
       <c r="C17" s="64"/>
       <c r="D17" s="64"/>
-      <c r="E17" s="84"/>
-      <c r="F17" s="92"/>
+      <c r="E17" s="88"/>
+      <c r="F17" s="78"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="57" t="s">
         <v>206</v>
       </c>
       <c r="C18" s="48"/>
       <c r="D18" s="48"/>
-      <c r="E18" s="87" t="s">
+      <c r="E18" s="91" t="s">
         <v>103</v>
       </c>
-      <c r="F18" s="91"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
+      <c r="F18" s="77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="82"/>
       <c r="B19" s="58" t="s">
         <v>207</v>
       </c>
       <c r="C19" s="50"/>
       <c r="D19" s="50"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="92"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="95"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="96" t="s">
+        <v>221</v>
+      </c>
+      <c r="F20" s="93">
+        <f>SUM(F2:F19)</f>
+        <v>30</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="F6:F7"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="F4:F5"/>
     <mergeCell ref="F8:F9"/>
@@ -3640,6 +3740,11 @@
     <mergeCell ref="E14:E15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="F6:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
     <cfRule type="containsText" dxfId="17" priority="7" operator="containsText" text="'Oui'">

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA1C172C-40B6-49F8-9A38-4B9C38E960A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0386A7F-7487-4874-8654-772D4EA7136E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="229">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -256,9 +256,6 @@
     <t>Homming Servo</t>
   </si>
   <si>
-    <t>8STA71405S</t>
-  </si>
-  <si>
     <t>8STA61497P</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>Sortie</t>
   </si>
   <si>
-    <t>8STA61405P</t>
-  </si>
-  <si>
     <t>Switch temp/voltage</t>
   </si>
   <si>
@@ -283,9 +277,6 @@
     <t>8STA01035S</t>
   </si>
   <si>
-    <t>Sensor pare-feu</t>
-  </si>
-  <si>
     <t>Qauntité</t>
   </si>
   <si>
@@ -337,9 +328,6 @@
     <t>8STA61497S</t>
   </si>
   <si>
-    <t>8STA71035S</t>
-  </si>
-  <si>
     <t>Autre vers carte avant</t>
   </si>
   <si>
@@ -728,6 +716,12 @@
   </si>
   <si>
     <t>Power PF</t>
+  </si>
+  <si>
+    <t>8STA71699S</t>
+  </si>
+  <si>
+    <t>8STA61699P</t>
   </si>
 </sst>
 </file>
@@ -1172,44 +1166,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1308,75 +1266,114 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1646,8 +1643,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:C6" totalsRowShown="0">
-  <autoFilter ref="A2:C6" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:C12" totalsRowShown="0">
+  <autoFilter ref="A2:C12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantité"/>
@@ -1724,18 +1721,6 @@
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Quantité"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Taille câble"/>
-  </tableColumns>
-  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{00000000-000C-0000-FFFF-FFFF07000000}" name="Tableau9" displayName="Tableau9" ref="A12:C18" totalsRowShown="0">
-  <autoFilter ref="A12:C18" xr:uid="{00000000-0009-0000-0100-000008000000}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0700-000001000000}" name="Signal"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0700-000002000000}" name="Quantité"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0700-000003000000}" name="Taille câble"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2041,7 +2026,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2059,62 +2044,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
+    <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="15">
+      <c r="C2" s="3">
         <v>2</v>
       </c>
-      <c r="D2" s="15">
+      <c r="D2" s="3">
         <v>14</v>
       </c>
-      <c r="E2" s="15">
+      <c r="E2" s="3">
         <f t="shared" ref="E2:E10" si="0">0.05*D2</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F2" s="15">
+      <c r="F2" s="3">
         <v>8</v>
       </c>
-      <c r="G2" s="15">
+      <c r="G2" s="3">
         <f t="shared" ref="G2:G21" si="1">0.01786*2*C2*F2/E2</f>
         <v>0.81645714285714277</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2142,44 +2127,44 @@
         <f t="shared" si="1"/>
         <v>0.51028571428571423</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="15">
+      <c r="C4" s="3">
         <v>2</v>
       </c>
-      <c r="D4" s="15">
+      <c r="D4" s="3">
         <v>14</v>
       </c>
-      <c r="E4" s="15">
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F4" s="15">
+      <c r="F4" s="3">
         <v>12</v>
       </c>
-      <c r="G4" s="15">
+      <c r="G4" s="3">
         <f t="shared" si="1"/>
         <v>1.2246857142857142</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="I4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -2200,17 +2185,17 @@
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="7">
         <v>1</v>
       </c>
       <c r="G5">
         <f t="shared" si="1"/>
         <v>0.15308571428571427</v>
       </c>
-      <c r="H5" s="18" t="s">
+      <c r="H5" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I5" s="18" t="s">
+      <c r="I5" s="6" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2228,79 +2213,79 @@
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="7">
         <v>30</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
         <v>0.76542857142857146</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="6" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="15" t="s">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="15">
+      <c r="C7" s="3">
         <v>1.5</v>
       </c>
-      <c r="D7" s="15">
+      <c r="D7" s="3">
         <v>14</v>
       </c>
-      <c r="E7" s="15">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F7" s="20">
+      <c r="F7" s="8">
         <v>20</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G7" s="3">
         <f t="shared" si="1"/>
         <v>1.5308571428571429</v>
       </c>
-      <c r="H7" s="17" t="s">
+      <c r="H7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="17" t="s">
+      <c r="I7" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C8" s="15">
+      <c r="C8" s="3">
         <v>1.5</v>
       </c>
-      <c r="D8" s="15">
+      <c r="D8" s="3">
         <v>14</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F8" s="20">
+      <c r="F8" s="8">
         <v>10</v>
       </c>
-      <c r="G8" s="15">
+      <c r="G8" s="3">
         <f t="shared" si="1"/>
         <v>0.76542857142857146</v>
       </c>
-      <c r="H8" s="17" t="s">
+      <c r="H8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="17" t="s">
+      <c r="I8" s="5" t="s">
         <v>11</v>
       </c>
     </row>
@@ -2321,78 +2306,78 @@
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F9" s="21">
+      <c r="F9" s="9">
         <v>5</v>
       </c>
       <c r="G9">
         <f t="shared" si="1"/>
         <v>0.25514285714285712</v>
       </c>
-      <c r="H9" s="18" t="s">
+      <c r="H9" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="I9" s="18" t="s">
+      <c r="I9" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="15" t="s">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="15">
+      <c r="C10" s="3">
         <v>3</v>
       </c>
-      <c r="D10" s="15">
+      <c r="D10" s="3">
         <v>14</v>
       </c>
-      <c r="E10" s="15">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="8">
         <v>5</v>
       </c>
-      <c r="G10" s="15">
+      <c r="G10" s="3">
         <f t="shared" si="1"/>
         <v>0.76542857142857146</v>
       </c>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="15" t="s">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="15">
+      <c r="C11" s="3">
         <v>2.5</v>
       </c>
-      <c r="D11" s="15">
+      <c r="D11" s="3">
         <v>14</v>
       </c>
-      <c r="E11" s="15">
+      <c r="E11" s="3">
         <v>3</v>
       </c>
-      <c r="F11" s="20">
+      <c r="F11" s="8">
         <v>200</v>
       </c>
-      <c r="G11" s="15">
+      <c r="G11" s="3">
         <f t="shared" si="1"/>
         <v>5.9533333333333331</v>
       </c>
-      <c r="H11" s="17" t="s">
+      <c r="H11" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I11" s="17"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2411,46 +2396,46 @@
         <f t="shared" ref="E12:E20" si="2">0.05*D12</f>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F12" s="21">
+      <c r="F12" s="9">
         <v>250</v>
       </c>
       <c r="G12">
         <f t="shared" si="1"/>
         <v>12.757142857142856</v>
       </c>
-      <c r="H12" s="18" t="s">
+      <c r="H12" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="I12" s="18"/>
+      <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="23" t="s">
+      <c r="B13" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="10">
         <v>2</v>
       </c>
-      <c r="D13" s="22">
+      <c r="D13" s="10">
         <v>14</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F13" s="19">
+      <c r="F13" s="7">
         <v>1</v>
       </c>
-      <c r="G13" s="22">
+      <c r="G13" s="10">
         <f t="shared" si="1"/>
         <v>0.10205714285714285</v>
       </c>
-      <c r="H13" s="24" t="s">
+      <c r="H13" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I13" s="24" t="s">
+      <c r="I13" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2471,17 +2456,17 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F14" s="21">
+      <c r="F14" s="9">
         <v>3</v>
       </c>
       <c r="G14">
         <f t="shared" si="1"/>
         <v>0.15308571428571427</v>
       </c>
-      <c r="H14" s="18" t="s">
+      <c r="H14" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="24" t="s">
+      <c r="I14" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -2502,52 +2487,52 @@
         <f t="shared" si="2"/>
         <v>0.25</v>
       </c>
-      <c r="F15" s="21">
+      <c r="F15" s="9">
         <v>3</v>
       </c>
       <c r="G15">
         <f t="shared" si="1"/>
         <v>0.42864000000000002</v>
       </c>
-      <c r="H15" s="18" t="s">
+      <c r="H15" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="I15" s="24" t="s">
+      <c r="I15" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15" t="s">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="15">
+      <c r="C16" s="3">
         <v>3.5</v>
       </c>
-      <c r="D16" s="15">
+      <c r="D16" s="3">
         <v>14</v>
       </c>
-      <c r="E16" s="15">
+      <c r="E16" s="3">
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F16" s="20">
+      <c r="F16" s="8">
         <v>30</v>
       </c>
-      <c r="G16" s="15">
+      <c r="G16" s="3">
         <f t="shared" si="1"/>
         <v>5.3579999999999997</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="I16" s="15" t="s">
+      <c r="I16" s="5" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="4:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17">
         <v>14</v>
       </c>
@@ -2555,13 +2540,15 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F17" s="21"/>
+      <c r="F17" s="9"/>
       <c r="G17">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="95"/>
+      <c r="I17" s="95"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18">
         <v>14</v>
       </c>
@@ -2569,13 +2556,15 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F18" s="21"/>
+      <c r="F18" s="9"/>
       <c r="G18">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="95"/>
+      <c r="I18" s="95"/>
+    </row>
+    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>14</v>
       </c>
@@ -2583,13 +2572,15 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F19" s="21"/>
+      <c r="F19" s="9"/>
       <c r="G19">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="95"/>
+      <c r="I19" s="95"/>
+    </row>
+    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>14</v>
       </c>
@@ -2601,8 +2592,10 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="4:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="95"/>
+      <c r="I20" s="95"/>
+    </row>
+    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>1</v>
       </c>
@@ -2621,8 +2614,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O46"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2643,62 +2636,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="E1" s="11" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="E1" s="76" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="I1" s="10" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="77" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="M1" s="9" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="M1" s="78" t="s">
         <v>51</v>
       </c>
-      <c r="N1" s="9"/>
-      <c r="O1" s="9"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="14" t="s">
         <v>54</v>
       </c>
     </row>
@@ -2779,13 +2772,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="16">
         <v>1</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="17" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
@@ -2826,10 +2819,10 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="30" t="s">
+      <c r="E6" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="19">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
@@ -2842,7 +2835,7 @@
       <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="25" t="s">
+      <c r="M6" s="13" t="s">
         <v>69</v>
       </c>
       <c r="N6">
@@ -2853,23 +2846,25 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="33">
-        <f>SUM(B3:B6)</f>
-        <v>4</v>
-      </c>
-      <c r="E7" s="8" t="s">
+      <c r="A7" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="B7" s="23">
+        <v>1</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="79" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="34" t="s">
+      <c r="F7" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="I7" s="35" t="s">
+      <c r="I7" s="23" t="s">
         <v>72</v>
       </c>
-      <c r="J7" s="35">
+      <c r="J7" s="23">
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -2886,27 +2881,30 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B8" s="36" t="s">
+      <c r="A8" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B8" s="23">
+        <v>3</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="79"/>
+      <c r="F8" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E8" s="8"/>
-      <c r="F8" s="34" t="s">
+      <c r="I8" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="I8" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="J8" s="35">
+      <c r="J8" s="23">
         <v>1</v>
       </c>
       <c r="K8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2916,35 +2914,49 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="I9" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="J9" s="35">
+      <c r="A9" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" s="23">
+        <v>2</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>76</v>
+      </c>
+      <c r="J9" s="23">
         <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="37" t="s">
+      <c r="M9" s="25" t="s">
         <v>67</v>
       </c>
-      <c r="N9" s="38">
+      <c r="N9" s="26">
         <f>SUM(N3:N8)</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E10" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="I10" s="25" t="s">
-        <v>80</v>
+      <c r="A10" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" s="23">
+        <v>1</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="75" t="s">
+        <v>77</v>
+      </c>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
+      <c r="I10" s="13" t="s">
+        <v>78</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2952,30 +2964,34 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="7" t="s">
+      <c r="M10" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="N10" s="34" t="s">
+      <c r="N10" s="22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="23">
+        <v>2</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="I11" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="E11" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="25" t="s">
-        <v>83</v>
-      </c>
-      <c r="G11" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>84</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2983,23 +2999,23 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="34" t="s">
-        <v>85</v>
+      <c r="M11" s="71"/>
+      <c r="N11" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>52</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>54</v>
+      <c r="A12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="23">
+        <v>4</v>
+      </c>
+      <c r="C12" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3007,26 +3023,24 @@
       <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="32" t="s">
+      <c r="I12" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="J12" s="33">
+      <c r="J12" s="21">
         <f>SUM(J3:J11)</f>
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="35">
-        <v>1</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>22</v>
+      <c r="A13" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" s="32">
+        <f>SUM(Tableau1[Quantité])</f>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3034,22 +3048,19 @@
       <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="39" t="s">
+      <c r="I13" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J13" s="34" t="s">
-        <v>81</v>
+      <c r="J13" s="22" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>89</v>
-      </c>
-      <c r="B14" s="35">
-        <v>3</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>22</v>
+      <c r="A14" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>227</v>
       </c>
       <c r="E14" t="s">
         <v>58</v>
@@ -3060,23 +3071,18 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="39"/>
-      <c r="J14" s="34" t="s">
-        <v>85</v>
+      <c r="I14" s="27"/>
+      <c r="J14" s="22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="35">
-        <v>2</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>22</v>
+      <c r="A15" s="71"/>
+      <c r="B15" s="24" t="s">
+        <v>228</v>
       </c>
       <c r="E15" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3086,17 +3092,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>92</v>
-      </c>
-      <c r="B16" s="35">
-        <v>1</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>22</v>
-      </c>
       <c r="E16" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3104,106 +3101,89 @@
       <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="J16" s="41">
+      <c r="I16" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="J16" s="29">
         <v>1</v>
       </c>
-      <c r="K16" s="42" t="s">
+      <c r="K16" s="30" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="35">
-        <v>2</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="43" t="s">
+      <c r="E17" s="31" t="s">
         <v>67</v>
       </c>
-      <c r="F17" s="31">
+      <c r="F17" s="19">
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="7" t="s">
+      <c r="I17" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="J17" s="34" t="s">
+      <c r="J17" s="22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="71" t="s">
+        <v>70</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="I18" s="71"/>
+      <c r="J18" s="22" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="35" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C19" s="13"/>
+      <c r="E19" s="71"/>
+      <c r="F19" s="22" t="s">
         <v>96</v>
       </c>
-      <c r="B18" s="35">
-        <v>4</v>
-      </c>
-      <c r="C18" s="35" t="s">
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="72" t="s">
+        <v>97</v>
+      </c>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E21" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="F21" s="23">
+        <v>1</v>
+      </c>
+      <c r="G21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F18" s="34" t="s">
-        <v>97</v>
-      </c>
-      <c r="I18" s="7"/>
-      <c r="J18" s="34" t="s">
+      <c r="I21" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J21" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K21" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E22" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="23">
+        <v>3</v>
+      </c>
+      <c r="G22" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="33" t="s">
         <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="44" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19" s="44">
-        <f>SUM(B13:B18)</f>
-        <v>13</v>
-      </c>
-      <c r="C19" s="25"/>
-      <c r="E19" s="7"/>
-      <c r="F19" s="34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>100</v>
-      </c>
-      <c r="I20" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="36" t="s">
-        <v>85</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="J21" s="25" t="s">
-        <v>53</v>
-      </c>
-      <c r="K21" s="25" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I22" s="45" t="s">
-        <v>102</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3213,8 +3193,17 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E23" s="23" t="s">
+        <v>87</v>
+      </c>
+      <c r="F23" s="23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>22</v>
+      </c>
       <c r="I23" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -3224,107 +3213,134 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="12" t="s">
-        <v>104</v>
-      </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="I24" s="46" t="s">
+      <c r="A24" s="73" t="s">
+        <v>100</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="E24" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="23">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="34" t="s">
         <v>67</v>
       </c>
-      <c r="J24" s="33">
+      <c r="J24" s="21">
         <f>SUM(J22:J23)</f>
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="47" t="s">
+      <c r="A25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="I25" s="39" t="s">
+      <c r="E25" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="F25" s="23">
+        <v>2</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="J25" s="34" t="s">
-        <v>105</v>
+      <c r="J25" s="22" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="B26" s="28">
+      <c r="A26" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B26" s="16">
         <v>1</v>
       </c>
-      <c r="C26" s="28" t="s">
+      <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="I26" s="39"/>
-      <c r="J26" s="34" t="s">
-        <v>107</v>
+      <c r="E26" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="F26" s="23">
+        <v>4</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="I26" s="27"/>
+      <c r="J26" s="22" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="48" t="s">
-        <v>108</v>
-      </c>
-      <c r="B27" s="48">
+      <c r="A27" s="36" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="36">
         <v>2</v>
       </c>
-      <c r="C27" s="48" t="s">
+      <c r="C27" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="35" t="s">
-        <v>220</v>
-      </c>
-      <c r="B28" s="35">
+      <c r="A28" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B28" s="23">
         <v>1</v>
       </c>
-      <c r="C28" s="48" t="s">
+      <c r="C28" s="36" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="20" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="33">
+      <c r="B29" s="21">
         <f>SUM(B26:B28)</f>
         <v>4</v>
       </c>
-      <c r="C29" s="49"/>
+      <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="39" t="s">
+      <c r="A30" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="34" t="s">
-        <v>221</v>
+      <c r="B30" s="22" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="39"/>
-      <c r="B31" s="34" t="s">
-        <v>222</v>
+      <c r="A31" s="27"/>
+      <c r="B31" s="22" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>110</v>
-      </c>
-      <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="A34" s="74" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3332,7 +3348,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3340,7 +3356,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3348,7 +3364,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3356,7 +3372,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3364,7 +3380,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3372,7 +3388,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -3380,7 +3396,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3388,44 +3404,38 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="50" t="s">
+      <c r="A44" s="38" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="51">
+      <c r="B44" s="39">
         <f>SUM(B35:B43)</f>
         <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="39" t="s">
+      <c r="A45" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="B45" s="34" t="s">
-        <v>225</v>
+      <c r="B45" s="22" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
-      <c r="B46" s="34" t="s">
-        <v>109</v>
+      <c r="A46" s="27"/>
+      <c r="B46" s="22" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E10:G10"/>
+  <mergeCells count="13">
     <mergeCell ref="M10:M11"/>
-    <mergeCell ref="A11:C11"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A1:C1"/>
@@ -3433,12 +3443,15 @@
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="E7:E8"/>
-    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
-  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
-  <tableParts count="8">
-    <tablePart r:id="rId1"/>
+  <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <tableParts count="7">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
@@ -3469,278 +3482,283 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="90" t="s">
+      <c r="B1" s="70" t="s">
+        <v>116</v>
+      </c>
+      <c r="C1" s="70" t="s">
+        <v>117</v>
+      </c>
+      <c r="D1" s="70" t="s">
+        <v>118</v>
+      </c>
+      <c r="E1" s="70" t="s">
+        <v>119</v>
+      </c>
+      <c r="F1" s="70" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="90" t="s">
+      <c r="B2" s="66" t="s">
         <v>121</v>
       </c>
-      <c r="D1" s="90" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="89" t="s">
+        <v>226</v>
+      </c>
+      <c r="F2" s="86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="84"/>
+      <c r="B3" s="42" t="s">
         <v>122</v>
       </c>
-      <c r="E1" s="90" t="s">
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="80"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="84"/>
+      <c r="B4" s="61" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="90" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86" t="s">
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="91" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="84"/>
+      <c r="B5" s="62" t="s">
         <v>124</v>
       </c>
-      <c r="B2" s="83" t="s">
+      <c r="C5" s="45"/>
+      <c r="D5" s="45"/>
+      <c r="E5" s="91"/>
+      <c r="F5" s="80"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="84"/>
+      <c r="B6" s="63" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="92" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="91" t="s">
-        <v>230</v>
-      </c>
-      <c r="F2" s="77">
+      <c r="F6" s="80">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
-      <c r="B3" s="54" t="s">
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="84"/>
+      <c r="B7" s="64" t="s">
+        <v>220</v>
+      </c>
+      <c r="C7" s="47"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="92"/>
+      <c r="F7" s="80"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="84"/>
+      <c r="B8" s="65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="93" t="s">
+        <v>128</v>
+      </c>
+      <c r="F8" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="84"/>
+      <c r="B9" s="65" t="s">
+        <v>129</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="80"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="84"/>
+      <c r="B10" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="C10" s="41"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="90" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="84"/>
+      <c r="B11" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="C11" s="43"/>
+      <c r="D11" s="43"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="80"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="84"/>
+      <c r="B12" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="C12" s="44"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="91" t="s">
+        <v>133</v>
+      </c>
+      <c r="F12" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="84"/>
+      <c r="B13" s="62" t="s">
+        <v>124</v>
+      </c>
+      <c r="C13" s="45"/>
+      <c r="D13" s="45"/>
+      <c r="E13" s="91"/>
+      <c r="F13" s="80"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="84"/>
+      <c r="B14" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="94" t="s">
+        <v>135</v>
+      </c>
+      <c r="F14" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="84"/>
+      <c r="B15" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="94"/>
+      <c r="F15" s="80"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="84"/>
+      <c r="B16" s="63" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="46"/>
+      <c r="D16" s="46"/>
+      <c r="E16" s="92" t="s">
+        <v>138</v>
+      </c>
+      <c r="F16" s="80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="84"/>
+      <c r="B17" s="64" t="s">
         <v>126</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="3"/>
-      <c r="F3" s="69"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
-      <c r="B4" s="78" t="s">
-        <v>127</v>
-      </c>
-      <c r="C4" s="56"/>
-      <c r="D4" s="56"/>
-      <c r="E4" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F4" s="69">
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="80"/>
+    </row>
+    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="40" t="s">
+        <v>139</v>
+      </c>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="81" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="82">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
-      <c r="B5" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="69"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
-      <c r="B6" s="80" t="s">
+    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="81"/>
+      <c r="F19" s="82"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="84"/>
+      <c r="B20" s="67" t="s">
         <v>223</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="58"/>
-      <c r="E6" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
-      <c r="B7" s="81" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="58"/>
+      <c r="E20" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="69"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
-      <c r="B8" s="82" t="s">
-        <v>131</v>
-      </c>
-      <c r="C8" s="60"/>
-      <c r="D8" s="60"/>
-      <c r="E8" s="70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
-      <c r="B9" s="82" t="s">
-        <v>133</v>
-      </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="69"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
-      <c r="B10" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
-      <c r="B11" s="54" t="s">
-        <v>135</v>
-      </c>
-      <c r="C11" s="55"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="69"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
-      <c r="B12" s="78" t="s">
-        <v>136</v>
-      </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="56"/>
-      <c r="E12" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="79" t="s">
-        <v>128</v>
-      </c>
-      <c r="C13" s="57"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="69"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
-      <c r="B14" s="61" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="62"/>
-      <c r="E14" s="71" t="s">
-        <v>139</v>
-      </c>
-      <c r="F14" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
-      <c r="B15" s="61" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="71"/>
-      <c r="F15" s="69"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
-      <c r="B16" s="80" t="s">
+      <c r="F20" s="82">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="85"/>
+      <c r="B21" s="68" t="s">
+        <v>222</v>
+      </c>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="86"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E22" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="58"/>
-      <c r="D16" s="58"/>
-      <c r="E16" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="F16" s="69">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
-      <c r="B17" s="81" t="s">
-        <v>130</v>
-      </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="1"/>
-      <c r="F17" s="69"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
-      <c r="B18" s="52" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53"/>
-      <c r="E18" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="75">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
-      <c r="B19" s="83" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="75"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="84" t="s">
-        <v>227</v>
-      </c>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="92" t="s">
-        <v>228</v>
-      </c>
-      <c r="F20" s="75">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="88"/>
-      <c r="B21" s="85" t="s">
-        <v>226</v>
-      </c>
-      <c r="C21" s="74"/>
-      <c r="D21" s="74"/>
-      <c r="E21" s="93"/>
-      <c r="F21" s="77"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="72" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="76">
+      <c r="F22" s="60">
         <f>SUM(F2:F21)</f>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="F18:F19"/>
@@ -3757,11 +3775,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
   </mergeCells>
   <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
     <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="'Oui'"/>
@@ -3808,557 +3821,557 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>146</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="F1" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="G1" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>149</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>150</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>122</v>
+      <c r="H1" s="1" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>152</v>
+      </c>
+      <c r="E2" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="F2" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="G2" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="G2" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H2" s="25" t="s">
-        <v>159</v>
+      <c r="H2" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>160</v>
-      </c>
-      <c r="B3" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="D3" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C3" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="D3" s="18">
-        <v>2</v>
-      </c>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18" t="s">
+      <c r="G3" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G3" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H3" s="25" t="s">
-        <v>162</v>
+      <c r="H3" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="18" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>160</v>
+      </c>
+      <c r="D4" s="6">
+        <v>7</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="D4" s="18">
-        <v>7</v>
-      </c>
-      <c r="E4" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F4" s="63" t="s">
+      <c r="G4" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G4" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H4" s="25" t="s">
-        <v>159</v>
+      <c r="H4" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>166</v>
-      </c>
-      <c r="B5" s="18" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="D5" s="6">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="F5" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C5" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="D5" s="18">
-        <v>14</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="F5" s="63" t="s">
+      <c r="G5" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G5" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H5" s="25" t="s">
-        <v>162</v>
+      <c r="H5" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D6" s="18">
-        <v>3</v>
-      </c>
-      <c r="E6" s="18"/>
-      <c r="F6" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H6" s="25" t="s">
-        <v>159</v>
+      <c r="G6" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>170</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>171</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="D7" s="18">
+        <v>166</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="D7" s="6">
         <v>3</v>
       </c>
-      <c r="E7" s="18"/>
-      <c r="F7" s="63" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G7" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H7" s="25" t="s">
-        <v>162</v>
+      <c r="H7" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18">
+        <v>169</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6">
         <v>3</v>
       </c>
-      <c r="E8" s="18"/>
-      <c r="F8" s="18" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G8" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H8" s="25" t="s">
-        <v>162</v>
+      <c r="H8" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>175</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18">
+        <v>171</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6">
         <v>3</v>
       </c>
-      <c r="E9" s="18"/>
-      <c r="F9" s="18" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G9" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="25" t="s">
-        <v>162</v>
+      <c r="H9" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>176</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18">
+        <v>172</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="E10" s="18"/>
-      <c r="F10" s="63" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G10" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>162</v>
+      <c r="H10" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>177</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18">
+        <v>173</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6">
         <v>2</v>
       </c>
-      <c r="E11" s="18"/>
-      <c r="F11" s="18" t="s">
+      <c r="E11" s="6"/>
+      <c r="F11" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G11" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G11" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>162</v>
+      <c r="H11" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C12" s="64"/>
-      <c r="D12" s="18">
+        <v>175</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C12" s="52"/>
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="64"/>
-      <c r="F12" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G12" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H12" s="25" t="s">
-        <v>159</v>
+      <c r="E12" s="52"/>
+      <c r="F12" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H12" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>181</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18">
+        <v>177</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="64"/>
-      <c r="F13" s="18" t="s">
+      <c r="E13" s="52"/>
+      <c r="F13" s="6" t="s">
+        <v>154</v>
+      </c>
+      <c r="G13" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>162</v>
+      <c r="H13" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>182</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18">
+        <v>178</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="64"/>
-      <c r="F14" s="63" t="s">
+      <c r="E14" s="52"/>
+      <c r="F14" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="G14" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>183</v>
-      </c>
-      <c r="B15" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="6">
+        <v>3</v>
+      </c>
+      <c r="E15" s="52"/>
+      <c r="F15" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C15" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="D15" s="18">
-        <v>3</v>
-      </c>
-      <c r="E15" s="64"/>
-      <c r="F15" s="63" t="s">
+      <c r="G15" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="G15" s="22" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>159</v>
+      <c r="H15" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>185</v>
-      </c>
-      <c r="B16" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C16" s="64"/>
-      <c r="D16" s="18">
+        <v>181</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C16" s="52"/>
+      <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="64"/>
-      <c r="F16" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H16" s="25" t="s">
-        <v>162</v>
+      <c r="E16" s="52"/>
+      <c r="F16" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C17" s="64"/>
-      <c r="D17" s="18">
+        <v>182</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="64"/>
-      <c r="F17" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G17" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="H17" s="25" t="s">
-        <v>162</v>
+      <c r="E17" s="52"/>
+      <c r="F17" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="18" t="s">
+        <v>183</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>184</v>
+      </c>
+      <c r="D18" s="6">
+        <v>2</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C18" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="D18" s="18">
-        <v>2</v>
-      </c>
-      <c r="E18" s="18"/>
-      <c r="F18" s="18" t="s">
+      <c r="G18" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>158</v>
-      </c>
-      <c r="G18" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>189</v>
-      </c>
-      <c r="B19" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D19" s="6">
+        <v>2</v>
+      </c>
+      <c r="F19" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C19" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D19" s="18">
-        <v>2</v>
-      </c>
-      <c r="F19" s="18" t="s">
+      <c r="G19" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G19" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="25" t="s">
-        <v>162</v>
+      <c r="H19" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>190</v>
-      </c>
-      <c r="B20" s="18" t="s">
+        <v>186</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6">
+        <v>2</v>
+      </c>
+      <c r="F20" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="18">
-        <v>2</v>
-      </c>
-      <c r="F20" s="18" t="s">
+      <c r="G20" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G20" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H20" s="25" t="s">
-        <v>162</v>
+      <c r="H20" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>191</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="18">
+        <v>187</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6">
         <v>2</v>
       </c>
-      <c r="F21" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G21" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H21" s="25" t="s">
-        <v>159</v>
+      <c r="F21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G21" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>192</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18">
+        <v>188</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6">
         <v>2</v>
       </c>
-      <c r="F22" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="G22" s="25" t="s">
-        <v>159</v>
-      </c>
-      <c r="H22" s="25" t="s">
-        <v>159</v>
+      <c r="F22" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="G22" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="H22" s="13" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>51</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D23" s="6">
+        <v>8</v>
+      </c>
+      <c r="E23" t="s">
+        <v>161</v>
+      </c>
+      <c r="F23" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D23" s="18">
-        <v>8</v>
-      </c>
-      <c r="E23" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="63" t="s">
+      <c r="G23" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G23" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H23" s="25" t="s">
-        <v>162</v>
+      <c r="H23" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>193</v>
-      </c>
-      <c r="B24" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C24" t="s">
+        <v>190</v>
+      </c>
+      <c r="E24" t="s">
+        <v>161</v>
+      </c>
+      <c r="F24" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C24" t="s">
-        <v>194</v>
-      </c>
-      <c r="E24" t="s">
-        <v>165</v>
-      </c>
-      <c r="F24" s="63" t="s">
+      <c r="G24" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="G24" s="25" t="s">
-        <v>162</v>
-      </c>
-      <c r="H24" s="25" t="s">
-        <v>162</v>
+      <c r="H24" s="13" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
@@ -4413,109 +4426,109 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>194</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G2" s="13" t="s">
         <v>195</v>
       </c>
-      <c r="B1" s="13" t="s">
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B3" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C3" t="s">
         <v>197</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="D3" s="10"/>
+      <c r="F3" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G3" t="s">
         <v>198</v>
       </c>
-      <c r="B2" s="18" t="s">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C4" t="s">
+        <v>197</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="F4" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="D2" s="22" t="s">
-        <v>159</v>
-      </c>
-      <c r="G2" s="25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B5" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="C5" t="s">
+        <v>197</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="F5" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G5" t="s">
         <v>201</v>
       </c>
-      <c r="D3" s="22"/>
-      <c r="F3" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="53" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
+      <c r="B6" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C6" t="s">
+        <v>197</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="F6" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" t="s">
         <v>203</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C4" t="s">
-        <v>201</v>
-      </c>
-      <c r="D4" s="22"/>
-      <c r="F4" s="63" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C5" t="s">
-        <v>201</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="F5" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="G5" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="65" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="24" t="s">
-        <v>154</v>
-      </c>
-      <c r="C6" t="s">
-        <v>201</v>
-      </c>
-      <c r="D6" s="22"/>
-      <c r="F6" s="63" t="s">
-        <v>158</v>
-      </c>
-      <c r="G6" t="s">
-        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -4568,112 +4581,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="B3" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="B7" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="6" t="s">
+        <v>162</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>163</v>
+      </c>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="D1" s="13" t="s">
-        <v>121</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B2" s="18" t="s">
+      <c r="B10" s="6" t="s">
+        <v>208</v>
+      </c>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="C2" s="18"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C3" s="18"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="B4" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C4" s="18"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="C5" s="18"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>161</v>
-      </c>
-      <c r="C6" s="18"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>213</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="18"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="C8" s="18"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>153</v>
-      </c>
-      <c r="B9" s="18"/>
-      <c r="C9" s="18"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="18" t="s">
-        <v>214</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>212</v>
-      </c>
-      <c r="C10" s="18"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>215</v>
-      </c>
-      <c r="C11" s="18"/>
+      <c r="C11" s="6"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="D2:D20">
@@ -4723,29 +4736,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="66" t="s">
-        <v>216</v>
+      <c r="A1" s="54" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" s="67" t="s">
-        <v>159</v>
+        <v>213</v>
+      </c>
+      <c r="C2" s="55" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>218</v>
-      </c>
-      <c r="C3" s="68" t="s">
-        <v>162</v>
+        <v>214</v>
+      </c>
+      <c r="C3" s="56" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0386A7F-7487-4874-8654-772D4EA7136E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BDE32-DF24-48E0-9D21-F54B6DA8A5B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="226">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -181,9 +181,6 @@
     <t>Regulateur / MasterSwitch / fusebox</t>
   </si>
   <si>
-    <t>Power pare-feu</t>
-  </si>
-  <si>
     <t>Carte arrière vers servomoteur</t>
   </si>
   <si>
@@ -397,18 +394,6 @@
     <t>Remarques</t>
   </si>
   <si>
-    <t>SOURIAU</t>
-  </si>
-  <si>
-    <t>8STA71405SN</t>
-  </si>
-  <si>
-    <t>8STA61405PN</t>
-  </si>
-  <si>
-    <t>8STA71035SD</t>
-  </si>
-  <si>
     <t>8STA61035PD</t>
   </si>
   <si>
@@ -712,16 +697,22 @@
     <t>Capteurs et autre</t>
   </si>
   <si>
-    <t>Sensor PF</t>
-  </si>
-  <si>
-    <t>Power PF</t>
-  </si>
-  <si>
     <t>8STA71699S</t>
   </si>
   <si>
     <t>8STA61699P</t>
+  </si>
+  <si>
+    <t>Power et Signal pare-feu</t>
+  </si>
+  <si>
+    <t>Sensor and Power PF</t>
+  </si>
+  <si>
+    <t>8STA71699SD</t>
+  </si>
+  <si>
+    <t>8STA6199PD</t>
   </si>
 </sst>
 </file>
@@ -869,7 +860,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1144,19 +1135,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -1166,7 +1144,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="96">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1300,36 +1278,48 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1339,9 +1329,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1354,33 +1341,18 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Lien hypertexte" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1508,16 +1480,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2025,7 +1987,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -2545,8 +2507,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="95"/>
-      <c r="I17" s="95"/>
+      <c r="H17" s="71"/>
+      <c r="I17" s="71"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18">
@@ -2561,8 +2523,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="95"/>
-      <c r="I18" s="95"/>
+      <c r="H18" s="71"/>
+      <c r="I18" s="71"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19">
@@ -2577,8 +2539,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="95"/>
-      <c r="I19" s="95"/>
+      <c r="H19" s="71"/>
+      <c r="I19" s="71"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20">
@@ -2592,8 +2554,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="95"/>
-      <c r="I20" s="95"/>
+      <c r="H20" s="71"/>
+      <c r="I20" s="71"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21">
@@ -2615,7 +2577,7 @@
   <dimension ref="A1:O46"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2637,67 +2599,67 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="73" t="s">
-        <v>48</v>
+        <v>222</v>
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
-      <c r="E1" s="76" t="s">
+      <c r="E1" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="F1" s="74"/>
+      <c r="G1" s="74"/>
+      <c r="I1" s="75" t="s">
         <v>49</v>
       </c>
-      <c r="F1" s="76"/>
-      <c r="G1" s="76"/>
-      <c r="I1" s="77" t="s">
+      <c r="J1" s="75"/>
+      <c r="K1" s="75"/>
+      <c r="M1" s="76" t="s">
         <v>50</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="M1" s="78" t="s">
-        <v>51</v>
-      </c>
-      <c r="N1" s="78"/>
-      <c r="O1" s="78"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="C2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="E2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="I2" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="K2" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="K2" s="13" t="s">
-        <v>54</v>
-      </c>
       <c r="M2" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="N2" s="14" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="O2" s="14" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" s="14" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2706,7 +2668,7 @@
         <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F3">
         <v>5</v>
@@ -2715,7 +2677,7 @@
         <v>22</v>
       </c>
       <c r="I3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="J3">
         <v>2</v>
@@ -2724,7 +2686,7 @@
         <v>22</v>
       </c>
       <c r="M3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="N3">
         <v>2</v>
@@ -2735,7 +2697,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -2744,7 +2706,7 @@
         <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -2753,7 +2715,7 @@
         <v>22</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J4">
         <v>2</v>
@@ -2762,7 +2724,7 @@
         <v>22</v>
       </c>
       <c r="M4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -2773,7 +2735,7 @@
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B5" s="16">
         <v>1</v>
@@ -2782,7 +2744,7 @@
         <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -2791,7 +2753,7 @@
         <v>11</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5">
         <v>1</v>
@@ -2800,7 +2762,7 @@
         <v>22</v>
       </c>
       <c r="M5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -2811,7 +2773,7 @@
     </row>
     <row r="6" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2820,14 +2782,14 @@
         <v>11</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F6" s="19">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
       <c r="I6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J6">
         <v>1</v>
@@ -2836,7 +2798,7 @@
         <v>22</v>
       </c>
       <c r="M6" s="13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="N6">
         <v>2</v>
@@ -2847,7 +2809,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B7" s="23">
         <v>1</v>
@@ -2855,14 +2817,14 @@
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="79" t="s">
+      <c r="E7" s="77" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="I7" s="23" t="s">
         <v>71</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>72</v>
       </c>
       <c r="J7" s="23">
         <v>1</v>
@@ -2871,7 +2833,7 @@
         <v>22</v>
       </c>
       <c r="M7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -2882,7 +2844,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B8" s="23">
         <v>3</v>
@@ -2890,12 +2852,12 @@
       <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="79"/>
+      <c r="E8" s="77"/>
       <c r="F8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="I8" s="23" t="s">
         <v>73</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>74</v>
       </c>
       <c r="J8" s="23">
         <v>1</v>
@@ -2904,7 +2866,7 @@
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -2915,7 +2877,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B9" s="23">
         <v>2</v>
@@ -2924,7 +2886,7 @@
         <v>22</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="J9" s="23">
         <v>1</v>
@@ -2933,7 +2895,7 @@
         <v>22</v>
       </c>
       <c r="M9" s="25" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N9" s="26">
         <f>SUM(N3:N8)</f>
@@ -2942,7 +2904,7 @@
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B10" s="23">
         <v>1</v>
@@ -2950,13 +2912,13 @@
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="80" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="80"/>
+      <c r="G10" s="80"/>
+      <c r="I10" s="13" t="s">
         <v>77</v>
-      </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="I10" s="13" t="s">
-        <v>78</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -2964,16 +2926,16 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="71" t="s">
-        <v>70</v>
+      <c r="M10" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="N10" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B11" s="23">
         <v>2</v>
@@ -2982,16 +2944,16 @@
         <v>22</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="I11" t="s">
         <v>80</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="I11" t="s">
-        <v>81</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -2999,14 +2961,14 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="71"/>
+      <c r="M11" s="72"/>
       <c r="N11" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="23">
         <v>4</v>
@@ -3015,7 +2977,7 @@
         <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3024,7 +2986,7 @@
         <v>22</v>
       </c>
       <c r="I12" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J12" s="21">
         <f>SUM(J3:J11)</f>
@@ -3033,14 +2995,14 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="32" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B13" s="32">
         <f>SUM(Tableau1[Quantité])</f>
         <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3049,21 +3011,21 @@
         <v>22</v>
       </c>
       <c r="I13" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J13" s="22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="71" t="s">
-        <v>70</v>
+      <c r="A14" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="E14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -3073,16 +3035,16 @@
       </c>
       <c r="I14" s="27"/>
       <c r="J14" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
+      <c r="A15" s="72"/>
       <c r="B15" s="24" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="E15" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3093,7 +3055,7 @@
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="E16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3102,7 +3064,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="28" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="J16" s="29">
         <v>1</v>
@@ -3113,48 +3075,48 @@
     </row>
     <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="E17" s="31" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F17" s="19">
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="71" t="s">
-        <v>70</v>
+      <c r="I17" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="J17" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="71" t="s">
-        <v>70</v>
+      <c r="E18" s="72" t="s">
+        <v>69</v>
       </c>
       <c r="F18" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="I18" s="72"/>
+      <c r="J18" s="22" t="s">
         <v>94</v>
-      </c>
-      <c r="I18" s="71"/>
-      <c r="J18" s="22" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="13"/>
-      <c r="E19" s="71"/>
+      <c r="E19" s="72"/>
       <c r="F19" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="I20" s="78" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="72" t="s">
-        <v>97</v>
-      </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="78"/>
+      <c r="K20" s="78"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" s="23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F21" s="23">
         <v>1</v>
@@ -3163,18 +3125,18 @@
         <v>22</v>
       </c>
       <c r="I21" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="J21" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="K21" s="13" t="s">
         <v>53</v>
-      </c>
-      <c r="K21" s="13" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E22" s="23" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F22" s="23">
         <v>3</v>
@@ -3183,7 +3145,7 @@
         <v>22</v>
       </c>
       <c r="I22" s="33" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J22">
         <v>1</v>
@@ -3194,7 +3156,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E23" s="23" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F23" s="23">
         <v>2</v>
@@ -3203,7 +3165,7 @@
         <v>22</v>
       </c>
       <c r="I23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="J23">
         <v>2</v>
@@ -3214,12 +3176,12 @@
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A24" s="73" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B24" s="73"/>
       <c r="C24" s="73"/>
       <c r="E24" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F24" s="23">
         <v>1</v>
@@ -3228,7 +3190,7 @@
         <v>22</v>
       </c>
       <c r="I24" s="34" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J24" s="21">
         <f>SUM(J22:J23)</f>
@@ -3237,16 +3199,16 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="35" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="C25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="35" t="s">
-        <v>54</v>
-      </c>
       <c r="E25" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="F25" s="23">
         <v>2</v>
@@ -3255,15 +3217,15 @@
         <v>22</v>
       </c>
       <c r="I25" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="J25" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B26" s="16">
         <v>1</v>
@@ -3272,7 +3234,7 @@
         <v>22</v>
       </c>
       <c r="E26" s="23" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F26" s="23">
         <v>4</v>
@@ -3282,12 +3244,12 @@
       </c>
       <c r="I26" s="27"/>
       <c r="J26" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B27" s="36">
         <v>2</v>
@@ -3298,7 +3260,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="B28" s="23">
         <v>1</v>
@@ -3309,7 +3271,7 @@
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B29" s="21">
         <f>SUM(B26:B28)</f>
@@ -3319,28 +3281,28 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B30" s="22" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="27"/>
       <c r="B31" s="22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
-        <v>106</v>
-      </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
+      <c r="A34" s="79" t="s">
+        <v>105</v>
+      </c>
+      <c r="B34" s="79"/>
+      <c r="C34" s="79"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B35">
         <v>4</v>
@@ -3348,7 +3310,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -3356,7 +3318,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B37">
         <v>1</v>
@@ -3364,7 +3326,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -3372,7 +3334,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -3380,7 +3342,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -3388,7 +3350,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B41">
         <v>4</v>
@@ -3396,7 +3358,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B42">
         <v>4</v>
@@ -3404,7 +3366,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -3412,7 +3374,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B44" s="39">
         <f>SUM(B35:B43)</f>
@@ -3421,20 +3383,24 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B45" s="22" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="27"/>
       <c r="B46" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="I20:K20"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="A34:C34"/>
+    <mergeCell ref="E10:G10"/>
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="E18:E19"/>
@@ -3444,10 +3410,6 @@
     <mergeCell ref="M1:O1"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="I20:K20"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="A34:C34"/>
-    <mergeCell ref="E10:G10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3465,10 +3427,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3483,288 +3445,256 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="69" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B1" s="70" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" s="70" t="s">
         <v>116</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="D1" s="70" t="s">
         <v>117</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="E1" s="70" t="s">
         <v>118</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="F1" s="70" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="87"/>
+      <c r="B2" s="61" t="s">
+        <v>224</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="81" t="s">
+        <v>223</v>
+      </c>
+      <c r="F2" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="87"/>
+      <c r="B3" s="62" t="s">
+        <v>225</v>
+      </c>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+    </row>
+    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="87"/>
+      <c r="B4" s="63" t="s">
+        <v>214</v>
+      </c>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="84" t="s">
+        <v>120</v>
+      </c>
+      <c r="F4" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="87"/>
+      <c r="B5" s="64" t="s">
+        <v>215</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="84"/>
+      <c r="F5" s="82"/>
+    </row>
+    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="87"/>
+      <c r="B6" s="65" t="s">
+        <v>122</v>
+      </c>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="93" t="s">
+        <v>123</v>
+      </c>
+      <c r="F6" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="87"/>
+      <c r="B7" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="93"/>
+      <c r="F7" s="82"/>
+    </row>
+    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="87"/>
+      <c r="B8" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="92" t="s">
+        <v>48</v>
+      </c>
+      <c r="F8" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="87"/>
+      <c r="B9" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="82"/>
+    </row>
+    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="87"/>
+      <c r="B10" s="61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" s="44"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="81" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="87"/>
+      <c r="B11" s="62" t="s">
         <v>119</v>
       </c>
-      <c r="F1" s="70" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83" t="s">
-        <v>120</v>
-      </c>
-      <c r="B2" s="66" t="s">
+      <c r="C11" s="45"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="81"/>
+      <c r="F11" s="82"/>
+    </row>
+    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="87"/>
+      <c r="B12" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="83" t="s">
+        <v>130</v>
+      </c>
+      <c r="F12" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="87"/>
+      <c r="B13" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="82"/>
+    </row>
+    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="87"/>
+      <c r="B14" s="63" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="46"/>
+      <c r="E14" s="84" t="s">
+        <v>133</v>
+      </c>
+      <c r="F14" s="82">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87"/>
+      <c r="B15" s="64" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="89" t="s">
-        <v>226</v>
-      </c>
-      <c r="F2" s="86">
+      <c r="C15" s="47"/>
+      <c r="D15" s="47"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="82"/>
+    </row>
+    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
+      <c r="B16" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="85" t="s">
+        <v>50</v>
+      </c>
+      <c r="F16" s="86">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="42" t="s">
-        <v>122</v>
-      </c>
-      <c r="C3" s="43"/>
-      <c r="D3" s="43"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="80"/>
-    </row>
-    <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="91" t="s">
-        <v>225</v>
-      </c>
-      <c r="F4" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="45"/>
-      <c r="E5" s="91"/>
-      <c r="F5" s="80"/>
-    </row>
-    <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="63" t="s">
+    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
+      <c r="B17" s="66" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="85"/>
+      <c r="F17" s="86"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
+      <c r="B18" s="67" t="s">
+        <v>218</v>
+      </c>
+      <c r="C18" s="58"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="92" t="s">
-        <v>125</v>
-      </c>
-      <c r="F6" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="64" t="s">
-        <v>220</v>
-      </c>
-      <c r="C7" s="47"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="92"/>
-      <c r="F7" s="80"/>
-    </row>
-    <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="65" t="s">
-        <v>127</v>
-      </c>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="93" t="s">
-        <v>128</v>
-      </c>
-      <c r="F8" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="65" t="s">
-        <v>129</v>
-      </c>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="93"/>
-      <c r="F9" s="80"/>
-    </row>
-    <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="90" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="42" t="s">
-        <v>131</v>
-      </c>
-      <c r="C11" s="43"/>
-      <c r="D11" s="43"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="80"/>
-    </row>
-    <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="61" t="s">
-        <v>132</v>
-      </c>
-      <c r="C12" s="44"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="91" t="s">
-        <v>133</v>
-      </c>
-      <c r="F12" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="62" t="s">
-        <v>124</v>
-      </c>
-      <c r="C13" s="45"/>
-      <c r="D13" s="45"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="80"/>
-    </row>
-    <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="C14" s="50"/>
-      <c r="D14" s="50"/>
-      <c r="E14" s="94" t="s">
-        <v>135</v>
-      </c>
-      <c r="F14" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="49" t="s">
+      <c r="F18" s="86">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="88"/>
+      <c r="B19" s="68" t="s">
+        <v>217</v>
+      </c>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="91"/>
+      <c r="F19" s="89"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E20" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="94"/>
-      <c r="F15" s="80"/>
-    </row>
-    <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="63" t="s">
-        <v>137</v>
-      </c>
-      <c r="C16" s="46"/>
-      <c r="D16" s="46"/>
-      <c r="E16" s="92" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="80">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="64" t="s">
-        <v>126</v>
-      </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="80"/>
-    </row>
-    <row r="18" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="84"/>
-      <c r="B18" s="40" t="s">
-        <v>139</v>
-      </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="81" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="82">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="66" t="s">
-        <v>140</v>
-      </c>
-      <c r="C19" s="50"/>
-      <c r="D19" s="50"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
-      <c r="B20" s="67" t="s">
-        <v>223</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="58"/>
-      <c r="E20" s="87" t="s">
-        <v>224</v>
-      </c>
-      <c r="F20" s="82">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="85"/>
-      <c r="B21" s="68" t="s">
-        <v>222</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="88"/>
-      <c r="F21" s="86"/>
-    </row>
-    <row r="22" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E22" s="57" t="s">
-        <v>141</v>
-      </c>
-      <c r="F22" s="60">
-        <f>SUM(F2:F21)</f>
-        <v>30</v>
+      <c r="F20" s="60">
+        <f>SUM(F2:F19)</f>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="21">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
+  <mergeCells count="19">
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
+    <mergeCell ref="A2:A19"/>
+    <mergeCell ref="F18:F19"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="A2:A21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="E20:E21"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="E4:E5"/>
@@ -3775,21 +3705,22 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
-  <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
-    <cfRule type="containsText" dxfId="17" priority="2" operator="containsText" text="'Oui'"/>
+  <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
+    <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
-    <cfRule type="containsText" dxfId="16" priority="3" operator="containsText" text="Non"/>
+  <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
+    <cfRule type="containsText" dxfId="15" priority="3" operator="containsText" text="Non"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12:C20 D12:D22 C2:D11">
-    <cfRule type="containsText" dxfId="15" priority="4" operator="containsText" text="Oui"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2">
-    <cfRule type="containsText" dxfId="14" priority="5" operator="containsText" text="Oui"/>
+  <conditionalFormatting sqref="C10:C18 D10:D20">
+    <cfRule type="containsText" dxfId="14" priority="4" operator="containsText" text="Oui"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D20" xr:uid="{00000000-0002-0000-0200-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:D18" xr:uid="{00000000-0002-0000-0200-000000000000}">
       <formula1>Ouinon</formula1>
       <formula2>0</formula2>
     </dataValidation>
@@ -3822,186 +3753,186 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>146</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="F2" s="51" t="s">
         <v>149</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="G2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="F2" s="51" t="s">
-        <v>154</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="H2" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="D4" s="6">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F4" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D5" s="6">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F5" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
@@ -4009,21 +3940,21 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
@@ -4031,21 +3962,21 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
@@ -4053,21 +3984,21 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
@@ -4075,21 +4006,21 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C12" s="52"/>
       <c r="D12" s="6">
@@ -4097,21 +4028,21 @@
       </c>
       <c r="E12" s="52"/>
       <c r="F12" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
@@ -4119,21 +4050,21 @@
       </c>
       <c r="E13" s="52"/>
       <c r="F13" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6">
@@ -4141,45 +4072,45 @@
       </c>
       <c r="E14" s="52"/>
       <c r="F14" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="E15" s="52"/>
       <c r="F15" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C16" s="52"/>
       <c r="D16" s="6">
@@ -4187,21 +4118,21 @@
       </c>
       <c r="E16" s="52"/>
       <c r="F16" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C17" s="52"/>
       <c r="D17" s="6">
@@ -4209,169 +4140,169 @@
       </c>
       <c r="E17" s="52"/>
       <c r="F17" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D23" s="6">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F23" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G23" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H23" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C24" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="E24" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F24" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -4427,108 +4358,108 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="D2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="D2" s="10" t="s">
-        <v>155</v>
-      </c>
       <c r="G2" s="13" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C3" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D3" s="10"/>
       <c r="F3" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G3" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D4" s="10"/>
       <c r="F4" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="53" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C6" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D6" s="10"/>
       <c r="F6" s="51" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="G6" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -4582,109 +4513,109 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4737,28 +4668,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="54" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="C2" s="55" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="C3" s="56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966BDE32-DF24-48E0-9D21-F54B6DA8A5B7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FECDD47-CDB2-456C-BFE7-24C9430B9C2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="227">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -713,6 +713,9 @@
   </si>
   <si>
     <t>8STA6199PD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palette </t>
   </si>
 </sst>
 </file>
@@ -1281,12 +1284,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,14 +1311,26 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1314,37 +1338,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2574,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2603,21 +2606,21 @@
       </c>
       <c r="B1" s="73"/>
       <c r="C1" s="73"/>
-      <c r="E1" s="74" t="s">
+      <c r="E1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="74"/>
-      <c r="G1" s="74"/>
-      <c r="I1" s="75" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="75"/>
-      <c r="K1" s="75"/>
-      <c r="M1" s="76" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="M1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="76"/>
-      <c r="O1" s="76"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2817,7 +2820,7 @@
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="77" t="s">
+      <c r="E7" s="80" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -2852,7 +2855,7 @@
       <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="77"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="22" t="s">
         <v>72</v>
       </c>
@@ -2912,11 +2915,11 @@
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="80" t="s">
+      <c r="E10" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="80"/>
-      <c r="G10" s="80"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="I10" s="13" t="s">
         <v>77</v>
       </c>
@@ -2926,7 +2929,7 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="72" t="s">
+      <c r="M10" s="76" t="s">
         <v>69</v>
       </c>
       <c r="N10" s="22" t="s">
@@ -2961,7 +2964,7 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="72"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="22" t="s">
         <v>81</v>
       </c>
@@ -3018,7 +3021,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="72" t="s">
+      <c r="A14" s="76" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -3039,7 +3042,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
+      <c r="A15" s="76"/>
       <c r="B15" s="24" t="s">
         <v>221</v>
       </c>
@@ -3081,7 +3084,7 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="72" t="s">
+      <c r="I17" s="76" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="22" t="s">
@@ -3089,30 +3092,30 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="72" t="s">
+      <c r="E18" s="76" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="72"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="13"/>
-      <c r="E19" s="72"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="78" t="s">
+      <c r="I20" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="78"/>
-      <c r="K20" s="78"/>
+      <c r="J20" s="72"/>
+      <c r="K20" s="72"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="E21" s="23" t="s">
@@ -3294,11 +3297,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="79" t="s">
+      <c r="A34" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="79"/>
-      <c r="C34" s="79"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3373,30 +3376,43 @@
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="38" t="s">
+      <c r="A44" t="s">
+        <v>226</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="B44" s="39">
-        <f>SUM(B35:B43)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="27" t="s">
+      <c r="B45" s="39">
+        <f>SUM(B35:B44)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="27" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="22" t="s">
+      <c r="B46" s="22" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="22" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="27"/>
+      <c r="B47" s="22" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E7:E8"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A34:C34"/>
@@ -3404,11 +3420,6 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
@@ -3429,8 +3440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18:F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3464,79 +3475,79 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="87"/>
+      <c r="A2" s="83"/>
       <c r="B2" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="88" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="82">
+      <c r="F2" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="87"/>
+      <c r="A3" s="83"/>
       <c r="B3" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="81"/>
-      <c r="F3" s="82"/>
+      <c r="E3" s="88"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="87"/>
+      <c r="A4" s="83"/>
       <c r="B4" s="63" t="s">
         <v>214</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="84" t="s">
+      <c r="E4" s="90" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="82">
+      <c r="F4" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="87"/>
+      <c r="A5" s="83"/>
       <c r="B5" s="64" t="s">
         <v>215</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="82"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="87"/>
+      <c r="A6" s="83"/>
       <c r="B6" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="93" t="s">
+      <c r="E6" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="82">
+      <c r="F6" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="87"/>
+      <c r="A7" s="83"/>
       <c r="B7" s="65" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
-      <c r="E7" s="93"/>
-      <c r="F7" s="82"/>
+      <c r="E7" s="91"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="87"/>
+      <c r="A8" s="83"/>
       <c r="B8" s="40" t="s">
         <v>125</v>
       </c>
@@ -3545,139 +3556,139 @@
       <c r="E8" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="82">
+      <c r="F8" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="87"/>
+      <c r="A9" s="83"/>
       <c r="B9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="92"/>
-      <c r="F9" s="82"/>
+      <c r="F9" s="89"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="87"/>
+      <c r="A10" s="83"/>
       <c r="B10" s="61" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="88" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="82">
+      <c r="F10" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="87"/>
+      <c r="A11" s="83"/>
       <c r="B11" s="62" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="87"/>
+      <c r="A12" s="83"/>
       <c r="B12" s="49" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="83" t="s">
+      <c r="E12" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="82">
+      <c r="F12" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
+      <c r="A13" s="83"/>
       <c r="B13" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="82"/>
+      <c r="E13" s="93"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="87"/>
+      <c r="A14" s="83"/>
       <c r="B14" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="84" t="s">
+      <c r="E14" s="90" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="82">
+      <c r="F14" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
+      <c r="A15" s="83"/>
       <c r="B15" s="64" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="82"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
+      <c r="A16" s="83"/>
       <c r="B16" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="85" t="s">
+      <c r="E16" s="81" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="86">
+      <c r="F16" s="82">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="83"/>
       <c r="B17" s="66" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="85"/>
-      <c r="F17" s="86"/>
+      <c r="E17" s="81"/>
+      <c r="F17" s="82"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="A18" s="83"/>
       <c r="B18" s="67" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="86" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="86">
-        <v>21</v>
+      <c r="F18" s="82">
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="88"/>
+      <c r="A19" s="84"/>
       <c r="B19" s="68" t="s">
         <v>217</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="89"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="85"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="57" t="s">
@@ -3685,11 +3696,14 @@
       </c>
       <c r="F20" s="60">
         <f>SUM(F2:F19)</f>
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
     <mergeCell ref="A2:A19"/>
@@ -3706,9 +3720,6 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FECDD47-CDB2-456C-BFE7-24C9430B9C2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C941960-0324-45BB-8CCB-3DD753E80225}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="227">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -1284,12 +1284,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,16 +1311,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1333,12 +1339,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2579,8 +2579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21:G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2601,26 +2601,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="72" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="E1" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="I1" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="M1" s="79" t="s">
+      <c r="J1" s="74"/>
+      <c r="K1" s="74"/>
+      <c r="M1" s="75" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="N1" s="75"/>
+      <c r="O1" s="75"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2820,7 +2820,7 @@
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="76" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -2855,7 +2855,7 @@
       <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="76"/>
       <c r="F8" s="22" t="s">
         <v>72</v>
       </c>
@@ -2915,11 +2915,11 @@
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="79" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="79"/>
       <c r="I10" s="13" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +2929,7 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="80" t="s">
         <v>69</v>
       </c>
       <c r="N10" s="22" t="s">
@@ -2964,7 +2964,7 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="76"/>
+      <c r="M11" s="80"/>
       <c r="N11" s="22" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +3021,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
+      <c r="A14" s="80" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -3042,7 +3042,7 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
+      <c r="A15" s="80"/>
       <c r="B15" s="24" t="s">
         <v>221</v>
       </c>
@@ -3084,7 +3084,7 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="80" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="22" t="s">
@@ -3092,41 +3092,35 @@
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="76" t="s">
+      <c r="E18" s="80" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="80"/>
       <c r="J18" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="C19" s="13"/>
-      <c r="E19" s="76"/>
+      <c r="E19" s="80"/>
       <c r="F19" s="22" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="72" t="s">
+      <c r="I20" s="77" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="72"/>
-      <c r="K20" s="72"/>
+      <c r="J20" s="77"/>
+      <c r="K20" s="77"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="23" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21" s="23">
-        <v>1</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="23"/>
       <c r="I21" s="13" t="s">
         <v>51</v>
       </c>
@@ -3138,15 +3132,9 @@
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F22" s="23">
-        <v>3</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
       <c r="I22" s="33" t="s">
         <v>97</v>
       </c>
@@ -3158,15 +3146,9 @@
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="23" t="s">
-        <v>86</v>
-      </c>
-      <c r="F23" s="23">
-        <v>2</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
       <c r="I23" t="s">
         <v>98</v>
       </c>
@@ -3178,20 +3160,14 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="72" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="E24" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="F24" s="23">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="B24" s="72"/>
+      <c r="C24" s="72"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
       <c r="I24" s="34" t="s">
         <v>66</v>
       </c>
@@ -3210,15 +3186,9 @@
       <c r="C25" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="F25" s="23">
-        <v>2</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
       <c r="I25" s="27" t="s">
         <v>69</v>
       </c>
@@ -3236,15 +3206,9 @@
       <c r="C26" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="23" t="s">
-        <v>92</v>
-      </c>
-      <c r="F26" s="23">
-        <v>4</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>22</v>
-      </c>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
       <c r="I26" s="27"/>
       <c r="J26" s="22" t="s">
         <v>102</v>
@@ -3297,11 +3261,11 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="78" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="78"/>
+      <c r="C34" s="78"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3408,11 +3372,6 @@
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="I20:K20"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A34:C34"/>
@@ -3421,6 +3380,11 @@
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3475,55 +3439,55 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="83"/>
+      <c r="A2" s="85"/>
       <c r="B2" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="88" t="s">
+      <c r="E2" s="90" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="89">
+      <c r="F2" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83"/>
+      <c r="A3" s="85"/>
       <c r="B3" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
+      <c r="E3" s="90"/>
+      <c r="F3" s="81"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="83"/>
+      <c r="A4" s="85"/>
       <c r="B4" s="63" t="s">
         <v>214</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="90" t="s">
+      <c r="E4" s="82" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="89">
+      <c r="F4" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="83"/>
+      <c r="A5" s="85"/>
       <c r="B5" s="64" t="s">
         <v>215</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="89"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="81"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="83"/>
+      <c r="A6" s="85"/>
       <c r="B6" s="65" t="s">
         <v>122</v>
       </c>
@@ -3532,22 +3496,22 @@
       <c r="E6" s="91" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="89">
+      <c r="F6" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="83"/>
+      <c r="A7" s="85"/>
       <c r="B7" s="65" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
       <c r="E7" s="91"/>
-      <c r="F7" s="89"/>
+      <c r="F7" s="81"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="83"/>
+      <c r="A8" s="85"/>
       <c r="B8" s="40" t="s">
         <v>125</v>
       </c>
@@ -3556,46 +3520,46 @@
       <c r="E8" s="92" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="89">
+      <c r="F8" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="83"/>
+      <c r="A9" s="85"/>
       <c r="B9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
       <c r="E9" s="92"/>
-      <c r="F9" s="89"/>
+      <c r="F9" s="81"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="83"/>
+      <c r="A10" s="85"/>
       <c r="B10" s="61" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="88" t="s">
+      <c r="E10" s="90" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="89">
+      <c r="F10" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="83"/>
+      <c r="A11" s="85"/>
       <c r="B11" s="62" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="89"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="81"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="83"/>
+      <c r="A12" s="85"/>
       <c r="B12" s="49" t="s">
         <v>129</v>
       </c>
@@ -3604,91 +3568,91 @@
       <c r="E12" s="93" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="89">
+      <c r="F12" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="83"/>
+      <c r="A13" s="85"/>
       <c r="B13" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
       <c r="E13" s="93"/>
-      <c r="F13" s="89"/>
+      <c r="F13" s="81"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="83"/>
+      <c r="A14" s="85"/>
       <c r="B14" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="90" t="s">
+      <c r="E14" s="82" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="89">
+      <c r="F14" s="81">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="83"/>
+      <c r="A15" s="85"/>
       <c r="B15" s="64" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="89"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="81"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="83"/>
+      <c r="A16" s="85"/>
       <c r="B16" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="81" t="s">
+      <c r="E16" s="83" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="82">
+      <c r="F16" s="84">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="83"/>
+      <c r="A17" s="85"/>
       <c r="B17" s="66" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="84"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="83"/>
+      <c r="A18" s="85"/>
       <c r="B18" s="67" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
-      <c r="E18" s="86" t="s">
+      <c r="E18" s="88" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="82">
+      <c r="F18" s="84">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="84"/>
+      <c r="A19" s="86"/>
       <c r="B19" s="68" t="s">
         <v>217</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="85"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="87"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="57" t="s">
@@ -3701,11 +3665,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E18:E19"/>
@@ -3720,6 +3679,11 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C941960-0324-45BB-8CCB-3DD753E80225}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E994D0-B063-4CA8-BE8E-9B6F7E664AB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="238">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -716,6 +716,39 @@
   </si>
   <si>
     <t xml:space="preserve">Palette </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Remplacé par </t>
+  </si>
+  <si>
+    <t>8STA71828S</t>
+  </si>
+  <si>
+    <t>8STA71828P</t>
+  </si>
+  <si>
+    <t>8STA01002S</t>
+  </si>
+  <si>
+    <t>8STA01002P</t>
+  </si>
+  <si>
+    <t>8STA70835S</t>
+  </si>
+  <si>
+    <t>8STA70835P</t>
+  </si>
+  <si>
+    <t>8STA61002P</t>
+  </si>
+  <si>
+    <t>8STA61002S</t>
+  </si>
+  <si>
+    <t>8STA01035P</t>
+  </si>
+  <si>
+    <t>8STA61035S</t>
   </si>
 </sst>
 </file>
@@ -777,7 +810,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="15">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,8 +895,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="24">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1142,12 +1187,92 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color rgb="FFFF0000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFFF0000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
+      <top style="thick">
+        <color rgb="FFFF0000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1284,9 +1409,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1299,16 +1436,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1317,38 +1463,53 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1668,8 +1829,8 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tableau7" displayName="Tableau7" ref="I21:K23" totalsRowShown="0">
-  <autoFilter ref="I21:K23" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Tableau7" displayName="Tableau7" ref="I23:K25" totalsRowShown="0">
+  <autoFilter ref="I23:K25" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Quantité"/>
@@ -2579,8 +2740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21:G27"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2588,7 +2749,8 @@
     <col min="1" max="1" width="16.42578125" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125"/>
+    <col min="4" max="4" width="11.42578125"/>
+    <col min="5" max="5" width="13.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.85546875" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="11.42578125"/>
@@ -2601,26 +2763,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="73" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="E1" s="73" t="s">
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="E1" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="I1" s="74" t="s">
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="I1" s="78" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="74"/>
-      <c r="K1" s="74"/>
-      <c r="M1" s="75" t="s">
+      <c r="J1" s="78"/>
+      <c r="K1" s="78"/>
+      <c r="M1" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="75"/>
-      <c r="O1" s="75"/>
+      <c r="N1" s="79"/>
+      <c r="O1" s="79"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2820,7 +2982,7 @@
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="76" t="s">
+      <c r="E7" s="80" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -2855,7 +3017,7 @@
       <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="76"/>
+      <c r="E8" s="80"/>
       <c r="F8" s="22" t="s">
         <v>72</v>
       </c>
@@ -2915,11 +3077,11 @@
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="79" t="s">
+      <c r="E10" s="75" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="79"/>
-      <c r="G10" s="79"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="75"/>
       <c r="I10" s="13" t="s">
         <v>77</v>
       </c>
@@ -2929,7 +3091,7 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="80" t="s">
+      <c r="M10" s="76" t="s">
         <v>69</v>
       </c>
       <c r="N10" s="22" t="s">
@@ -2964,7 +3126,7 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="80"/>
+      <c r="M11" s="76"/>
       <c r="N11" s="22" t="s">
         <v>81</v>
       </c>
@@ -3021,7 +3183,7 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="80" t="s">
+      <c r="A14" s="76" t="s">
         <v>69</v>
       </c>
       <c r="B14" s="24" t="s">
@@ -3041,9 +3203,9 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="80"/>
-      <c r="B15" s="24" t="s">
+    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="99"/>
+      <c r="B15" s="98" t="s">
         <v>221</v>
       </c>
       <c r="E15" t="s">
@@ -3056,7 +3218,13 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="97" t="s">
+        <v>228</v>
+      </c>
       <c r="E16" t="s">
         <v>85</v>
       </c>
@@ -3076,7 +3244,11 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="101"/>
+      <c r="B17" s="96" t="s">
+        <v>229</v>
+      </c>
       <c r="E17" s="31" t="s">
         <v>66</v>
       </c>
@@ -3084,96 +3256,109 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="80" t="s">
+      <c r="I17" s="76" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E18" s="80" t="s">
+    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="95"/>
+      <c r="B18" s="95"/>
+      <c r="E18" s="76" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="80"/>
+      <c r="I18" s="76"/>
       <c r="J18" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13"/>
-      <c r="E19" s="80"/>
+      <c r="E19" s="76"/>
       <c r="F19" s="22" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="I20" s="77" t="s">
+      <c r="H19" s="102"/>
+      <c r="I19" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="110" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="108"/>
+      <c r="E20" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="F20" s="103" t="s">
+        <v>231</v>
+      </c>
+      <c r="G20" s="104"/>
+      <c r="H20" s="102"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="111" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="E21" s="109"/>
+      <c r="F21" s="105" t="s">
+        <v>235</v>
+      </c>
+      <c r="G21" s="23"/>
+    </row>
+    <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E22" s="109"/>
+      <c r="F22" s="22" t="s">
+        <v>236</v>
+      </c>
+      <c r="G22" s="106"/>
+      <c r="I22" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="J20" s="77"/>
-      <c r="K20" s="77"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="I21" s="13" t="s">
+      <c r="J22" s="72"/>
+      <c r="K22" s="72"/>
+    </row>
+    <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="108"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="22" t="s">
+        <v>237</v>
+      </c>
+      <c r="G23" s="106"/>
+      <c r="I23" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="J21" s="13" t="s">
+      <c r="J23" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="K21" s="13" t="s">
+      <c r="K23" s="13" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="I22" s="33" t="s">
+    <row r="24" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="73" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="73"/>
+      <c r="C24" s="73"/>
+      <c r="E24" s="107"/>
+      <c r="F24" s="107"/>
+      <c r="G24" s="23"/>
+      <c r="I24" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="J22">
+      <c r="J24">
         <v>1</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K24" t="s">
         <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="I23" t="s">
-        <v>98</v>
-      </c>
-      <c r="J23">
-        <v>2</v>
-      </c>
-      <c r="K23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A24" s="72" t="s">
-        <v>99</v>
-      </c>
-      <c r="B24" s="72"/>
-      <c r="C24" s="72"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="I24" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="J24" s="21">
-        <f>SUM(J22:J23)</f>
-        <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -3189,14 +3374,17 @@
       <c r="E25" s="23"/>
       <c r="F25" s="23"/>
       <c r="G25" s="23"/>
-      <c r="I25" s="27" t="s">
-        <v>69</v>
-      </c>
-      <c r="J25" s="22" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="16" t="s">
         <v>101</v>
       </c>
@@ -3209,9 +3397,12 @@
       <c r="E26" s="23"/>
       <c r="F26" s="23"/>
       <c r="G26" s="23"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="22" t="s">
-        <v>102</v>
+      <c r="I26" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="J26" s="21">
+        <f>SUM(J24:J25)</f>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -3224,6 +3415,12 @@
       <c r="C27" s="36" t="s">
         <v>22</v>
       </c>
+      <c r="I27" s="27" t="s">
+        <v>69</v>
+      </c>
+      <c r="J27" s="22" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23" t="s">
@@ -3235,6 +3432,10 @@
       <c r="C28" s="36" t="s">
         <v>22</v>
       </c>
+      <c r="I28" s="27"/>
+      <c r="J28" s="22" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="20" t="s">
@@ -3247,25 +3448,39 @@
       <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+      <c r="A30" s="94" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="22" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A31" s="27"/>
+    <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="94"/>
       <c r="B31" s="22" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="78" t="s">
+    <row r="32" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="100" t="s">
+        <v>227</v>
+      </c>
+      <c r="B32" s="110" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="101"/>
+      <c r="B33" s="111" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="74" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="74"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3371,8 +3586,13 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="I20:K20"/>
+  <mergeCells count="18">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="I22:K22"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A34:C34"/>
     <mergeCell ref="E10:G10"/>
@@ -3380,11 +3600,11 @@
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="E18:E19"/>
     <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="I19:I20"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="E20:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3405,7 +3625,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18:F19"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3439,220 +3659,220 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="85"/>
+      <c r="A2" s="81"/>
       <c r="B2" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="90" t="s">
+      <c r="E2" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="81">
+      <c r="F2" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="85"/>
+      <c r="A3" s="81"/>
       <c r="B3" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="90"/>
-      <c r="F3" s="81"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="88"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="85"/>
+      <c r="A4" s="81"/>
       <c r="B4" s="63" t="s">
         <v>214</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="82" t="s">
+      <c r="E4" s="89" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="81">
+      <c r="F4" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="85"/>
+      <c r="A5" s="81"/>
       <c r="B5" s="64" t="s">
         <v>215</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="81"/>
+      <c r="E5" s="89"/>
+      <c r="F5" s="88"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="85"/>
+      <c r="A6" s="81"/>
       <c r="B6" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="91" t="s">
+      <c r="E6" s="90" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="81">
+      <c r="F6" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="85"/>
+      <c r="A7" s="81"/>
       <c r="B7" s="65" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
-      <c r="E7" s="91"/>
-      <c r="F7" s="81"/>
+      <c r="E7" s="90"/>
+      <c r="F7" s="88"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="85"/>
+      <c r="A8" s="81"/>
       <c r="B8" s="40" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="92" t="s">
+      <c r="E8" s="91" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="81">
+      <c r="F8" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="85"/>
+      <c r="A9" s="81"/>
       <c r="B9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="81"/>
+      <c r="E9" s="91"/>
+      <c r="F9" s="88"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="85"/>
+      <c r="A10" s="81"/>
       <c r="B10" s="61" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="90" t="s">
+      <c r="E10" s="87" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="81">
+      <c r="F10" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85"/>
+      <c r="A11" s="81"/>
       <c r="B11" s="62" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="90"/>
-      <c r="F11" s="81"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="88"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85"/>
+      <c r="A12" s="81"/>
       <c r="B12" s="49" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="93" t="s">
+      <c r="E12" s="92" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="81">
+      <c r="F12" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="85"/>
+      <c r="A13" s="81"/>
       <c r="B13" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="93"/>
-      <c r="F13" s="81"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="88"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="85"/>
+      <c r="A14" s="81"/>
       <c r="B14" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="89" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="81">
+      <c r="F14" s="88">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="85"/>
+      <c r="A15" s="81"/>
       <c r="B15" s="64" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="81"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="88"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="85"/>
+      <c r="A16" s="81"/>
       <c r="B16" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="83" t="s">
+      <c r="E16" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="84">
+      <c r="F16" s="83">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="85"/>
+      <c r="A17" s="81"/>
       <c r="B17" s="66" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="84"/>
+      <c r="E17" s="93"/>
+      <c r="F17" s="83"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="85"/>
+      <c r="A18" s="81"/>
       <c r="B18" s="67" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
-      <c r="E18" s="88" t="s">
+      <c r="E18" s="85" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="84">
+      <c r="F18" s="83">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="86"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="68" t="s">
         <v>217</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="89"/>
-      <c r="F19" s="87"/>
+      <c r="E19" s="86"/>
+      <c r="F19" s="84"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="57" t="s">
@@ -3665,6 +3885,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E18:E19"/>
@@ -3681,9 +3904,6 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09E994D0-B063-4CA8-BE8E-9B6F7E664AB0}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B402C6-0D42-4E82-9845-C298CC7F9E84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cablage" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="239">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -749,6 +749,9 @@
   </si>
   <si>
     <t>8STA61035S</t>
+  </si>
+  <si>
+    <t>Front brake pressure</t>
   </si>
 </sst>
 </file>
@@ -1272,7 +1275,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="112">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,88 +1412,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1502,14 +1426,92 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1769,8 +1771,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:C12" totalsRowShown="0">
-  <autoFilter ref="A2:C12" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:C13" totalsRowShown="0">
+  <autoFilter ref="A2:C13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantité"/>
@@ -2740,8 +2742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B16" sqref="A16:XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2763,26 +2765,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="84" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="E1" s="77" t="s">
+      <c r="B1" s="84"/>
+      <c r="C1" s="84"/>
+      <c r="E1" s="85" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="I1" s="78" t="s">
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+      <c r="I1" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="78"/>
-      <c r="K1" s="78"/>
-      <c r="M1" s="79" t="s">
+      <c r="J1" s="86"/>
+      <c r="K1" s="86"/>
+      <c r="M1" s="87" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="79"/>
-      <c r="O1" s="79"/>
+      <c r="N1" s="87"/>
+      <c r="O1" s="87"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
@@ -2982,7 +2984,7 @@
       <c r="C7" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="88" t="s">
         <v>69</v>
       </c>
       <c r="F7" s="22" t="s">
@@ -3017,7 +3019,7 @@
       <c r="C8" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="80"/>
+      <c r="E8" s="88"/>
       <c r="F8" s="22" t="s">
         <v>72</v>
       </c>
@@ -3077,11 +3079,11 @@
       <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="75" t="s">
+      <c r="E10" s="91" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
+      <c r="F10" s="91"/>
+      <c r="G10" s="91"/>
       <c r="I10" s="13" t="s">
         <v>77</v>
       </c>
@@ -3091,7 +3093,7 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="76" t="s">
+      <c r="M10" s="92" t="s">
         <v>69</v>
       </c>
       <c r="N10" s="22" t="s">
@@ -3126,7 +3128,7 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="76"/>
+      <c r="M11" s="92"/>
       <c r="N11" s="22" t="s">
         <v>81</v>
       </c>
@@ -3159,12 +3161,14 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="32">
-        <f>SUM(Tableau1[Quantité])</f>
-        <v>17</v>
+      <c r="A13" t="s">
+        <v>238</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>22</v>
       </c>
       <c r="E13" t="s">
         <v>84</v>
@@ -3183,11 +3187,12 @@
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76" t="s">
-        <v>69</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>220</v>
+      <c r="A14" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="32">
+        <f>SUM(Tableau1[Quantité])</f>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
         <v>57</v>
@@ -3203,10 +3208,12 @@
         <v>81</v>
       </c>
     </row>
-    <row r="15" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="99"/>
-      <c r="B15" s="98" t="s">
-        <v>221</v>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A15" s="92" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15" s="24" t="s">
+        <v>220</v>
       </c>
       <c r="E15" t="s">
         <v>87</v>
@@ -3218,12 +3225,10 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:15" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="100" t="s">
-        <v>227</v>
-      </c>
-      <c r="B16" s="97" t="s">
-        <v>228</v>
+    <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="93"/>
+      <c r="B16" s="74" t="s">
+        <v>221</v>
       </c>
       <c r="E16" t="s">
         <v>85</v>
@@ -3244,10 +3249,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="101"/>
-      <c r="B17" s="96" t="s">
-        <v>229</v>
+    <row r="17" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="94" t="s">
+        <v>227</v>
+      </c>
+      <c r="B17" s="73" t="s">
+        <v>228</v>
       </c>
       <c r="E17" s="31" t="s">
         <v>66</v>
@@ -3256,82 +3263,84 @@
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="76" t="s">
+      <c r="I17" s="92" t="s">
         <v>69</v>
       </c>
       <c r="J17" s="22" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="18" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="95"/>
-      <c r="B18" s="95"/>
-      <c r="E18" s="76" t="s">
+      <c r="B18" s="72" t="s">
+        <v>229</v>
+      </c>
+      <c r="E18" s="92" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="22" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="76"/>
+      <c r="I18" s="92"/>
       <c r="J18" s="22" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="13"/>
-      <c r="E19" s="76"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="22" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="102"/>
-      <c r="I19" s="100" t="s">
+      <c r="H19" s="75"/>
+      <c r="I19" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="J19" s="110" t="s">
+      <c r="J19" s="82" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="108"/>
-      <c r="E20" s="100" t="s">
+      <c r="D20" s="81"/>
+      <c r="E20" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="103" t="s">
+      <c r="F20" s="76" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="104"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="111" t="s">
+      <c r="G20" s="77"/>
+      <c r="H20" s="75"/>
+      <c r="I20" s="95"/>
+      <c r="J20" s="83" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="109"/>
-      <c r="F21" s="105" t="s">
+      <c r="E21" s="97"/>
+      <c r="F21" s="78" t="s">
         <v>235</v>
       </c>
       <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E22" s="109"/>
+      <c r="E22" s="97"/>
       <c r="F22" s="22" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="106"/>
-      <c r="I22" s="72" t="s">
+      <c r="G22" s="79"/>
+      <c r="I22" s="89" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="72"/>
-      <c r="K22" s="72"/>
+      <c r="J22" s="89"/>
+      <c r="K22" s="89"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="108"/>
-      <c r="E23" s="101"/>
+      <c r="D23" s="81"/>
+      <c r="E23" s="95"/>
       <c r="F23" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="G23" s="106"/>
+      <c r="G23" s="79"/>
       <c r="I23" s="13" t="s">
         <v>51</v>
       </c>
@@ -3343,13 +3352,13 @@
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="73" t="s">
+      <c r="A24" s="84" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="73"/>
-      <c r="E24" s="107"/>
-      <c r="F24" s="107"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="84"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
       <c r="G24" s="23"/>
       <c r="I24" s="33" t="s">
         <v>97</v>
@@ -3448,7 +3457,7 @@
       <c r="C29" s="37"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="94" t="s">
+      <c r="A30" s="96" t="s">
         <v>69</v>
       </c>
       <c r="B30" s="22" t="s">
@@ -3456,31 +3465,31 @@
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="94"/>
+      <c r="A31" s="96"/>
       <c r="B31" s="22" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="100" t="s">
+      <c r="A32" s="94" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="82" t="s">
         <v>232</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="101"/>
-      <c r="B33" s="111" t="s">
+      <c r="A33" s="95"/>
+      <c r="B33" s="83" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="90" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="74"/>
-      <c r="C34" s="74"/>
+      <c r="B34" s="90"/>
+      <c r="C34" s="90"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -3587,11 +3596,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:G1"/>
-    <mergeCell ref="I1:K1"/>
-    <mergeCell ref="M1:O1"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="I22:K22"/>
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A34:C34"/>
@@ -3599,12 +3603,17 @@
     <mergeCell ref="M10:M11"/>
     <mergeCell ref="I17:I18"/>
     <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
     <mergeCell ref="I19:I20"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:A33"/>
     <mergeCell ref="E20:E23"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="M1:O1"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -3659,220 +3668,220 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="81"/>
+      <c r="A2" s="101"/>
       <c r="B2" s="61" t="s">
         <v>224</v>
       </c>
       <c r="C2" s="44"/>
       <c r="D2" s="44"/>
-      <c r="E2" s="87" t="s">
+      <c r="E2" s="106" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="88">
+      <c r="F2" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="81"/>
+      <c r="A3" s="101"/>
       <c r="B3" s="62" t="s">
         <v>225</v>
       </c>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="88"/>
+      <c r="E3" s="106"/>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="81"/>
+      <c r="A4" s="101"/>
       <c r="B4" s="63" t="s">
         <v>214</v>
       </c>
       <c r="C4" s="46"/>
       <c r="D4" s="46"/>
-      <c r="E4" s="89" t="s">
+      <c r="E4" s="107" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="88">
+      <c r="F4" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="81"/>
+      <c r="A5" s="101"/>
       <c r="B5" s="64" t="s">
         <v>215</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="47"/>
-      <c r="E5" s="89"/>
-      <c r="F5" s="88"/>
+      <c r="E5" s="107"/>
+      <c r="F5" s="98"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="81"/>
+      <c r="A6" s="101"/>
       <c r="B6" s="65" t="s">
         <v>122</v>
       </c>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
-      <c r="E6" s="90" t="s">
+      <c r="E6" s="108" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="88">
+      <c r="F6" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="81"/>
+      <c r="A7" s="101"/>
       <c r="B7" s="65" t="s">
         <v>124</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
-      <c r="E7" s="90"/>
-      <c r="F7" s="88"/>
+      <c r="E7" s="108"/>
+      <c r="F7" s="98"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="81"/>
+      <c r="A8" s="101"/>
       <c r="B8" s="40" t="s">
         <v>125</v>
       </c>
       <c r="C8" s="41"/>
       <c r="D8" s="41"/>
-      <c r="E8" s="91" t="s">
+      <c r="E8" s="109" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="88">
+      <c r="F8" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="81"/>
+      <c r="A9" s="101"/>
       <c r="B9" s="42" t="s">
         <v>126</v>
       </c>
       <c r="C9" s="43"/>
       <c r="D9" s="43"/>
-      <c r="E9" s="91"/>
-      <c r="F9" s="88"/>
+      <c r="E9" s="109"/>
+      <c r="F9" s="98"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="81"/>
+      <c r="A10" s="101"/>
       <c r="B10" s="61" t="s">
         <v>127</v>
       </c>
       <c r="C10" s="44"/>
       <c r="D10" s="44"/>
-      <c r="E10" s="87" t="s">
+      <c r="E10" s="106" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="88">
+      <c r="F10" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="81"/>
+      <c r="A11" s="101"/>
       <c r="B11" s="62" t="s">
         <v>119</v>
       </c>
       <c r="C11" s="45"/>
       <c r="D11" s="45"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="88"/>
+      <c r="E11" s="106"/>
+      <c r="F11" s="98"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="81"/>
+      <c r="A12" s="101"/>
       <c r="B12" s="49" t="s">
         <v>129</v>
       </c>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
-      <c r="E12" s="92" t="s">
+      <c r="E12" s="110" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="88">
+      <c r="F12" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="81"/>
+      <c r="A13" s="101"/>
       <c r="B13" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C13" s="50"/>
       <c r="D13" s="50"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="110"/>
+      <c r="F13" s="98"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="81"/>
+      <c r="A14" s="101"/>
       <c r="B14" s="63" t="s">
         <v>132</v>
       </c>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
-      <c r="E14" s="89" t="s">
+      <c r="E14" s="107" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="98">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="81"/>
+      <c r="A15" s="101"/>
       <c r="B15" s="64" t="s">
         <v>121</v>
       </c>
       <c r="C15" s="47"/>
       <c r="D15" s="47"/>
-      <c r="E15" s="89"/>
-      <c r="F15" s="88"/>
+      <c r="E15" s="107"/>
+      <c r="F15" s="98"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="81"/>
+      <c r="A16" s="101"/>
       <c r="B16" s="40" t="s">
         <v>134</v>
       </c>
       <c r="C16" s="41"/>
       <c r="D16" s="41"/>
-      <c r="E16" s="93" t="s">
+      <c r="E16" s="99" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="83">
+      <c r="F16" s="100">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="81"/>
+      <c r="A17" s="101"/>
       <c r="B17" s="66" t="s">
         <v>135</v>
       </c>
       <c r="C17" s="50"/>
       <c r="D17" s="50"/>
-      <c r="E17" s="93"/>
-      <c r="F17" s="83"/>
+      <c r="E17" s="99"/>
+      <c r="F17" s="100"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="81"/>
+      <c r="A18" s="101"/>
       <c r="B18" s="67" t="s">
         <v>218</v>
       </c>
       <c r="C18" s="58"/>
       <c r="D18" s="58"/>
-      <c r="E18" s="85" t="s">
+      <c r="E18" s="104" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="83">
+      <c r="F18" s="100">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="82"/>
+      <c r="A19" s="102"/>
       <c r="B19" s="68" t="s">
         <v>217</v>
       </c>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="86"/>
-      <c r="F19" s="84"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="57" t="s">
@@ -3885,6 +3894,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
@@ -3901,9 +3913,6 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24B402C6-0D42-4E82-9845-C298CC7F9E84}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05276F7E-9985-42DD-92F5-CFE8ED7AC67D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="244">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -752,6 +752,21 @@
   </si>
   <si>
     <t>Front brake pressure</t>
+  </si>
+  <si>
+    <t>Mini</t>
+  </si>
+  <si>
+    <t>Gros</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Guillotine</t>
   </si>
 </sst>
 </file>
@@ -1275,7 +1290,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="101">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1283,14 +1298,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1302,53 +1317,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1356,51 +1367,47 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1409,57 +1416,49 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,49 +1467,49 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2154,7 +2153,7 @@
   <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,8 +2672,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H17" s="71"/>
-      <c r="I17" s="71"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18">
@@ -2689,8 +2688,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H18" s="71"/>
-      <c r="I18" s="71"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19">
@@ -2705,8 +2704,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H19" s="71"/>
-      <c r="I19" s="71"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20">
@@ -2720,8 +2719,8 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="71"/>
-      <c r="I20" s="71"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="E21">
@@ -2742,8 +2741,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F42" sqref="F42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,62 +2764,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="75" t="s">
         <v>222</v>
       </c>
-      <c r="B1" s="84"/>
-      <c r="C1" s="84"/>
-      <c r="E1" s="85" t="s">
+      <c r="B1" s="75"/>
+      <c r="C1" s="75"/>
+      <c r="E1" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="I1" s="86" t="s">
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="I1" s="77" t="s">
         <v>49</v>
       </c>
-      <c r="J1" s="86"/>
-      <c r="K1" s="86"/>
-      <c r="M1" s="87" t="s">
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="M1" s="78" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="87"/>
-      <c r="O1" s="87"/>
+      <c r="N1" s="78"/>
+      <c r="O1" s="78"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" t="s">
         <v>51</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" t="s">
         <v>51</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" t="s">
         <v>52</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>53</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" t="s">
         <v>51</v>
       </c>
-      <c r="J2" s="13" t="s">
+      <c r="J2" t="s">
         <v>52</v>
       </c>
-      <c r="K2" s="13" t="s">
+      <c r="K2" t="s">
         <v>53</v>
       </c>
-      <c r="M2" s="14" t="s">
+      <c r="M2" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="14" t="s">
+      <c r="N2" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="14" t="s">
+      <c r="O2" s="13" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2901,13 +2900,13 @@
       </c>
     </row>
     <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="B5" s="16">
+      <c r="B5" s="15">
         <v>1</v>
       </c>
-      <c r="C5" s="17" t="s">
+      <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
       <c r="E5" t="s">
@@ -2948,10 +2947,10 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <f>SUM(F3:F5)</f>
         <v>9</v>
       </c>
@@ -2964,7 +2963,7 @@
       <c r="K6" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" t="s">
         <v>68</v>
       </c>
       <c r="N6">
@@ -2975,25 +2974,25 @@
       </c>
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="23" t="s">
+      <c r="A7" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="23">
+      <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="88" t="s">
+      <c r="E7" s="79" t="s">
         <v>69</v>
       </c>
-      <c r="F7" s="22" t="s">
+      <c r="F7" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="I7" s="23" t="s">
+      <c r="I7" t="s">
         <v>71</v>
       </c>
-      <c r="J7" s="23">
+      <c r="J7">
         <v>1</v>
       </c>
       <c r="K7" t="s">
@@ -3010,23 +3009,23 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="23" t="s">
+      <c r="A8" t="s">
         <v>85</v>
       </c>
-      <c r="B8" s="23">
+      <c r="B8">
         <v>3</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="88"/>
-      <c r="F8" s="22" t="s">
+      <c r="E8" s="79"/>
+      <c r="F8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I8" s="23" t="s">
+      <c r="I8" t="s">
         <v>73</v>
       </c>
-      <c r="J8" s="23">
+      <c r="J8">
         <v>1</v>
       </c>
       <c r="K8" t="s">
@@ -3043,48 +3042,48 @@
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" t="s">
         <v>86</v>
       </c>
-      <c r="B9" s="23">
+      <c r="B9">
         <v>2</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" t="s">
         <v>22</v>
       </c>
-      <c r="I9" s="23" t="s">
+      <c r="I9" t="s">
         <v>75</v>
       </c>
-      <c r="J9" s="23">
+      <c r="J9">
         <v>1</v>
       </c>
       <c r="K9" t="s">
         <v>22</v>
       </c>
-      <c r="M9" s="25" t="s">
+      <c r="M9" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="N9" s="26">
+      <c r="N9" s="24">
         <f>SUM(N3:N8)</f>
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
+      <c r="A10" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="23">
+      <c r="B10">
         <v>1</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="91" t="s">
+      <c r="E10" s="82" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="91"/>
-      <c r="G10" s="91"/>
-      <c r="I10" s="13" t="s">
+      <c r="F10" s="82"/>
+      <c r="G10" s="82"/>
+      <c r="I10" t="s">
         <v>77</v>
       </c>
       <c r="J10">
@@ -3093,30 +3092,30 @@
       <c r="K10" t="s">
         <v>22</v>
       </c>
-      <c r="M10" s="92" t="s">
+      <c r="M10" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="N10" s="22" t="s">
+      <c r="N10" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="23" t="s">
+      <c r="A11" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="23">
+      <c r="B11">
         <v>2</v>
       </c>
-      <c r="C11" s="23" t="s">
+      <c r="C11" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" t="s">
         <v>51</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" t="s">
         <v>79</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="I11" t="s">
@@ -3128,19 +3127,19 @@
       <c r="K11" t="s">
         <v>22</v>
       </c>
-      <c r="M11" s="92"/>
-      <c r="N11" s="22" t="s">
+      <c r="M11" s="83"/>
+      <c r="N11" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="23" t="s">
+      <c r="A12" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="23">
+      <c r="B12">
         <v>4</v>
       </c>
-      <c r="C12" s="23" t="s">
+      <c r="C12" t="s">
         <v>22</v>
       </c>
       <c r="E12" t="s">
@@ -3152,10 +3151,10 @@
       <c r="G12" t="s">
         <v>22</v>
       </c>
-      <c r="I12" s="20" t="s">
+      <c r="I12" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J12" s="21">
+      <c r="J12" s="20">
         <f>SUM(J3:J11)</f>
         <v>11</v>
       </c>
@@ -3167,7 +3166,7 @@
       <c r="B13">
         <v>1</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" t="s">
         <v>22</v>
       </c>
       <c r="E13" t="s">
@@ -3179,18 +3178,18 @@
       <c r="G13" t="s">
         <v>22</v>
       </c>
-      <c r="I13" s="27" t="s">
+      <c r="I13" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J13" s="22" t="s">
+      <c r="J13" s="21" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="32">
+      <c r="B14" s="20">
         <f>SUM(Tableau1[Quantité])</f>
         <v>18</v>
       </c>
@@ -3203,16 +3202,16 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="I14" s="27"/>
-      <c r="J14" s="22" t="s">
+      <c r="I14" s="25"/>
+      <c r="J14" s="21" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="92" t="s">
+      <c r="A15" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B15" s="24" t="s">
+      <c r="B15" s="22" t="s">
         <v>220</v>
       </c>
       <c r="E15" t="s">
@@ -3226,8 +3225,8 @@
       </c>
     </row>
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="93"/>
-      <c r="B16" s="74" t="s">
+      <c r="A16" s="87"/>
+      <c r="B16" s="67" t="s">
         <v>221</v>
       </c>
       <c r="E16" t="s">
@@ -3239,128 +3238,123 @@
       <c r="G16" t="s">
         <v>22</v>
       </c>
-      <c r="I16" s="28" t="s">
+      <c r="I16" s="26" t="s">
         <v>89</v>
       </c>
-      <c r="J16" s="29">
+      <c r="J16" s="27">
         <v>1</v>
       </c>
-      <c r="K16" s="30" t="s">
+      <c r="K16" s="28" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="94" t="s">
+      <c r="A17" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="73" t="s">
+      <c r="B17" s="66" t="s">
         <v>228</v>
       </c>
-      <c r="E17" s="31" t="s">
+      <c r="E17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="F17" s="19">
+      <c r="F17" s="18">
         <f>SUM(F12:F16)</f>
         <v>9</v>
       </c>
-      <c r="I17" s="92" t="s">
+      <c r="I17" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="J17" s="22" t="s">
+      <c r="J17" s="21" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="95"/>
-      <c r="B18" s="72" t="s">
+      <c r="A18" s="85"/>
+      <c r="B18" s="65" t="s">
         <v>229</v>
       </c>
-      <c r="E18" s="92" t="s">
+      <c r="E18" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="F18" s="22" t="s">
+      <c r="F18" s="21" t="s">
         <v>93</v>
       </c>
-      <c r="I18" s="92"/>
-      <c r="J18" s="22" t="s">
+      <c r="I18" s="83"/>
+      <c r="J18" s="21" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="13"/>
-      <c r="E19" s="92"/>
-      <c r="F19" s="22" t="s">
+      <c r="E19" s="83"/>
+      <c r="F19" s="21" t="s">
         <v>95</v>
       </c>
-      <c r="H19" s="75"/>
-      <c r="I19" s="94" t="s">
+      <c r="H19" s="68"/>
+      <c r="I19" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="J19" s="82" t="s">
+      <c r="J19" s="73" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D20" s="81"/>
-      <c r="E20" s="94" t="s">
+      <c r="E20" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="F20" s="76" t="s">
+      <c r="F20" s="69" t="s">
         <v>231</v>
       </c>
-      <c r="G20" s="77"/>
-      <c r="H20" s="75"/>
-      <c r="I20" s="95"/>
-      <c r="J20" s="83" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="68"/>
+      <c r="I20" s="85"/>
+      <c r="J20" s="74" t="s">
         <v>234</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="97"/>
-      <c r="F21" s="78" t="s">
+      <c r="E21" s="86"/>
+      <c r="F21" s="71" t="s">
         <v>235</v>
       </c>
-      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="E22" s="97"/>
-      <c r="F22" s="22" t="s">
+      <c r="E22" s="86"/>
+      <c r="F22" s="21" t="s">
         <v>236</v>
       </c>
-      <c r="G22" s="79"/>
-      <c r="I22" s="89" t="s">
+      <c r="G22" s="70"/>
+      <c r="I22" s="80" t="s">
         <v>96</v>
       </c>
-      <c r="J22" s="89"/>
-      <c r="K22" s="89"/>
+      <c r="J22" s="80"/>
+      <c r="K22" s="80"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D23" s="81"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="22" t="s">
+      <c r="E23" s="85"/>
+      <c r="F23" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="G23" s="79"/>
-      <c r="I23" s="13" t="s">
+      <c r="G23" s="70"/>
+      <c r="I23" t="s">
         <v>51</v>
       </c>
-      <c r="J23" s="13" t="s">
+      <c r="J23" t="s">
         <v>52</v>
       </c>
-      <c r="K23" s="13" t="s">
+      <c r="K23" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="84" t="s">
+      <c r="A24" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="B24" s="84"/>
-      <c r="C24" s="84"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="80"/>
-      <c r="G24" s="23"/>
-      <c r="I24" s="33" t="s">
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="I24" s="30" t="s">
         <v>97</v>
       </c>
       <c r="J24">
@@ -3371,18 +3365,15 @@
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A25" s="35" t="s">
+      <c r="A25" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="35" t="s">
+      <c r="C25" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
       <c r="I25" t="s">
         <v>98</v>
       </c>
@@ -3394,203 +3385,239 @@
       </c>
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>101</v>
       </c>
-      <c r="B26" s="16">
+      <c r="B26" s="15">
         <v>1</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="I26" s="34" t="s">
+      <c r="I26" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="J26" s="21">
+      <c r="J26" s="20">
         <f>SUM(J24:J25)</f>
         <v>3</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="B27" s="36">
+      <c r="B27" s="32">
         <v>2</v>
       </c>
-      <c r="C27" s="36" t="s">
+      <c r="C27" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I27" s="27" t="s">
+      <c r="I27" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="J27" s="22" t="s">
+      <c r="J27" s="21" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A28" s="23" t="s">
+      <c r="A28" t="s">
         <v>211</v>
       </c>
-      <c r="B28" s="23">
+      <c r="B28">
         <v>1</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="I28" s="27"/>
-      <c r="J28" s="22" t="s">
+      <c r="I28" s="25"/>
+      <c r="J28" s="21" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="20" t="s">
+      <c r="A29" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="B29" s="21">
+      <c r="B29" s="20">
         <f>SUM(B26:B28)</f>
         <v>4</v>
       </c>
-      <c r="C29" s="37"/>
+      <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A30" s="96" t="s">
+      <c r="A30" s="83" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="22" t="s">
+      <c r="B30" s="21" t="s">
         <v>212</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="96"/>
-      <c r="B31" s="22" t="s">
+      <c r="A31" s="83"/>
+      <c r="B31" s="21" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="94" t="s">
+      <c r="A32" s="84" t="s">
         <v>227</v>
       </c>
-      <c r="B32" s="82" t="s">
+      <c r="B32" s="73" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="83" t="s">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="85"/>
+      <c r="B33" s="74" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="90" t="s">
+    <row r="34" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B34" s="81"/>
+      <c r="C34" s="81"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>106</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C35" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>107</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C36" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>108</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C37" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>109</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C38" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>110</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C39" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>111</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C40" t="s">
+        <v>241</v>
+      </c>
+      <c r="D40" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>112</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C41" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>113</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C42" t="s">
+        <v>239</v>
+      </c>
+      <c r="D42" t="s">
+        <v>242</v>
+      </c>
+      <c r="E42" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>114</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C43" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>226</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="38" t="s">
+      <c r="C44" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B45" s="39">
+      <c r="B45" s="35">
         <f>SUM(B35:B44)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="27" t="s">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="25" t="s">
         <v>69</v>
       </c>
-      <c r="B46" s="22" t="s">
+      <c r="B46" s="21" t="s">
         <v>216</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="27"/>
-      <c r="B47" s="22" t="s">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="25"/>
+      <c r="B47" s="21" t="s">
         <v>104</v>
       </c>
     </row>
@@ -3648,255 +3675,252 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="69" t="s">
+      <c r="A1" s="63" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="70" t="s">
+      <c r="C1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="70" t="s">
+      <c r="D1" s="64" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="70" t="s">
+      <c r="E1" s="64" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="70" t="s">
+      <c r="F1" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="101"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="56" t="s">
         <v>224</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="106" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="94" t="s">
         <v>223</v>
       </c>
-      <c r="F2" s="98">
+      <c r="F2" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="101"/>
-      <c r="B3" s="62" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="106"/>
-      <c r="F3" s="98"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="94"/>
+      <c r="F3" s="95"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="101"/>
-      <c r="B4" s="63" t="s">
+      <c r="A4" s="88"/>
+      <c r="B4" s="58" t="s">
         <v>214</v>
       </c>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="107" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="96" t="s">
         <v>120</v>
       </c>
-      <c r="F4" s="98">
+      <c r="F4" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="101"/>
-      <c r="B5" s="64" t="s">
+      <c r="A5" s="88"/>
+      <c r="B5" s="59" t="s">
         <v>215</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="107"/>
-      <c r="F5" s="98"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="95"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="101"/>
-      <c r="B6" s="65" t="s">
+      <c r="A6" s="88"/>
+      <c r="B6" s="60" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="108" t="s">
+      <c r="C6" s="44"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="97" t="s">
         <v>123</v>
       </c>
-      <c r="F6" s="98">
+      <c r="F6" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="101"/>
-      <c r="B7" s="65" t="s">
+      <c r="A7" s="88"/>
+      <c r="B7" s="60" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="108"/>
-      <c r="F7" s="98"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="95"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="101"/>
-      <c r="B8" s="40" t="s">
+      <c r="A8" s="88"/>
+      <c r="B8" s="36" t="s">
         <v>125</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="109" t="s">
+      <c r="C8" s="37"/>
+      <c r="D8" s="37"/>
+      <c r="E8" s="98" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="98">
+      <c r="F8" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="101"/>
-      <c r="B9" s="42" t="s">
+      <c r="A9" s="88"/>
+      <c r="B9" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="109"/>
-      <c r="F9" s="98"/>
+      <c r="C9" s="39"/>
+      <c r="D9" s="39"/>
+      <c r="E9" s="98"/>
+      <c r="F9" s="95"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="101"/>
-      <c r="B10" s="61" t="s">
+      <c r="A10" s="88"/>
+      <c r="B10" s="56" t="s">
         <v>127</v>
       </c>
-      <c r="C10" s="44"/>
-      <c r="D10" s="44"/>
-      <c r="E10" s="106" t="s">
+      <c r="C10" s="40"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="98">
+      <c r="F10" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="101"/>
-      <c r="B11" s="62" t="s">
+      <c r="A11" s="88"/>
+      <c r="B11" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="106"/>
-      <c r="F11" s="98"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="95"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101"/>
-      <c r="B12" s="49" t="s">
+      <c r="A12" s="88"/>
+      <c r="B12" s="45" t="s">
         <v>129</v>
       </c>
-      <c r="C12" s="50"/>
-      <c r="D12" s="50"/>
-      <c r="E12" s="110" t="s">
+      <c r="C12" s="46"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="F12" s="98">
+      <c r="F12" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="101"/>
-      <c r="B13" s="49" t="s">
+      <c r="A13" s="88"/>
+      <c r="B13" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="110"/>
-      <c r="F13" s="98"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="99"/>
+      <c r="F13" s="95"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="101"/>
-      <c r="B14" s="63" t="s">
+      <c r="A14" s="88"/>
+      <c r="B14" s="58" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="46"/>
-      <c r="D14" s="46"/>
-      <c r="E14" s="107" t="s">
+      <c r="C14" s="42"/>
+      <c r="D14" s="42"/>
+      <c r="E14" s="96" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="98">
+      <c r="F14" s="95">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="101"/>
-      <c r="B15" s="64" t="s">
+      <c r="A15" s="88"/>
+      <c r="B15" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="C15" s="47"/>
-      <c r="D15" s="47"/>
-      <c r="E15" s="107"/>
-      <c r="F15" s="98"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="95"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="101"/>
-      <c r="B16" s="40" t="s">
+      <c r="A16" s="88"/>
+      <c r="B16" s="36" t="s">
         <v>134</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="99" t="s">
+      <c r="C16" s="37"/>
+      <c r="D16" s="37"/>
+      <c r="E16" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="100">
+      <c r="F16" s="90">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="101"/>
-      <c r="B17" s="66" t="s">
+      <c r="A17" s="88"/>
+      <c r="B17" s="45" t="s">
         <v>135</v>
       </c>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="100"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="90"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="101"/>
-      <c r="B18" s="67" t="s">
+      <c r="A18" s="88"/>
+      <c r="B18" s="61" t="s">
         <v>218</v>
       </c>
-      <c r="C18" s="58"/>
-      <c r="D18" s="58"/>
-      <c r="E18" s="104" t="s">
+      <c r="C18" s="53"/>
+      <c r="D18" s="53"/>
+      <c r="E18" s="92" t="s">
         <v>219</v>
       </c>
-      <c r="F18" s="100">
+      <c r="F18" s="90">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="102"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="89"/>
+      <c r="B19" s="62" t="s">
         <v>217</v>
       </c>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="103"/>
+      <c r="C19" s="54"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="93"/>
+      <c r="F19" s="91"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="52" t="s">
         <v>136</v>
       </c>
-      <c r="F20" s="60">
+      <c r="F20" s="55">
         <f>SUM(F2:F19)</f>
         <v>30</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="E14:E15"/>
     <mergeCell ref="F14:F15"/>
     <mergeCell ref="E16:E17"/>
     <mergeCell ref="F16:F17"/>
@@ -3913,6 +3937,9 @@
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="E14:E15"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>
@@ -3997,13 +4024,13 @@
       <c r="E2" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4027,7 +4054,7 @@
       <c r="G3" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4047,13 +4074,13 @@
       <c r="E4" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H4" s="13" t="s">
+      <c r="H4" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4073,13 +4100,13 @@
       <c r="E5" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H5" s="13" t="s">
+      <c r="H5" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4097,13 +4124,13 @@
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4121,13 +4148,13 @@
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
-      <c r="F7" s="51" t="s">
+      <c r="F7" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H7" s="13" t="s">
+      <c r="H7" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4149,7 +4176,7 @@
       <c r="G8" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H8" s="13" t="s">
+      <c r="H8" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4171,7 +4198,7 @@
       <c r="G9" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H9" s="13" t="s">
+      <c r="H9" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4187,13 +4214,13 @@
         <v>3</v>
       </c>
       <c r="E10" s="6"/>
-      <c r="F10" s="51" t="s">
+      <c r="F10" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H10" s="13" t="s">
+      <c r="H10" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4215,7 +4242,7 @@
       <c r="G11" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H11" s="13" t="s">
+      <c r="H11" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4226,18 +4253,16 @@
       <c r="B12" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C12" s="52"/>
       <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="52"/>
       <c r="F12" s="6" t="s">
         <v>171</v>
       </c>
       <c r="G12" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H12" s="13" t="s">
+      <c r="H12" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4252,14 +4277,13 @@
       <c r="D13" s="6">
         <v>3</v>
       </c>
-      <c r="E13" s="52"/>
       <c r="F13" s="6" t="s">
         <v>149</v>
       </c>
       <c r="G13" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H13" s="13" t="s">
+      <c r="H13" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4274,14 +4298,13 @@
       <c r="D14" s="6">
         <v>3</v>
       </c>
-      <c r="E14" s="52"/>
-      <c r="F14" s="51" t="s">
+      <c r="F14" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H14" s="13" t="s">
+      <c r="H14" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4298,14 +4321,13 @@
       <c r="D15" s="6">
         <v>3</v>
       </c>
-      <c r="E15" s="52"/>
-      <c r="F15" s="51" t="s">
+      <c r="F15" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G15" s="10" t="s">
         <v>153</v>
       </c>
-      <c r="H15" s="13" t="s">
+      <c r="H15" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4316,18 +4338,16 @@
       <c r="B16" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C16" s="52"/>
       <c r="D16" s="6">
         <v>2</v>
       </c>
-      <c r="E16" s="52"/>
       <c r="F16" s="6" t="s">
         <v>171</v>
       </c>
       <c r="G16" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H16" s="13" t="s">
+      <c r="H16" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4338,18 +4358,16 @@
       <c r="B17" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="C17" s="52"/>
       <c r="D17" s="6">
         <v>2</v>
       </c>
-      <c r="E17" s="52"/>
       <c r="F17" s="6" t="s">
         <v>171</v>
       </c>
       <c r="G17" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="H17" s="13" t="s">
+      <c r="H17" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4370,10 +4388,10 @@
       <c r="F18" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G18" s="13" t="s">
+      <c r="G18" t="s">
         <v>150</v>
       </c>
-      <c r="H18" s="13" t="s">
+      <c r="H18" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4393,10 +4411,10 @@
       <c r="F19" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G19" s="13" t="s">
+      <c r="G19" t="s">
         <v>153</v>
       </c>
-      <c r="H19" s="13" t="s">
+      <c r="H19" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4414,10 +4432,10 @@
       <c r="F20" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="G20" s="13" t="s">
+      <c r="G20" t="s">
         <v>153</v>
       </c>
-      <c r="H20" s="13" t="s">
+      <c r="H20" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4435,10 +4453,10 @@
       <c r="F21" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G21" s="13" t="s">
+      <c r="G21" t="s">
         <v>150</v>
       </c>
-      <c r="H21" s="13" t="s">
+      <c r="H21" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4456,10 +4474,10 @@
       <c r="F22" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G22" s="13" t="s">
+      <c r="G22" t="s">
         <v>150</v>
       </c>
-      <c r="H22" s="13" t="s">
+      <c r="H22" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4476,13 +4494,13 @@
       <c r="E23" t="s">
         <v>156</v>
       </c>
-      <c r="F23" s="51" t="s">
+      <c r="F23" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="G23" s="13" t="s">
+      <c r="G23" t="s">
         <v>153</v>
       </c>
-      <c r="H23" s="13" t="s">
+      <c r="H23" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4499,13 +4517,13 @@
       <c r="E24" t="s">
         <v>156</v>
       </c>
-      <c r="F24" s="51" t="s">
+      <c r="F24" s="47" t="s">
         <v>149</v>
       </c>
-      <c r="G24" s="13" t="s">
+      <c r="G24" t="s">
         <v>153</v>
       </c>
-      <c r="H24" s="13" t="s">
+      <c r="H24" t="s">
         <v>153</v>
       </c>
     </row>
@@ -4593,7 +4611,7 @@
       <c r="D2" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" t="s">
         <v>190</v>
       </c>
     </row>
@@ -4608,7 +4626,7 @@
         <v>192</v>
       </c>
       <c r="D3" s="10"/>
-      <c r="F3" s="51" t="s">
+      <c r="F3" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G3" t="s">
@@ -4626,7 +4644,7 @@
         <v>192</v>
       </c>
       <c r="D4" s="10"/>
-      <c r="F4" s="51" t="s">
+      <c r="F4" s="47" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4641,7 +4659,7 @@
         <v>192</v>
       </c>
       <c r="D5" s="10"/>
-      <c r="F5" s="51" t="s">
+      <c r="F5" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G5" t="s">
@@ -4649,7 +4667,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="48" t="s">
         <v>197</v>
       </c>
       <c r="B6" s="12" t="s">
@@ -4659,7 +4677,7 @@
         <v>192</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="F6" s="51" t="s">
+      <c r="F6" s="47" t="s">
         <v>149</v>
       </c>
       <c r="G6" t="s">
@@ -4871,7 +4889,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="54" t="s">
+      <c r="A1" s="49" t="s">
         <v>207</v>
       </c>
     </row>
@@ -4879,7 +4897,7 @@
       <c r="A2" t="s">
         <v>208</v>
       </c>
-      <c r="C2" s="55" t="s">
+      <c r="C2" s="50" t="s">
         <v>150</v>
       </c>
     </row>
@@ -4887,7 +4905,7 @@
       <c r="A3" t="s">
         <v>209</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="51" t="s">
         <v>153</v>
       </c>
     </row>

--- a/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
+++ b/EL - Electrical/Autre/Faisceau/Cablage Optimus.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPSA\STUF2019\EL - Electrical\Autre\Faisceau\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05276F7E-9985-42DD-92F5-CFE8ED7AC67D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8481D7-14A7-45D5-A898-C4CC741445AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="497" uniqueCount="251">
   <si>
     <t xml:space="preserve">Identification des câbles </t>
   </si>
@@ -256,9 +256,6 @@
     <t>8STA61497P</t>
   </si>
   <si>
-    <t>Launch Control</t>
-  </si>
-  <si>
     <t>Sortie</t>
   </si>
   <si>
@@ -751,9 +748,6 @@
     <t>8STA61035S</t>
   </si>
   <si>
-    <t>Front brake pressure</t>
-  </si>
-  <si>
     <t>Mini</t>
   </si>
   <si>
@@ -767,6 +761,33 @@
   </si>
   <si>
     <t>Guillotine</t>
+  </si>
+  <si>
+    <t>Alim electronique</t>
+  </si>
+  <si>
+    <t>Boite à fusible all</t>
+  </si>
+  <si>
+    <t>regulateur master switch</t>
+  </si>
+  <si>
+    <t>AWG14</t>
+  </si>
+  <si>
+    <t>AWG12</t>
+  </si>
+  <si>
+    <t>TDB</t>
+  </si>
+  <si>
+    <t>Colonne1</t>
+  </si>
+  <si>
+    <t>Epissure</t>
+  </si>
+  <si>
+    <t>EPissure</t>
   </si>
 </sst>
 </file>
@@ -1473,15 +1494,27 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1494,22 +1527,10 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1770,12 +1791,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:C13" totalsRowShown="0">
-  <autoFilter ref="A2:C13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="A2:D13" totalsRowShown="0">
+  <autoFilter ref="A2:D13" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Signal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Quantité"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Taille câble"/>
+    <tableColumn id="4" xr3:uid="{3931C207-AEEA-46C5-B74A-A2016BCBDD19}" name="Colonne1"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2152,8 +2174,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="B3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2659,7 +2681,16 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>242</v>
+      </c>
+      <c r="B17" t="s">
+        <v>243</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
       <c r="D17">
         <v>14</v>
       </c>
@@ -2667,15 +2698,26 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F17" s="9"/>
+      <c r="F17" s="9">
+        <v>5</v>
+      </c>
       <c r="G17">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0.76542857142857146</v>
       </c>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>182</v>
+      </c>
+      <c r="B18" t="s">
+        <v>244</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
       <c r="D18">
         <v>14</v>
       </c>
@@ -2683,15 +2725,21 @@
         <f t="shared" si="2"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="F18" s="9"/>
+      <c r="F18" s="9">
+        <v>30</v>
+      </c>
       <c r="G18">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="4:9" x14ac:dyDescent="0.25">
+        <v>1.5308571428571429</v>
+      </c>
+      <c r="H18" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="I18" s="6" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D19">
         <v>14</v>
       </c>
@@ -2707,7 +2755,7 @@
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D20">
         <v>14</v>
       </c>
@@ -2722,7 +2770,7 @@
       <c r="H20" s="6"/>
       <c r="I20" s="6"/>
     </row>
-    <row r="21" spans="4:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E21">
         <v>1</v>
       </c>
@@ -2741,8 +2789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:O47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F42" sqref="F42"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2765,7 +2813,7 @@
   <sheetData>
     <row r="1" spans="1:15" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="75" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B1" s="75"/>
       <c r="C1" s="75"/>
@@ -2795,6 +2843,9 @@
       <c r="C2" t="s">
         <v>53</v>
       </c>
+      <c r="D2" t="s">
+        <v>248</v>
+      </c>
       <c r="E2" t="s">
         <v>51</v>
       </c>
@@ -2833,6 +2884,9 @@
       <c r="C3" t="s">
         <v>22</v>
       </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
       <c r="E3" t="s">
         <v>55</v>
       </c>
@@ -2871,6 +2925,9 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="D4" t="s">
+        <v>247</v>
+      </c>
       <c r="E4" t="s">
         <v>59</v>
       </c>
@@ -2909,6 +2966,9 @@
       <c r="C5" s="16" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>247</v>
+      </c>
       <c r="E5" t="s">
         <v>57</v>
       </c>
@@ -2947,6 +3007,9 @@
       <c r="C6" t="s">
         <v>11</v>
       </c>
+      <c r="D6" t="s">
+        <v>247</v>
+      </c>
       <c r="E6" s="17" t="s">
         <v>66</v>
       </c>
@@ -2975,7 +3038,7 @@
     </row>
     <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2983,6 +3046,9 @@
       <c r="C7" t="s">
         <v>22</v>
       </c>
+      <c r="D7" t="s">
+        <v>249</v>
+      </c>
       <c r="E7" s="79" t="s">
         <v>69</v>
       </c>
@@ -3010,7 +3076,7 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B8">
         <v>3</v>
@@ -3022,17 +3088,11 @@
       <c r="F8" s="21" t="s">
         <v>72</v>
       </c>
-      <c r="I8" t="s">
-        <v>73</v>
-      </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
       <c r="K8" t="s">
         <v>22</v>
       </c>
       <c r="M8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -3043,7 +3103,7 @@
     </row>
     <row r="9" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -3051,8 +3111,11 @@
       <c r="C9" t="s">
         <v>22</v>
       </c>
+      <c r="D9" t="s">
+        <v>249</v>
+      </c>
       <c r="I9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="J9">
         <v>1</v>
@@ -3070,7 +3133,7 @@
     </row>
     <row r="10" spans="1:15" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3078,13 +3141,16 @@
       <c r="C10" t="s">
         <v>22</v>
       </c>
+      <c r="D10" t="s">
+        <v>250</v>
+      </c>
       <c r="E10" s="82" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F10" s="82"/>
       <c r="G10" s="82"/>
       <c r="I10" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J10">
         <v>1</v>
@@ -3096,12 +3162,12 @@
         <v>69</v>
       </c>
       <c r="N10" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11">
         <v>2</v>
@@ -3113,13 +3179,13 @@
         <v>51</v>
       </c>
       <c r="F11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s">
         <v>53</v>
       </c>
       <c r="I11" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="J11">
         <v>1</v>
@@ -3129,12 +3195,12 @@
       </c>
       <c r="M11" s="83"/>
       <c r="N11" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B12">
         <v>4</v>
@@ -3142,8 +3208,11 @@
       <c r="C12" t="s">
         <v>22</v>
       </c>
+      <c r="D12" t="s">
+        <v>247</v>
+      </c>
       <c r="E12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -3156,12 +3225,12 @@
       </c>
       <c r="J12" s="20">
         <f>SUM(J3:J11)</f>
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -3169,8 +3238,11 @@
       <c r="C13" t="s">
         <v>22</v>
       </c>
+      <c r="D13" t="s">
+        <v>50</v>
+      </c>
       <c r="E13" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F13">
         <v>1</v>
@@ -3182,7 +3254,7 @@
         <v>69</v>
       </c>
       <c r="J13" s="21" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -3204,7 +3276,7 @@
       </c>
       <c r="I14" s="25"/>
       <c r="J14" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3212,10 +3284,10 @@
         <v>69</v>
       </c>
       <c r="B15" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E15" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -3227,10 +3299,10 @@
     <row r="16" spans="1:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="87"/>
       <c r="B16" s="67" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E16" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -3239,7 +3311,7 @@
         <v>22</v>
       </c>
       <c r="I16" s="26" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="J16" s="27">
         <v>1</v>
@@ -3250,10 +3322,10 @@
     </row>
     <row r="17" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A17" s="84" t="s">
+        <v>226</v>
+      </c>
+      <c r="B17" s="66" t="s">
         <v>227</v>
-      </c>
-      <c r="B17" s="66" t="s">
-        <v>228</v>
       </c>
       <c r="E17" s="29" t="s">
         <v>66</v>
@@ -3266,66 +3338,66 @@
         <v>69</v>
       </c>
       <c r="J17" s="21" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="85"/>
       <c r="B18" s="65" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E18" s="83" t="s">
         <v>69</v>
       </c>
       <c r="F18" s="21" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I18" s="83"/>
       <c r="J18" s="21" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="19" spans="1:11" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E19" s="83"/>
       <c r="F19" s="21" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="H19" s="68"/>
       <c r="I19" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="J19" s="73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="20" spans="1:11" ht="18.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="F20" s="69" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G20" s="70"/>
       <c r="H20" s="68"/>
       <c r="I20" s="85"/>
       <c r="J20" s="74" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="E21" s="86"/>
       <c r="F21" s="71" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="18.75" x14ac:dyDescent="0.3">
       <c r="E22" s="86"/>
       <c r="F22" s="21" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G22" s="70"/>
       <c r="I22" s="80" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="J22" s="80"/>
       <c r="K22" s="80"/>
@@ -3333,7 +3405,7 @@
     <row r="23" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E23" s="85"/>
       <c r="F23" s="21" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G23" s="70"/>
       <c r="I23" t="s">
@@ -3348,14 +3420,14 @@
     </row>
     <row r="24" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A24" s="75" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" s="75"/>
       <c r="C24" s="75"/>
       <c r="E24" s="72"/>
       <c r="F24" s="72"/>
       <c r="I24" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J24">
         <v>1</v>
@@ -3375,7 +3447,7 @@
         <v>53</v>
       </c>
       <c r="I25" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="J25">
         <v>2</v>
@@ -3386,7 +3458,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B26" s="15">
         <v>1</v>
@@ -3404,7 +3476,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B27" s="32">
         <v>2</v>
@@ -3416,12 +3488,12 @@
         <v>69</v>
       </c>
       <c r="J27" s="21" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3431,7 +3503,7 @@
       </c>
       <c r="I28" s="25"/>
       <c r="J28" s="21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
@@ -3449,153 +3521,153 @@
         <v>69</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="83"/>
       <c r="B31" s="21" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A32" s="84" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B32" s="73" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="85"/>
       <c r="B33" s="74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A34" s="81" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B34" s="81"/>
       <c r="C34" s="81"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B35">
         <v>4</v>
       </c>
       <c r="C35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36">
         <v>2</v>
       </c>
       <c r="C36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B37">
         <v>1</v>
       </c>
       <c r="C37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38">
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B39">
         <v>1</v>
       </c>
       <c r="C39" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B40">
         <v>1</v>
       </c>
       <c r="C40" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D40" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B41">
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B42">
         <v>4</v>
       </c>
       <c r="C42" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D42" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E42" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B43">
         <v>3</v>
       </c>
       <c r="C43" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
       <c r="C44" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -3612,13 +3684,13 @@
         <v>69</v>
       </c>
       <c r="B46" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="25"/>
       <c r="B47" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -3679,240 +3751,240 @@
         <v>55</v>
       </c>
       <c r="B1" s="64" t="s">
+        <v>114</v>
+      </c>
+      <c r="C1" s="64" t="s">
         <v>115</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="D1" s="64" t="s">
         <v>116</v>
       </c>
-      <c r="D1" s="64" t="s">
+      <c r="E1" s="64" t="s">
         <v>117</v>
-      </c>
-      <c r="E1" s="64" t="s">
-        <v>118</v>
       </c>
       <c r="F1" s="64" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88"/>
+      <c r="A2" s="93"/>
       <c r="B2" s="56" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C2" s="40"/>
       <c r="D2" s="40"/>
-      <c r="E2" s="94" t="s">
-        <v>223</v>
-      </c>
-      <c r="F2" s="95">
+      <c r="E2" s="98" t="s">
+        <v>222</v>
+      </c>
+      <c r="F2" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="88"/>
+      <c r="A3" s="93"/>
       <c r="B3" s="57" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C3" s="41"/>
       <c r="D3" s="41"/>
-      <c r="E3" s="94"/>
-      <c r="F3" s="95"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="88"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="58" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
-      <c r="E4" s="96" t="s">
-        <v>120</v>
-      </c>
-      <c r="F4" s="95">
+      <c r="E4" s="90" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="88"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="59" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C5" s="43"/>
       <c r="D5" s="43"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="95"/>
+      <c r="E5" s="90"/>
+      <c r="F5" s="89"/>
     </row>
     <row r="6" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="88"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="60" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="44"/>
       <c r="D6" s="44"/>
-      <c r="E6" s="97" t="s">
+      <c r="E6" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="F6" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="93"/>
+      <c r="B7" s="60" t="s">
         <v>123</v>
-      </c>
-      <c r="F6" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="88"/>
-      <c r="B7" s="60" t="s">
-        <v>124</v>
       </c>
       <c r="C7" s="44"/>
       <c r="D7" s="44"/>
-      <c r="E7" s="97"/>
-      <c r="F7" s="95"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="89"/>
     </row>
     <row r="8" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="88"/>
+      <c r="A8" s="93"/>
       <c r="B8" s="36" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="37"/>
-      <c r="E8" s="98" t="s">
+      <c r="E8" s="100" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="95">
+      <c r="F8" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="88"/>
+      <c r="A9" s="93"/>
       <c r="B9" s="38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C9" s="39"/>
       <c r="D9" s="39"/>
-      <c r="E9" s="98"/>
-      <c r="F9" s="95"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="89"/>
     </row>
     <row r="10" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="88"/>
+      <c r="A10" s="93"/>
       <c r="B10" s="56" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C10" s="40"/>
       <c r="D10" s="40"/>
-      <c r="E10" s="94" t="s">
-        <v>128</v>
-      </c>
-      <c r="F10" s="95">
+      <c r="E10" s="98" t="s">
+        <v>127</v>
+      </c>
+      <c r="F10" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="88"/>
+      <c r="A11" s="93"/>
       <c r="B11" s="57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C11" s="41"/>
       <c r="D11" s="41"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="95"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="89"/>
     </row>
     <row r="12" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="88"/>
+      <c r="A12" s="93"/>
       <c r="B12" s="45" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
-      <c r="E12" s="99" t="s">
+      <c r="E12" s="88" t="s">
+        <v>129</v>
+      </c>
+      <c r="F12" s="89">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="93"/>
+      <c r="B13" s="45" t="s">
         <v>130</v>
-      </c>
-      <c r="F12" s="95">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="88"/>
-      <c r="B13" s="45" t="s">
-        <v>131</v>
       </c>
       <c r="C13" s="46"/>
       <c r="D13" s="46"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="95"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
     </row>
     <row r="14" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="88"/>
+      <c r="A14" s="93"/>
       <c r="B14" s="58" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C14" s="42"/>
       <c r="D14" s="42"/>
-      <c r="E14" s="96" t="s">
-        <v>133</v>
-      </c>
-      <c r="F14" s="95">
+      <c r="E14" s="90" t="s">
+        <v>132</v>
+      </c>
+      <c r="F14" s="89">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="88"/>
+      <c r="A15" s="93"/>
       <c r="B15" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="95"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="89"/>
     </row>
     <row r="16" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="88"/>
+      <c r="A16" s="93"/>
       <c r="B16" s="36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C16" s="37"/>
       <c r="D16" s="37"/>
-      <c r="E16" s="100" t="s">
+      <c r="E16" s="91" t="s">
         <v>50</v>
       </c>
-      <c r="F16" s="90">
+      <c r="F16" s="92">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="88"/>
+      <c r="A17" s="93"/>
       <c r="B17" s="45" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="46"/>
       <c r="D17" s="46"/>
-      <c r="E17" s="100"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="91"/>
+      <c r="F17" s="92"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="88"/>
+      <c r="A18" s="93"/>
       <c r="B18" s="61" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C18" s="53"/>
       <c r="D18" s="53"/>
-      <c r="E18" s="92" t="s">
-        <v>219</v>
-      </c>
-      <c r="F18" s="90">
+      <c r="E18" s="96" t="s">
+        <v>218</v>
+      </c>
+      <c r="F18" s="92">
         <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="89"/>
+      <c r="A19" s="94"/>
       <c r="B19" s="62" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C19" s="54"/>
       <c r="D19" s="54"/>
-      <c r="E19" s="93"/>
-      <c r="F19" s="91"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="95"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E20" s="52" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="F20" s="55">
         <f>SUM(F2:F19)</f>
@@ -3921,9 +3993,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
     <mergeCell ref="A2:A19"/>
     <mergeCell ref="F18:F19"/>
     <mergeCell ref="E18:E19"/>
@@ -3940,6 +4009,9 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
   </mergeCells>
   <conditionalFormatting sqref="C10:C18 D10:D20 C2:D9">
     <cfRule type="containsText" dxfId="16" priority="2" operator="containsText" text="'Oui'"/>
@@ -3984,186 +4056,186 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="H1" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="C2" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="D2" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="E2" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="F2" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="F2" s="47" t="s">
+      <c r="G2" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G2" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="H2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>150</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>151</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>152</v>
       </c>
       <c r="D3" s="6">
         <v>2</v>
       </c>
       <c r="E3" s="6"/>
       <c r="F3" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>154</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>155</v>
       </c>
       <c r="D4" s="6">
         <v>7</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F4" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H4" t="s">
         <v>149</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H4" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="D5" s="6">
         <v>14</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F5" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C6" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
       </c>
       <c r="E6" s="6"/>
       <c r="F6" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G6" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="H6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>160</v>
+      </c>
+      <c r="B7" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="C7" s="6" t="s">
         <v>162</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>163</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H7" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>163</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>164</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>165</v>
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6">
@@ -4171,21 +4243,21 @@
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H8" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6">
@@ -4193,21 +4265,21 @@
       </c>
       <c r="E9" s="6"/>
       <c r="F9" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6">
@@ -4215,21 +4287,21 @@
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="6" t="s">
         <v>168</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>169</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6">
@@ -4237,248 +4309,248 @@
       </c>
       <c r="E11" s="6"/>
       <c r="F11" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="6">
         <v>2</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="6">
         <v>3</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="6">
         <v>3</v>
       </c>
       <c r="F14" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G14" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="G14" s="10" t="s">
-        <v>150</v>
-      </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="6" t="s">
         <v>174</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>175</v>
       </c>
       <c r="D15" s="6">
         <v>3</v>
       </c>
       <c r="F15" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="H15" t="s">
         <v>149</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="H15" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D16" s="6">
         <v>2</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D17" s="6">
         <v>2</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>178</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>179</v>
       </c>
       <c r="D18" s="6">
         <v>2</v>
       </c>
       <c r="E18" s="6"/>
       <c r="F18" s="6" t="s">
+        <v>148</v>
+      </c>
+      <c r="G18" t="s">
         <v>149</v>
       </c>
-      <c r="G18" t="s">
-        <v>150</v>
-      </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B19" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" s="6" t="s">
         <v>145</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>146</v>
       </c>
       <c r="D19" s="6">
         <v>2</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6">
         <v>2</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6">
         <v>2</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C22" s="6"/>
       <c r="D22" s="6">
         <v>2</v>
       </c>
       <c r="F22" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -4486,45 +4558,45 @@
         <v>50</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D23" s="6">
         <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F23" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
+        <v>183</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C24" t="s">
         <v>184</v>
       </c>
-      <c r="B24" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C24" t="s">
-        <v>185</v>
-      </c>
       <c r="E24" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F24" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -4580,108 +4652,108 @@
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>188</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G2" t="s">
         <v>189</v>
-      </c>
-      <c r="B2" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G2" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
+        <v>190</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>144</v>
+      </c>
+      <c r="C3" t="s">
         <v>191</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="C3" t="s">
-        <v>192</v>
       </c>
       <c r="D3" s="10"/>
       <c r="F3" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D4" s="10"/>
       <c r="F4" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="10"/>
       <c r="F5" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G5" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="48" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D6" s="10"/>
       <c r="F6" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -4735,109 +4807,109 @@
   <sheetData>
     <row r="1" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>201</v>
-      </c>
       <c r="D1" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C2" s="6"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C3" s="6"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C4" s="6"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="B5" s="6" t="s">
         <v>159</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>160</v>
       </c>
       <c r="C5" s="6"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C6" s="6"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="6"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
+        <v>156</v>
+      </c>
+      <c r="B8" s="6" t="s">
         <v>157</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>158</v>
       </c>
       <c r="C8" s="6"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C10" s="6"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C11" s="6"/>
     </row>
@@ -4890,28 +4962,28 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="49" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C2" s="50" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C3" s="51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>
